--- a/ClimateStatsforDCEW.xlsx
+++ b/ClimateStatsforDCEW.xlsx
@@ -12,14 +12,15 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" tabRatio="464"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="scatterplots" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="17">
   <si>
     <t>wet</t>
   </si>
@@ -61,6 +62,15 @@
   </si>
   <si>
     <t>BRW</t>
+  </si>
+  <si>
+    <t>Average temp stats</t>
+  </si>
+  <si>
+    <t>increase precipitation 10% depth</t>
+  </si>
+  <si>
+    <t>decrease precipitation 10% depth</t>
   </si>
 </sst>
 </file>
@@ -333,27 +343,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1"/>
@@ -380,7 +395,14 @@
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
-  <c:style val="2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -428,7 +450,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1:$C$1</c:f>
+              <c:f>data!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -448,7 +470,7 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$7</c:f>
+              <c:f>data!$A$4:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -471,9 +493,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$F$7</c:f>
+              <c:f>data!$F$4:$F$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1.89</c:v>
@@ -500,7 +522,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$1:$I$1</c:f>
+              <c:f>data!$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -520,7 +542,7 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$7</c:f>
+              <c:f>data!$A$4:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -543,9 +565,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$L$3:$L$7</c:f>
+              <c:f>data!$L$4:$L$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1.68</c:v>
@@ -575,11 +597,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2111544352"/>
-        <c:axId val="2111545440"/>
+        <c:axId val="377264864"/>
+        <c:axId val="377274112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2111545440"/>
+        <c:axId val="377274112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -604,7 +626,7 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -625,12 +647,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2111544352"/>
+        <c:crossAx val="377264864"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2111544352"/>
+        <c:axId val="377264864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -658,7 +680,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111545440"/>
+        <c:crossAx val="377274112"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -722,7 +744,14 @@
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
-  <c:style val="2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -770,7 +799,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1:$C$1</c:f>
+              <c:f>data!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -790,7 +819,7 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$7</c:f>
+              <c:f>data!$A$4:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -813,9 +842,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$3:$G$7</c:f>
+              <c:f>data!$G$4:$G$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>104.92</c:v>
@@ -842,7 +871,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$1:$I$1</c:f>
+              <c:f>data!$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -862,7 +891,7 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$7</c:f>
+              <c:f>data!$A$4:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -885,9 +914,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$M$3:$M$7</c:f>
+              <c:f>data!$M$4:$M$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>505.82</c:v>
@@ -917,11 +946,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2111546528"/>
-        <c:axId val="2111541088"/>
+        <c:axId val="377265408"/>
+        <c:axId val="377279008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2111541088"/>
+        <c:axId val="377279008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -946,7 +975,7 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -967,12 +996,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2111546528"/>
+        <c:crossAx val="377265408"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2111546528"/>
+        <c:axId val="377265408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1000,7 +1029,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111541088"/>
+        <c:crossAx val="377279008"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1064,7 +1093,14 @@
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
-  <c:style val="2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1112,7 +1148,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1:$C$1</c:f>
+              <c:f>data!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1132,7 +1168,7 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$7</c:f>
+              <c:f>data!$A$4:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1155,9 +1191,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$3:$H$7</c:f>
+              <c:f>data!$H$4:$H$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>3.45</c:v>
@@ -1184,7 +1220,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$1:$I$1</c:f>
+              <c:f>data!$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1204,7 +1240,7 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$7</c:f>
+              <c:f>data!$A$4:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1227,9 +1263,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$3:$N$7</c:f>
+              <c:f>data!$N$4:$N$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>4.0599999999999996</c:v>
@@ -1259,11 +1295,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2111550880"/>
-        <c:axId val="2111547072"/>
+        <c:axId val="377275200"/>
+        <c:axId val="377270848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2111547072"/>
+        <c:axId val="377270848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1288,7 +1324,7 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1309,12 +1345,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2111550880"/>
+        <c:crossAx val="377275200"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2111550880"/>
+        <c:axId val="377275200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1342,7 +1378,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111547072"/>
+        <c:crossAx val="377270848"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1461,7 +1497,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>data!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1481,7 +1517,7 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$7</c:f>
+              <c:f>data!$A$4:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1504,9 +1540,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$7</c:f>
+              <c:f>data!$E$4:$E$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2.444</c:v>
@@ -1533,7 +1569,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$1</c:f>
+              <c:f>data!$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1553,7 +1589,7 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$7</c:f>
+              <c:f>data!$A$4:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1576,15 +1612,15 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$3:$I$7</c:f>
+              <c:f>data!$K$4:$K$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>3.3035999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3050000000000002</c:v>
+                  <c:v>2.3660000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.3460000000000001</c:v>
@@ -1608,11 +1644,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2109478960"/>
-        <c:axId val="2109478416"/>
+        <c:axId val="377275744"/>
+        <c:axId val="377278464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2109478416"/>
+        <c:axId val="377278464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1637,7 +1673,7 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1658,12 +1694,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2109478960"/>
+        <c:crossAx val="377275744"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2109478960"/>
+        <c:axId val="377275744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1691,7 +1727,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109478416"/>
+        <c:crossAx val="377278464"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1810,7 +1846,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>data!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1830,7 +1866,7 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$7</c:f>
+              <c:f>data!$A$4:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1853,9 +1889,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$7</c:f>
+              <c:f>data!$C$4:$C$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2.37</c:v>
@@ -1882,7 +1918,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$1</c:f>
+              <c:f>data!$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1902,7 +1938,7 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$7</c:f>
+              <c:f>data!$A$4:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1925,9 +1961,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$3:$J$7</c:f>
+              <c:f>data!$I$4:$I$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2.915</c:v>
@@ -1957,11 +1993,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="166057808"/>
-        <c:axId val="166056176"/>
+        <c:axId val="377269216"/>
+        <c:axId val="377267584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="166056176"/>
+        <c:axId val="377267584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1986,7 +2022,7 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2007,12 +2043,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166057808"/>
+        <c:crossAx val="377269216"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="166057808"/>
+        <c:axId val="377269216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2040,7 +2076,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166056176"/>
+        <c:crossAx val="377267584"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2159,7 +2195,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>data!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2179,7 +2215,7 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$7</c:f>
+              <c:f>data!$A$4:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2202,9 +2238,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$7</c:f>
+              <c:f>data!$D$4:$D$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2.415</c:v>
@@ -2231,7 +2267,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$1</c:f>
+              <c:f>data!$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2251,7 +2287,7 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$7</c:f>
+              <c:f>data!$A$4:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2274,9 +2310,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$K$3:$K$7</c:f>
+              <c:f>data!$J$4:$J$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2.988</c:v>
@@ -2306,11 +2342,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2111554688"/>
-        <c:axId val="2111552512"/>
+        <c:axId val="377272480"/>
+        <c:axId val="377271392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2111552512"/>
+        <c:axId val="377271392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2335,7 +2371,7 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2356,12 +2392,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2111554688"/>
+        <c:crossAx val="377272480"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2111554688"/>
+        <c:axId val="377272480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2389,7 +2425,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111552512"/>
+        <c:crossAx val="377271392"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2483,7 +2519,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$2</c:f>
+              <c:f>data!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2516,7 +2552,7 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$7</c:f>
+              <c:f>data!$A$4:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2539,9 +2575,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$7</c:f>
+              <c:f>data!$C$4:$C$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2.37</c:v>
@@ -2568,7 +2604,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$2</c:f>
+              <c:f>data!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2601,7 +2637,7 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$7</c:f>
+              <c:f>data!$A$4:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2624,9 +2660,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$7</c:f>
+              <c:f>data!$D$4:$D$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2.415</c:v>
@@ -2653,7 +2689,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$2</c:f>
+              <c:f>data!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2686,7 +2722,7 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$7</c:f>
+              <c:f>data!$A$4:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2709,9 +2745,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$7</c:f>
+              <c:f>data!$E$4:$E$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2.444</c:v>
@@ -2738,7 +2774,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$2</c:f>
+              <c:f>data!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2771,7 +2807,7 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$7</c:f>
+              <c:f>data!$A$4:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2794,9 +2830,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$3:$J$7</c:f>
+              <c:f>data!$I$4:$I$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2.915</c:v>
@@ -2823,7 +2859,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$2</c:f>
+              <c:f>data!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2856,7 +2892,7 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$7</c:f>
+              <c:f>data!$A$4:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2879,9 +2915,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$K$3:$K$7</c:f>
+              <c:f>data!$J$4:$J$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2.988</c:v>
@@ -2908,7 +2944,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$2</c:f>
+              <c:f>data!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2941,7 +2977,7 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$7</c:f>
+              <c:f>data!$A$4:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2964,15 +3000,15 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$3:$I$7</c:f>
+              <c:f>data!$K$4:$K$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>3.3035999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3050000000000002</c:v>
+                  <c:v>2.3660000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.3460000000000001</c:v>
@@ -2996,11 +3032,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="217119056"/>
-        <c:axId val="217116336"/>
+        <c:axId val="377397952"/>
+        <c:axId val="377396320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="217119056"/>
+        <c:axId val="377397952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3010,12 +3046,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217116336"/>
+        <c:crossAx val="377396320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="217116336"/>
+        <c:axId val="377396320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.4"/>
@@ -3086,7 +3122,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3123,7 +3159,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217119056"/>
+        <c:crossAx val="377397952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3772,12 +3808,14 @@
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="1427353"/>
+    <xdr:pos x="0" y="345313"/>
     <xdr:ext cx="5416931" cy="3241421"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3792,12 +3830,14 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
   <xdr:absoluteAnchor>
-    <xdr:pos x="5667883" y="1367282"/>
+    <xdr:pos x="5681490" y="339671"/>
     <xdr:ext cx="5416931" cy="3241421"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3812,12 +3852,14 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
   <xdr:absoluteAnchor>
-    <xdr:pos x="11485753" y="1463040"/>
+    <xdr:pos x="11485753" y="0"/>
     <xdr:ext cx="5416931" cy="3241421"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3832,7 +3874,7 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
   <xdr:absoluteAnchor>
-    <xdr:pos x="938893" y="2925536"/>
+    <xdr:pos x="319768" y="3700871"/>
     <xdr:ext cx="5416931" cy="3241421"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3854,7 +3896,7 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
   <xdr:absoluteAnchor>
-    <xdr:pos x="5878286" y="3292928"/>
+    <xdr:pos x="5806848" y="4044451"/>
     <xdr:ext cx="5416931" cy="3241421"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3876,7 +3918,7 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
   <xdr:absoluteAnchor>
-    <xdr:pos x="11266714" y="3469821"/>
+    <xdr:pos x="11671526" y="3887968"/>
     <xdr:ext cx="5416931" cy="3241421"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3899,21 +3941,23 @@
   </xdr:absoluteAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>53068</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>106136</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>283709</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>71846</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>122464</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>182336</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>580344</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>186146</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4193,297 +4237,805 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:AL8"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="AA5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P6" sqref="P6"/>
+      <selection pane="bottomRight" activeCell="AJ17" sqref="AJ17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.5" customWidth="1"/>
-    <col min="5" max="5" width="3.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.375" customWidth="1"/>
-    <col min="8" max="8" width="6.375" customWidth="1"/>
-    <col min="9" max="9" width="3.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.5" customWidth="1"/>
-    <col min="11" max="11" width="3.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.125" customWidth="1"/>
-    <col min="13" max="13" width="3.875" customWidth="1"/>
-    <col min="14" max="14" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="6.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.25" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.25" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.5" style="2" customWidth="1"/>
+    <col min="15" max="15" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.25" style="2" customWidth="1"/>
+    <col min="18" max="18" width="10.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="7.125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="6.875" style="2" customWidth="1"/>
+    <col min="22" max="22" width="7.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="7.25" style="2" customWidth="1"/>
+    <col min="26" max="26" width="8" style="2" customWidth="1"/>
+    <col min="27" max="27" width="6.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.125" style="2" customWidth="1"/>
+    <col min="30" max="32" width="9.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6.875" style="2" customWidth="1"/>
+    <col min="35" max="35" width="7.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="38" width="9.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1">
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:38">
+      <c r="C1" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="O1" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="AA1" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+    </row>
+    <row r="2" spans="1:38" s="1" customFormat="1">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="O2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1">
-      <c r="C2" s="11" t="s">
+    <row r="3" spans="1:38" s="1" customFormat="1">
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="F3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="J3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="K3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="M3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="T3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="U3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="W3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="X3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="AB3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="AC3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="AE3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="AL3" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:38">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C4" s="10">
+        <v>2.37</v>
+      </c>
+      <c r="D4" s="10">
+        <v>2.415</v>
+      </c>
+      <c r="E4" s="9">
         <v>2.444</v>
       </c>
-      <c r="D3" s="15">
+      <c r="F4" s="10">
+        <v>1.89</v>
+      </c>
+      <c r="G4" s="10">
+        <v>104.92</v>
+      </c>
+      <c r="H4" s="11">
+        <v>3.45</v>
+      </c>
+      <c r="I4" s="13">
+        <v>2.915</v>
+      </c>
+      <c r="J4" s="13">
+        <v>2.988</v>
+      </c>
+      <c r="K4" s="12">
+        <v>3.3035999999999999</v>
+      </c>
+      <c r="L4" s="13">
+        <v>1.68</v>
+      </c>
+      <c r="M4" s="13">
+        <v>505.82</v>
+      </c>
+      <c r="N4" s="14">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="O4" s="10">
         <v>2.37</v>
       </c>
-      <c r="E3" s="15">
+      <c r="P4" s="10">
         <v>2.415</v>
       </c>
-      <c r="F3" s="15">
+      <c r="Q4" s="9">
+        <v>2.444</v>
+      </c>
+      <c r="R4" s="10">
         <v>1.89</v>
       </c>
-      <c r="G3" s="15">
+      <c r="S4" s="10">
         <v>104.92</v>
       </c>
-      <c r="H3" s="16">
-        <v>3.45</v>
-      </c>
-      <c r="I3" s="5">
+      <c r="T4" s="15">
+        <f>H4*1.1</f>
+        <v>3.7950000000000004</v>
+      </c>
+      <c r="U4" s="13">
+        <v>2.915</v>
+      </c>
+      <c r="V4" s="13">
+        <v>2.988</v>
+      </c>
+      <c r="W4" s="12">
         <v>3.3035999999999999</v>
       </c>
-      <c r="J3" s="6">
+      <c r="X4" s="13">
+        <v>1.68</v>
+      </c>
+      <c r="Y4" s="13">
+        <v>505.82</v>
+      </c>
+      <c r="Z4" s="14">
+        <f>N4*1.1</f>
+        <v>4.4660000000000002</v>
+      </c>
+      <c r="AA4" s="10">
+        <v>2.37</v>
+      </c>
+      <c r="AB4" s="10">
+        <v>2.415</v>
+      </c>
+      <c r="AC4" s="9">
+        <v>2.444</v>
+      </c>
+      <c r="AD4" s="10">
+        <v>1.89</v>
+      </c>
+      <c r="AE4" s="10">
+        <v>104.92</v>
+      </c>
+      <c r="AF4" s="15">
+        <f>$H4*0.9</f>
+        <v>3.1050000000000004</v>
+      </c>
+      <c r="AG4" s="13">
         <v>2.915</v>
       </c>
-      <c r="K3" s="6">
+      <c r="AH4" s="12">
+        <v>3.3035999999999999</v>
+      </c>
+      <c r="AI4" s="13">
         <v>2.988</v>
       </c>
-      <c r="L3" s="6">
+      <c r="AJ4" s="13">
         <v>1.68</v>
       </c>
-      <c r="M3" s="6">
+      <c r="AK4" s="13">
         <v>505.82</v>
       </c>
-      <c r="N3" s="7">
-        <v>4.0599999999999996</v>
+      <c r="AL4" s="13">
+        <f>$N4*0.9</f>
+        <v>3.6539999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:38">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4">
+      <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C5" s="17">
+        <v>1.716</v>
+      </c>
+      <c r="D5" s="17">
+        <v>1.7649999999999999</v>
+      </c>
+      <c r="E5" s="16">
         <v>1.7969999999999999</v>
       </c>
-      <c r="D4" s="18">
+      <c r="F5" s="17">
+        <v>4.38</v>
+      </c>
+      <c r="G5" s="17">
+        <v>71.41</v>
+      </c>
+      <c r="H5" s="15">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="I5" s="19">
+        <v>2.214</v>
+      </c>
+      <c r="J5" s="19">
+        <v>2.3050000000000002</v>
+      </c>
+      <c r="K5" s="18">
+        <v>2.3660000000000001</v>
+      </c>
+      <c r="L5" s="19">
+        <v>1.9</v>
+      </c>
+      <c r="M5" s="19">
+        <v>365.15</v>
+      </c>
+      <c r="N5" s="20">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="O5" s="17">
         <v>1.716</v>
       </c>
-      <c r="E4" s="18">
+      <c r="P5" s="17">
         <v>1.7649999999999999</v>
       </c>
-      <c r="F4" s="18">
+      <c r="Q5" s="16">
+        <v>1.7969999999999999</v>
+      </c>
+      <c r="R5" s="17">
         <v>4.38</v>
       </c>
-      <c r="G4" s="18">
+      <c r="S5" s="17">
         <v>71.41</v>
       </c>
-      <c r="H4" s="19">
-        <v>4.7300000000000004</v>
-      </c>
-      <c r="I4" s="8">
+      <c r="T5" s="15">
+        <f>H5*1.1</f>
+        <v>5.2030000000000012</v>
+      </c>
+      <c r="U5" s="19">
+        <v>2.214</v>
+      </c>
+      <c r="V5" s="19">
         <v>2.3050000000000002</v>
       </c>
-      <c r="J4" s="9">
+      <c r="W5" s="18">
+        <v>2.3660000000000001</v>
+      </c>
+      <c r="X5" s="19">
+        <v>1.9</v>
+      </c>
+      <c r="Y5" s="19">
+        <v>365.15</v>
+      </c>
+      <c r="Z5" s="20">
+        <f>N5*1.1</f>
+        <v>5.6210000000000004</v>
+      </c>
+      <c r="AA5" s="17">
+        <v>1.716</v>
+      </c>
+      <c r="AB5" s="17">
+        <v>1.7649999999999999</v>
+      </c>
+      <c r="AC5" s="16">
+        <v>1.7969999999999999</v>
+      </c>
+      <c r="AD5" s="17">
+        <v>4.38</v>
+      </c>
+      <c r="AE5" s="17">
+        <v>71.41</v>
+      </c>
+      <c r="AF5" s="15">
+        <f t="shared" ref="AF5:AF8" si="0">$H5*0.9</f>
+        <v>4.2570000000000006</v>
+      </c>
+      <c r="AG5" s="19">
         <v>2.214</v>
       </c>
-      <c r="K4" s="9">
+      <c r="AH5" s="18">
+        <v>2.3660000000000001</v>
+      </c>
+      <c r="AI5" s="19">
         <v>2.3050000000000002</v>
       </c>
-      <c r="L4" s="9">
+      <c r="AJ5" s="19">
         <v>1.9</v>
       </c>
-      <c r="M4" s="9">
+      <c r="AK5" s="19">
         <v>365.15</v>
       </c>
-      <c r="N4" s="10">
-        <v>5.1100000000000003</v>
+      <c r="AL5" s="19">
+        <f t="shared" ref="AL5:AL8" si="1">$N5*0.9</f>
+        <v>4.5990000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:38">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
+      <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C6" s="17">
+        <v>1.643</v>
+      </c>
+      <c r="D6" s="17">
+        <v>1.6890000000000001</v>
+      </c>
+      <c r="E6" s="16">
         <v>1.7190000000000001</v>
       </c>
-      <c r="D5" s="18">
+      <c r="F6" s="17">
+        <v>23.38</v>
+      </c>
+      <c r="G6" s="17">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="H6" s="15">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="I6" s="19">
+        <v>2.2040000000000002</v>
+      </c>
+      <c r="J6" s="19">
+        <v>2.2890000000000001</v>
+      </c>
+      <c r="K6" s="18">
+        <v>2.3460000000000001</v>
+      </c>
+      <c r="L6" s="19">
+        <v>1.59</v>
+      </c>
+      <c r="M6" s="19">
+        <v>191.67</v>
+      </c>
+      <c r="N6" s="20">
+        <v>3.08</v>
+      </c>
+      <c r="O6" s="17">
         <v>1.643</v>
       </c>
-      <c r="E5" s="18">
+      <c r="P6" s="17">
         <v>1.6890000000000001</v>
       </c>
-      <c r="F5" s="18">
+      <c r="Q6" s="16">
+        <v>1.7190000000000001</v>
+      </c>
+      <c r="R6" s="17">
         <v>23.38</v>
       </c>
-      <c r="G5" s="18">
+      <c r="S6" s="17">
         <v>66.400000000000006</v>
       </c>
-      <c r="H5" s="19">
-        <v>4.3600000000000003</v>
-      </c>
-      <c r="I5" s="8">
+      <c r="T6" s="15">
+        <f>H6*1.1</f>
+        <v>4.7960000000000012</v>
+      </c>
+      <c r="U6" s="19">
+        <v>2.2040000000000002</v>
+      </c>
+      <c r="V6" s="19">
+        <v>2.2890000000000001</v>
+      </c>
+      <c r="W6" s="18">
         <v>2.3460000000000001</v>
       </c>
-      <c r="J5" s="9">
+      <c r="X6" s="19">
+        <v>1.59</v>
+      </c>
+      <c r="Y6" s="19">
+        <v>191.67</v>
+      </c>
+      <c r="Z6" s="20">
+        <f>N6*1.1</f>
+        <v>3.3880000000000003</v>
+      </c>
+      <c r="AA6" s="17">
+        <v>1.643</v>
+      </c>
+      <c r="AB6" s="17">
+        <v>1.6890000000000001</v>
+      </c>
+      <c r="AC6" s="16">
+        <v>1.7190000000000001</v>
+      </c>
+      <c r="AD6" s="17">
+        <v>23.38</v>
+      </c>
+      <c r="AE6" s="17">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="AF6" s="15">
+        <f t="shared" si="0"/>
+        <v>3.9240000000000004</v>
+      </c>
+      <c r="AG6" s="19">
         <v>2.2040000000000002</v>
       </c>
-      <c r="K5" s="9">
+      <c r="AH6" s="18">
+        <v>2.3460000000000001</v>
+      </c>
+      <c r="AI6" s="19">
         <v>2.2890000000000001</v>
       </c>
-      <c r="L5" s="9">
+      <c r="AJ6" s="19">
         <v>1.59</v>
       </c>
-      <c r="M5" s="9">
+      <c r="AK6" s="19">
         <v>191.67</v>
       </c>
-      <c r="N5" s="10">
-        <v>3.08</v>
+      <c r="AL6" s="19">
+        <f t="shared" si="1"/>
+        <v>2.7720000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:38">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6">
+      <c r="B7" s="2">
         <v>4</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C7" s="17">
+        <v>2.238</v>
+      </c>
+      <c r="D7" s="17">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="E7" s="16">
         <v>2.274</v>
       </c>
-      <c r="D6" s="18">
+      <c r="F7" s="17">
+        <v>13.19</v>
+      </c>
+      <c r="G7" s="17">
+        <v>79.209999999999994</v>
+      </c>
+      <c r="H7" s="15">
+        <v>4.24</v>
+      </c>
+      <c r="I7" s="19">
+        <v>3.1509999999999998</v>
+      </c>
+      <c r="J7" s="19">
+        <v>3.2429999999999999</v>
+      </c>
+      <c r="K7" s="18">
+        <v>3.3039999999999998</v>
+      </c>
+      <c r="L7" s="19">
+        <v>2.56</v>
+      </c>
+      <c r="M7" s="19">
+        <v>377.28</v>
+      </c>
+      <c r="N7" s="20">
+        <v>5.5</v>
+      </c>
+      <c r="O7" s="17">
         <v>2.238</v>
       </c>
-      <c r="E6" s="18">
+      <c r="P7" s="17">
         <v>2.2599999999999998</v>
       </c>
-      <c r="F6" s="18">
+      <c r="Q7" s="16">
+        <v>2.274</v>
+      </c>
+      <c r="R7" s="17">
         <v>13.19</v>
       </c>
-      <c r="G6" s="18">
+      <c r="S7" s="17">
         <v>79.209999999999994</v>
       </c>
-      <c r="H6" s="19">
-        <v>4.24</v>
-      </c>
-      <c r="I6" s="8">
+      <c r="T7" s="15">
+        <f>H7*1.1</f>
+        <v>4.6640000000000006</v>
+      </c>
+      <c r="U7" s="19">
+        <v>3.1509999999999998</v>
+      </c>
+      <c r="V7" s="19">
+        <v>3.2429999999999999</v>
+      </c>
+      <c r="W7" s="18">
         <v>3.3039999999999998</v>
       </c>
-      <c r="J6" s="9">
+      <c r="X7" s="19">
+        <v>2.56</v>
+      </c>
+      <c r="Y7" s="19">
+        <v>377.28</v>
+      </c>
+      <c r="Z7" s="20">
+        <f>N7*1.1</f>
+        <v>6.0500000000000007</v>
+      </c>
+      <c r="AA7" s="17">
+        <v>2.238</v>
+      </c>
+      <c r="AB7" s="17">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="AC7" s="16">
+        <v>2.274</v>
+      </c>
+      <c r="AD7" s="17">
+        <v>13.19</v>
+      </c>
+      <c r="AE7" s="17">
+        <v>79.209999999999994</v>
+      </c>
+      <c r="AF7" s="15">
+        <f t="shared" si="0"/>
+        <v>3.8160000000000003</v>
+      </c>
+      <c r="AG7" s="19">
         <v>3.1509999999999998</v>
       </c>
-      <c r="K6" s="9">
+      <c r="AH7" s="18">
+        <v>3.3039999999999998</v>
+      </c>
+      <c r="AI7" s="19">
         <v>3.2429999999999999</v>
       </c>
-      <c r="L6" s="9">
+      <c r="AJ7" s="19">
         <v>2.56</v>
       </c>
-      <c r="M6" s="9">
+      <c r="AK7" s="19">
         <v>377.28</v>
       </c>
-      <c r="N6" s="10">
-        <v>5.5</v>
+      <c r="AL7" s="19">
+        <f t="shared" si="1"/>
+        <v>4.95</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:38">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7">
+      <c r="B8" s="2">
         <v>5</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C8" s="17">
+        <v>1.4770000000000001</v>
+      </c>
+      <c r="D8" s="17">
+        <v>1.5089999999999999</v>
+      </c>
+      <c r="E8" s="16">
         <v>1.5269999999999999</v>
       </c>
-      <c r="D7" s="18">
+      <c r="F8" s="17">
+        <v>4.53</v>
+      </c>
+      <c r="G8" s="17">
+        <v>56.32</v>
+      </c>
+      <c r="H8" s="15">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="I8" s="19">
+        <v>2.3769999999999998</v>
+      </c>
+      <c r="J8" s="19">
+        <v>2.476</v>
+      </c>
+      <c r="K8" s="18">
+        <v>2.5409999999999999</v>
+      </c>
+      <c r="L8" s="19">
+        <v>1.4</v>
+      </c>
+      <c r="M8" s="19">
+        <v>192.71</v>
+      </c>
+      <c r="N8" s="20">
+        <v>3.22</v>
+      </c>
+      <c r="O8" s="17">
         <v>1.4770000000000001</v>
       </c>
-      <c r="E7" s="18">
+      <c r="P8" s="17">
         <v>1.5089999999999999</v>
       </c>
-      <c r="F7" s="18">
+      <c r="Q8" s="16">
+        <v>1.5269999999999999</v>
+      </c>
+      <c r="R8" s="17">
         <v>4.53</v>
       </c>
-      <c r="G7" s="18">
+      <c r="S8" s="17">
         <v>56.32</v>
       </c>
-      <c r="H7" s="19">
-        <v>4.2699999999999996</v>
-      </c>
-      <c r="I7" s="8">
+      <c r="T8" s="15">
+        <f>H8*1.1</f>
+        <v>4.6970000000000001</v>
+      </c>
+      <c r="U8" s="19">
+        <v>2.3769999999999998</v>
+      </c>
+      <c r="V8" s="19">
+        <v>2.476</v>
+      </c>
+      <c r="W8" s="18">
         <v>2.5409999999999999</v>
       </c>
-      <c r="J7" s="9">
+      <c r="X8" s="19">
+        <v>1.4</v>
+      </c>
+      <c r="Y8" s="19">
+        <v>192.71</v>
+      </c>
+      <c r="Z8" s="20">
+        <f>N8*1.1</f>
+        <v>3.5420000000000007</v>
+      </c>
+      <c r="AA8" s="17">
+        <v>1.4770000000000001</v>
+      </c>
+      <c r="AB8" s="17">
+        <v>1.5089999999999999</v>
+      </c>
+      <c r="AC8" s="16">
+        <v>1.5269999999999999</v>
+      </c>
+      <c r="AD8" s="17">
+        <v>4.53</v>
+      </c>
+      <c r="AE8" s="17">
+        <v>56.32</v>
+      </c>
+      <c r="AF8" s="15">
+        <f t="shared" si="0"/>
+        <v>3.8429999999999995</v>
+      </c>
+      <c r="AG8" s="19">
         <v>2.3769999999999998</v>
       </c>
-      <c r="K7" s="9">
+      <c r="AH8" s="18">
+        <v>2.5409999999999999</v>
+      </c>
+      <c r="AI8" s="19">
         <v>2.476</v>
       </c>
-      <c r="L7" s="9">
+      <c r="AJ8" s="19">
         <v>1.4</v>
       </c>
-      <c r="M7" s="9">
+      <c r="AK8" s="19">
         <v>192.71</v>
       </c>
-      <c r="N7" s="10">
-        <v>3.22</v>
+      <c r="AL8" s="19">
+        <f t="shared" si="1"/>
+        <v>2.8980000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -4493,6 +5045,20 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="O47" sqref="O47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/ClimateStatsforDCEW.xlsx
+++ b/ClimateStatsforDCEW.xlsx
@@ -64,13 +64,13 @@
     <t>BRW</t>
   </si>
   <si>
-    <t>Average temp stats</t>
+    <t>decrease precipitation 10% depth</t>
   </si>
   <si>
-    <t>increase precipitation 10% depth</t>
+    <t>Average temp and precip stats</t>
   </si>
   <si>
-    <t>decrease precipitation 10% depth</t>
+    <t>increase precipitation by 10% depth and temp with MACA R4.5 data</t>
   </si>
 </sst>
 </file>
@@ -597,11 +597,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="377264864"/>
-        <c:axId val="377274112"/>
+        <c:axId val="251005680"/>
+        <c:axId val="251005136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="377274112"/>
+        <c:axId val="251005136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -647,12 +647,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="377264864"/>
+        <c:crossAx val="251005680"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="377264864"/>
+        <c:axId val="251005680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -680,7 +680,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="377274112"/>
+        <c:crossAx val="251005136"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -946,11 +946,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="377265408"/>
-        <c:axId val="377279008"/>
+        <c:axId val="251010032"/>
+        <c:axId val="251014928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="377279008"/>
+        <c:axId val="251014928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -996,12 +996,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="377265408"/>
+        <c:crossAx val="251010032"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="377265408"/>
+        <c:axId val="251010032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1029,7 +1029,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="377279008"/>
+        <c:crossAx val="251014928"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1295,11 +1295,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="377275200"/>
-        <c:axId val="377270848"/>
+        <c:axId val="415260880"/>
+        <c:axId val="415266320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="377270848"/>
+        <c:axId val="415266320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1345,12 +1345,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="377275200"/>
+        <c:crossAx val="415260880"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="377275200"/>
+        <c:axId val="415260880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1378,7 +1378,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="377270848"/>
+        <c:crossAx val="415266320"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1644,11 +1644,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="377275744"/>
-        <c:axId val="377278464"/>
+        <c:axId val="415270128"/>
+        <c:axId val="415258704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="377278464"/>
+        <c:axId val="415258704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1694,12 +1694,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="377275744"/>
+        <c:crossAx val="415270128"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="377275744"/>
+        <c:axId val="415270128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1727,7 +1727,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="377278464"/>
+        <c:crossAx val="415258704"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1993,11 +1993,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="377269216"/>
-        <c:axId val="377267584"/>
+        <c:axId val="415260336"/>
+        <c:axId val="415258160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="377267584"/>
+        <c:axId val="415258160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2043,12 +2043,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="377269216"/>
+        <c:crossAx val="415260336"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="377269216"/>
+        <c:axId val="415260336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2076,7 +2076,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="377267584"/>
+        <c:crossAx val="415258160"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2342,11 +2342,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="377272480"/>
-        <c:axId val="377271392"/>
+        <c:axId val="415264144"/>
+        <c:axId val="415267408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="377271392"/>
+        <c:axId val="415267408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2392,12 +2392,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="377272480"/>
+        <c:crossAx val="415264144"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="377272480"/>
+        <c:axId val="415264144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2425,7 +2425,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="377271392"/>
+        <c:crossAx val="415267408"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3032,11 +3032,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="377397952"/>
-        <c:axId val="377396320"/>
+        <c:axId val="415265232"/>
+        <c:axId val="415263056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="377397952"/>
+        <c:axId val="415265232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3046,12 +3046,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="377396320"/>
+        <c:crossAx val="415263056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="377396320"/>
+        <c:axId val="415263056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.4"/>
@@ -3159,7 +3159,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="377397952"/>
+        <c:crossAx val="415265232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4240,10 +4240,10 @@
   <dimension ref="A1:AL8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="AA5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AJ17" sqref="AJ17"/>
+      <selection pane="bottomRight" activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4287,12 +4287,12 @@
   <sheetData>
     <row r="1" spans="1:38">
       <c r="C1" s="21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" s="21"/>
       <c r="E1" s="21"/>
       <c r="O1" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P1" s="22"/>
       <c r="Q1" s="22"/>
@@ -4300,7 +4300,7 @@
       <c r="S1" s="22"/>
       <c r="T1" s="22"/>
       <c r="AA1" s="22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AB1" s="22"/>
       <c r="AC1" s="22"/>
@@ -4481,15 +4481,9 @@
       <c r="N4" s="14">
         <v>4.0599999999999996</v>
       </c>
-      <c r="O4" s="10">
-        <v>2.37</v>
-      </c>
-      <c r="P4" s="10">
-        <v>2.415</v>
-      </c>
-      <c r="Q4" s="9">
-        <v>2.444</v>
-      </c>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="9"/>
       <c r="R4" s="10">
         <v>1.89</v>
       </c>
@@ -4500,15 +4494,9 @@
         <f>H4*1.1</f>
         <v>3.7950000000000004</v>
       </c>
-      <c r="U4" s="13">
-        <v>2.915</v>
-      </c>
-      <c r="V4" s="13">
-        <v>2.988</v>
-      </c>
-      <c r="W4" s="12">
-        <v>3.3035999999999999</v>
-      </c>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="12"/>
       <c r="X4" s="13">
         <v>1.68</v>
       </c>
@@ -4519,15 +4507,9 @@
         <f>N4*1.1</f>
         <v>4.4660000000000002</v>
       </c>
-      <c r="AA4" s="10">
-        <v>2.37</v>
-      </c>
-      <c r="AB4" s="10">
-        <v>2.415</v>
-      </c>
-      <c r="AC4" s="9">
-        <v>2.444</v>
-      </c>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="9"/>
       <c r="AD4" s="10">
         <v>1.89</v>
       </c>
@@ -4538,15 +4520,9 @@
         <f>$H4*0.9</f>
         <v>3.1050000000000004</v>
       </c>
-      <c r="AG4" s="13">
-        <v>2.915</v>
-      </c>
-      <c r="AH4" s="12">
-        <v>3.3035999999999999</v>
-      </c>
-      <c r="AI4" s="13">
-        <v>2.988</v>
-      </c>
+      <c r="AG4" s="13"/>
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="13"/>
       <c r="AJ4" s="13">
         <v>1.68</v>
       </c>
@@ -4602,13 +4578,13 @@
         <v>5.1100000000000003</v>
       </c>
       <c r="O5" s="17">
-        <v>1.716</v>
+        <v>1.597</v>
       </c>
       <c r="P5" s="17">
-        <v>1.7649999999999999</v>
+        <v>1.6419999999999999</v>
       </c>
       <c r="Q5" s="16">
-        <v>1.7969999999999999</v>
+        <v>1.673</v>
       </c>
       <c r="R5" s="17">
         <v>4.38</v>
@@ -4621,13 +4597,13 @@
         <v>5.2030000000000012</v>
       </c>
       <c r="U5" s="19">
-        <v>2.214</v>
+        <v>2.165</v>
       </c>
       <c r="V5" s="19">
-        <v>2.3050000000000002</v>
+        <v>2.2530000000000001</v>
       </c>
       <c r="W5" s="18">
-        <v>2.3660000000000001</v>
+        <v>2.3109999999999999</v>
       </c>
       <c r="X5" s="19">
         <v>1.9</v>
@@ -4639,15 +4615,9 @@
         <f>N5*1.1</f>
         <v>5.6210000000000004</v>
       </c>
-      <c r="AA5" s="17">
-        <v>1.716</v>
-      </c>
-      <c r="AB5" s="17">
-        <v>1.7649999999999999</v>
-      </c>
-      <c r="AC5" s="16">
-        <v>1.7969999999999999</v>
-      </c>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="16"/>
       <c r="AD5" s="17">
         <v>4.38</v>
       </c>
@@ -4658,15 +4628,9 @@
         <f t="shared" ref="AF5:AF8" si="0">$H5*0.9</f>
         <v>4.2570000000000006</v>
       </c>
-      <c r="AG5" s="19">
-        <v>2.214</v>
-      </c>
-      <c r="AH5" s="18">
-        <v>2.3660000000000001</v>
-      </c>
-      <c r="AI5" s="19">
-        <v>2.3050000000000002</v>
-      </c>
+      <c r="AG5" s="19"/>
+      <c r="AH5" s="18"/>
+      <c r="AI5" s="19"/>
       <c r="AJ5" s="19">
         <v>1.9</v>
       </c>
@@ -4721,15 +4685,9 @@
       <c r="N6" s="20">
         <v>3.08</v>
       </c>
-      <c r="O6" s="17">
-        <v>1.643</v>
-      </c>
-      <c r="P6" s="17">
-        <v>1.6890000000000001</v>
-      </c>
-      <c r="Q6" s="16">
-        <v>1.7190000000000001</v>
-      </c>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="16"/>
       <c r="R6" s="17">
         <v>23.38</v>
       </c>
@@ -4740,15 +4698,9 @@
         <f>H6*1.1</f>
         <v>4.7960000000000012</v>
       </c>
-      <c r="U6" s="19">
-        <v>2.2040000000000002</v>
-      </c>
-      <c r="V6" s="19">
-        <v>2.2890000000000001</v>
-      </c>
-      <c r="W6" s="18">
-        <v>2.3460000000000001</v>
-      </c>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="18"/>
       <c r="X6" s="19">
         <v>1.59</v>
       </c>
@@ -4759,15 +4711,9 @@
         <f>N6*1.1</f>
         <v>3.3880000000000003</v>
       </c>
-      <c r="AA6" s="17">
-        <v>1.643</v>
-      </c>
-      <c r="AB6" s="17">
-        <v>1.6890000000000001</v>
-      </c>
-      <c r="AC6" s="16">
-        <v>1.7190000000000001</v>
-      </c>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="16"/>
       <c r="AD6" s="17">
         <v>23.38</v>
       </c>
@@ -4778,15 +4724,9 @@
         <f t="shared" si="0"/>
         <v>3.9240000000000004</v>
       </c>
-      <c r="AG6" s="19">
-        <v>2.2040000000000002</v>
-      </c>
-      <c r="AH6" s="18">
-        <v>2.3460000000000001</v>
-      </c>
-      <c r="AI6" s="19">
-        <v>2.2890000000000001</v>
-      </c>
+      <c r="AG6" s="19"/>
+      <c r="AH6" s="18"/>
+      <c r="AI6" s="19"/>
       <c r="AJ6" s="19">
         <v>1.59</v>
       </c>
@@ -4841,15 +4781,9 @@
       <c r="N7" s="20">
         <v>5.5</v>
       </c>
-      <c r="O7" s="17">
-        <v>2.238</v>
-      </c>
-      <c r="P7" s="17">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="Q7" s="16">
-        <v>2.274</v>
-      </c>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="16"/>
       <c r="R7" s="17">
         <v>13.19</v>
       </c>
@@ -4860,15 +4794,9 @@
         <f>H7*1.1</f>
         <v>4.6640000000000006</v>
       </c>
-      <c r="U7" s="19">
-        <v>3.1509999999999998</v>
-      </c>
-      <c r="V7" s="19">
-        <v>3.2429999999999999</v>
-      </c>
-      <c r="W7" s="18">
-        <v>3.3039999999999998</v>
-      </c>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="18"/>
       <c r="X7" s="19">
         <v>2.56</v>
       </c>
@@ -4879,15 +4807,9 @@
         <f>N7*1.1</f>
         <v>6.0500000000000007</v>
       </c>
-      <c r="AA7" s="17">
-        <v>2.238</v>
-      </c>
-      <c r="AB7" s="17">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="AC7" s="16">
-        <v>2.274</v>
-      </c>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="17"/>
+      <c r="AC7" s="16"/>
       <c r="AD7" s="17">
         <v>13.19</v>
       </c>
@@ -4898,15 +4820,9 @@
         <f t="shared" si="0"/>
         <v>3.8160000000000003</v>
       </c>
-      <c r="AG7" s="19">
-        <v>3.1509999999999998</v>
-      </c>
-      <c r="AH7" s="18">
-        <v>3.3039999999999998</v>
-      </c>
-      <c r="AI7" s="19">
-        <v>3.2429999999999999</v>
-      </c>
+      <c r="AG7" s="19"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="19"/>
       <c r="AJ7" s="19">
         <v>2.56</v>
       </c>
@@ -4961,15 +4877,9 @@
       <c r="N8" s="20">
         <v>3.22</v>
       </c>
-      <c r="O8" s="17">
-        <v>1.4770000000000001</v>
-      </c>
-      <c r="P8" s="17">
-        <v>1.5089999999999999</v>
-      </c>
-      <c r="Q8" s="16">
-        <v>1.5269999999999999</v>
-      </c>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="16"/>
       <c r="R8" s="17">
         <v>4.53</v>
       </c>
@@ -4980,15 +4890,9 @@
         <f>H8*1.1</f>
         <v>4.6970000000000001</v>
       </c>
-      <c r="U8" s="19">
-        <v>2.3769999999999998</v>
-      </c>
-      <c r="V8" s="19">
-        <v>2.476</v>
-      </c>
-      <c r="W8" s="18">
-        <v>2.5409999999999999</v>
-      </c>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="18"/>
       <c r="X8" s="19">
         <v>1.4</v>
       </c>
@@ -4999,15 +4903,9 @@
         <f>N8*1.1</f>
         <v>3.5420000000000007</v>
       </c>
-      <c r="AA8" s="17">
-        <v>1.4770000000000001</v>
-      </c>
-      <c r="AB8" s="17">
-        <v>1.5089999999999999</v>
-      </c>
-      <c r="AC8" s="16">
-        <v>1.5269999999999999</v>
-      </c>
+      <c r="AA8" s="17"/>
+      <c r="AB8" s="17"/>
+      <c r="AC8" s="16"/>
       <c r="AD8" s="17">
         <v>4.53</v>
       </c>
@@ -5018,15 +4916,9 @@
         <f t="shared" si="0"/>
         <v>3.8429999999999995</v>
       </c>
-      <c r="AG8" s="19">
-        <v>2.3769999999999998</v>
-      </c>
-      <c r="AH8" s="18">
-        <v>2.5409999999999999</v>
-      </c>
-      <c r="AI8" s="19">
-        <v>2.476</v>
-      </c>
+      <c r="AG8" s="19"/>
+      <c r="AH8" s="18"/>
+      <c r="AI8" s="19"/>
       <c r="AJ8" s="19">
         <v>1.4</v>
       </c>

--- a/ClimateStatsforDCEW.xlsx
+++ b/ClimateStatsforDCEW.xlsx
@@ -597,11 +597,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="251005680"/>
-        <c:axId val="251005136"/>
+        <c:axId val="456306560"/>
+        <c:axId val="456309280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="251005136"/>
+        <c:axId val="456309280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -623,7 +623,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -647,12 +646,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="251005680"/>
+        <c:crossAx val="456306560"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="251005680"/>
+        <c:axId val="456306560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -674,13 +673,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="251005136"/>
+        <c:crossAx val="456309280"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -946,11 +944,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="251010032"/>
-        <c:axId val="251014928"/>
+        <c:axId val="456311456"/>
+        <c:axId val="456307648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="251014928"/>
+        <c:axId val="456307648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -972,7 +970,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -996,12 +993,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="251010032"/>
+        <c:crossAx val="456311456"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="251010032"/>
+        <c:axId val="456311456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1023,13 +1020,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="251014928"/>
+        <c:crossAx val="456307648"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1295,11 +1291,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="415260880"/>
-        <c:axId val="415266320"/>
+        <c:axId val="456297856"/>
+        <c:axId val="456301664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="415266320"/>
+        <c:axId val="456301664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1321,7 +1317,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -1345,12 +1340,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415260880"/>
+        <c:crossAx val="456297856"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="415260880"/>
+        <c:axId val="456297856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1372,13 +1367,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="415266320"/>
+        <c:crossAx val="456301664"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1644,11 +1638,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="415270128"/>
-        <c:axId val="415258704"/>
+        <c:axId val="453873968"/>
+        <c:axId val="456309824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="415258704"/>
+        <c:axId val="456309824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1670,7 +1664,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -1694,12 +1687,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415270128"/>
+        <c:crossAx val="453873968"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="415270128"/>
+        <c:axId val="453873968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1721,13 +1714,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="415258704"/>
+        <c:crossAx val="456309824"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1993,11 +1985,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="415260336"/>
-        <c:axId val="415258160"/>
+        <c:axId val="494716976"/>
+        <c:axId val="494718064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="415258160"/>
+        <c:axId val="494718064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2019,7 +2011,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -2043,12 +2034,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415260336"/>
+        <c:crossAx val="494716976"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="415260336"/>
+        <c:axId val="494716976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2070,13 +2061,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="415258160"/>
+        <c:crossAx val="494718064"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2342,11 +2332,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="415264144"/>
-        <c:axId val="415267408"/>
+        <c:axId val="494725136"/>
+        <c:axId val="494710448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="415267408"/>
+        <c:axId val="494710448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2368,7 +2358,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -2392,12 +2381,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415264144"/>
+        <c:crossAx val="494725136"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="415264144"/>
+        <c:axId val="494725136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2419,13 +2408,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="415267408"/>
+        <c:crossAx val="494710448"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3032,11 +3020,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="415265232"/>
-        <c:axId val="415263056"/>
+        <c:axId val="494712080"/>
+        <c:axId val="494719152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="415265232"/>
+        <c:axId val="494712080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3046,12 +3034,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="415263056"/>
+        <c:crossAx val="494719152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="415263056"/>
+        <c:axId val="494719152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.4"/>
@@ -3159,7 +3147,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415265232"/>
+        <c:crossAx val="494712080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4240,10 +4228,10 @@
   <dimension ref="A1:AL8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X18" sqref="X18"/>
+      <selection pane="bottomRight" activeCell="AD19" sqref="AD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4422,11 +4410,11 @@
       <c r="AG3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="AH3" s="6" t="s">
+      <c r="AH3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI3" s="6" t="s">
         <v>2</v>
-      </c>
-      <c r="AI3" s="7" t="s">
-        <v>4</v>
       </c>
       <c r="AJ3" s="7" t="s">
         <v>5</v>
@@ -4521,8 +4509,8 @@
         <v>3.1050000000000004</v>
       </c>
       <c r="AG4" s="13"/>
-      <c r="AH4" s="12"/>
-      <c r="AI4" s="13"/>
+      <c r="AH4" s="13"/>
+      <c r="AI4" s="12"/>
       <c r="AJ4" s="13">
         <v>1.68</v>
       </c>
@@ -4578,13 +4566,13 @@
         <v>5.1100000000000003</v>
       </c>
       <c r="O5" s="17">
-        <v>1.597</v>
+        <v>1.863</v>
       </c>
       <c r="P5" s="17">
-        <v>1.6419999999999999</v>
+        <v>1.905</v>
       </c>
       <c r="Q5" s="16">
-        <v>1.673</v>
+        <v>1.9350000000000001</v>
       </c>
       <c r="R5" s="17">
         <v>4.38</v>
@@ -4597,13 +4585,13 @@
         <v>5.2030000000000012</v>
       </c>
       <c r="U5" s="19">
-        <v>2.165</v>
+        <v>2.3239999999999998</v>
       </c>
       <c r="V5" s="19">
-        <v>2.2530000000000001</v>
+        <v>2.4009999999999998</v>
       </c>
       <c r="W5" s="18">
-        <v>2.3109999999999999</v>
+        <v>2.452</v>
       </c>
       <c r="X5" s="19">
         <v>1.9</v>
@@ -4629,8 +4617,8 @@
         <v>4.2570000000000006</v>
       </c>
       <c r="AG5" s="19"/>
-      <c r="AH5" s="18"/>
-      <c r="AI5" s="19"/>
+      <c r="AH5" s="19"/>
+      <c r="AI5" s="18"/>
       <c r="AJ5" s="19">
         <v>1.9</v>
       </c>

--- a/ClimateStatsforDCEW.xlsx
+++ b/ClimateStatsforDCEW.xlsx
@@ -64,13 +64,13 @@
     <t>BRW</t>
   </si>
   <si>
-    <t>decrease precipitation 10% depth</t>
-  </si>
-  <si>
     <t>Average temp and precip stats</t>
   </si>
   <si>
     <t>increase precipitation by 10% depth and temp with MACA R4.5 data</t>
+  </si>
+  <si>
+    <t>decrease precipitation 10% depth and temp with MAVA RCP4.5</t>
   </si>
 </sst>
 </file>
@@ -597,11 +597,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="456306560"/>
-        <c:axId val="456309280"/>
+        <c:axId val="-1129957696"/>
+        <c:axId val="-1129958240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="456309280"/>
+        <c:axId val="-1129958240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -646,12 +646,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="456306560"/>
+        <c:crossAx val="-1129957696"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="456306560"/>
+        <c:axId val="-1129957696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -678,7 +678,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="456309280"/>
+        <c:crossAx val="-1129958240"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -944,11 +944,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="456311456"/>
-        <c:axId val="456307648"/>
+        <c:axId val="-1090225536"/>
+        <c:axId val="-1334257440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="456307648"/>
+        <c:axId val="-1334257440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -993,12 +993,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="456311456"/>
+        <c:crossAx val="-1090225536"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="456311456"/>
+        <c:axId val="-1090225536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1025,7 +1025,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="456307648"/>
+        <c:crossAx val="-1334257440"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1291,11 +1291,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="456297856"/>
-        <c:axId val="456301664"/>
+        <c:axId val="-1090218464"/>
+        <c:axId val="-1090220640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="456301664"/>
+        <c:axId val="-1090220640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1340,12 +1340,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="456297856"/>
+        <c:crossAx val="-1090218464"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="456297856"/>
+        <c:axId val="-1090218464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1372,7 +1372,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="456301664"/>
+        <c:crossAx val="-1090220640"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1542,7 +1542,7 @@
                   <c:v>2.444</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7969999999999999</c:v>
+                  <c:v>1.8620000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.7190000000000001</c:v>
@@ -1614,7 +1614,7 @@
                   <c:v>3.3035999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3660000000000001</c:v>
+                  <c:v>2.5009999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.3460000000000001</c:v>
@@ -1638,11 +1638,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="453873968"/>
-        <c:axId val="456309824"/>
+        <c:axId val="-1090223360"/>
+        <c:axId val="-1090217376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="456309824"/>
+        <c:axId val="-1090217376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1687,12 +1687,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453873968"/>
+        <c:crossAx val="-1090223360"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="453873968"/>
+        <c:axId val="-1090223360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1719,7 +1719,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="456309824"/>
+        <c:crossAx val="-1090217376"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1889,7 +1889,7 @@
                   <c:v>2.37</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.716</c:v>
+                  <c:v>1.7769999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.643</c:v>
@@ -1961,7 +1961,7 @@
                   <c:v>2.915</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.214</c:v>
+                  <c:v>2.3450000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.2040000000000002</c:v>
@@ -1985,11 +1985,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="494716976"/>
-        <c:axId val="494718064"/>
+        <c:axId val="-1090217920"/>
+        <c:axId val="-1090212480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="494718064"/>
+        <c:axId val="-1090212480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2034,12 +2034,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494716976"/>
+        <c:crossAx val="-1090217920"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="494716976"/>
+        <c:axId val="-1090217920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2066,7 +2066,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="494718064"/>
+        <c:crossAx val="-1090212480"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2236,7 +2236,7 @@
                   <c:v>2.415</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7649999999999999</c:v>
+                  <c:v>1.8280000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.6890000000000001</c:v>
@@ -2308,7 +2308,7 @@
                   <c:v>2.988</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3050000000000002</c:v>
+                  <c:v>2.4390000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.2890000000000001</c:v>
@@ -2332,11 +2332,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="494725136"/>
-        <c:axId val="494710448"/>
+        <c:axId val="-1090226080"/>
+        <c:axId val="-1090215744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="494710448"/>
+        <c:axId val="-1090215744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2381,12 +2381,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494725136"/>
+        <c:crossAx val="-1090226080"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="494725136"/>
+        <c:axId val="-1090226080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2413,7 +2413,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="494710448"/>
+        <c:crossAx val="-1090215744"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2571,7 +2571,7 @@
                   <c:v>2.37</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.716</c:v>
+                  <c:v>1.7769999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.643</c:v>
@@ -2656,7 +2656,7 @@
                   <c:v>2.415</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7649999999999999</c:v>
+                  <c:v>1.8280000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.6890000000000001</c:v>
@@ -2741,7 +2741,7 @@
                   <c:v>2.444</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7969999999999999</c:v>
+                  <c:v>1.8620000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.7190000000000001</c:v>
@@ -2826,7 +2826,7 @@
                   <c:v>2.915</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.214</c:v>
+                  <c:v>2.3450000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.2040000000000002</c:v>
@@ -2911,7 +2911,7 @@
                   <c:v>2.988</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3050000000000002</c:v>
+                  <c:v>2.4390000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.2890000000000001</c:v>
@@ -2996,7 +2996,7 @@
                   <c:v>3.3035999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3660000000000001</c:v>
+                  <c:v>2.5009999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.3460000000000001</c:v>
@@ -3020,11 +3020,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="494712080"/>
-        <c:axId val="494719152"/>
+        <c:axId val="-1090211936"/>
+        <c:axId val="-1090211392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="494712080"/>
+        <c:axId val="-1090211936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3034,12 +3034,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="494719152"/>
+        <c:crossAx val="-1090211392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="494719152"/>
+        <c:axId val="-1090211392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.4"/>
@@ -3147,7 +3147,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494712080"/>
+        <c:crossAx val="-1090211936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4228,10 +4228,10 @@
   <dimension ref="A1:AL8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AD19" sqref="AD19"/>
+      <selection pane="bottomRight" activeCell="Z24" sqref="Z24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4275,12 +4275,12 @@
   <sheetData>
     <row r="1" spans="1:38">
       <c r="C1" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" s="21"/>
       <c r="E1" s="21"/>
       <c r="O1" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P1" s="22"/>
       <c r="Q1" s="22"/>
@@ -4288,7 +4288,7 @@
       <c r="S1" s="22"/>
       <c r="T1" s="22"/>
       <c r="AA1" s="22" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AB1" s="22"/>
       <c r="AC1" s="22"/>
@@ -4530,13 +4530,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="17">
-        <v>1.716</v>
+        <v>1.7769999999999999</v>
       </c>
       <c r="D5" s="17">
-        <v>1.7649999999999999</v>
+        <v>1.8280000000000001</v>
       </c>
       <c r="E5" s="16">
-        <v>1.7969999999999999</v>
+        <v>1.8620000000000001</v>
       </c>
       <c r="F5" s="17">
         <v>4.38</v>
@@ -4548,13 +4548,13 @@
         <v>4.7300000000000004</v>
       </c>
       <c r="I5" s="19">
-        <v>2.214</v>
+        <v>2.3450000000000002</v>
       </c>
       <c r="J5" s="19">
-        <v>2.3050000000000002</v>
+        <v>2.4390000000000001</v>
       </c>
       <c r="K5" s="18">
-        <v>2.3660000000000001</v>
+        <v>2.5009999999999999</v>
       </c>
       <c r="L5" s="19">
         <v>1.9</v>
@@ -4566,13 +4566,13 @@
         <v>5.1100000000000003</v>
       </c>
       <c r="O5" s="17">
-        <v>1.863</v>
+        <v>1.871</v>
       </c>
       <c r="P5" s="17">
-        <v>1.905</v>
+        <v>1.9239999999999999</v>
       </c>
       <c r="Q5" s="16">
-        <v>1.9350000000000001</v>
+        <v>1.9590000000000001</v>
       </c>
       <c r="R5" s="17">
         <v>4.38</v>
@@ -4585,13 +4585,13 @@
         <v>5.2030000000000012</v>
       </c>
       <c r="U5" s="19">
-        <v>2.3239999999999998</v>
+        <v>2.4980000000000002</v>
       </c>
       <c r="V5" s="19">
-        <v>2.4009999999999998</v>
+        <v>2.5979999999999999</v>
       </c>
       <c r="W5" s="18">
-        <v>2.452</v>
+        <v>2.665</v>
       </c>
       <c r="X5" s="19">
         <v>1.9</v>
@@ -4603,9 +4603,15 @@
         <f>N5*1.1</f>
         <v>5.6210000000000004</v>
       </c>
-      <c r="AA5" s="17"/>
-      <c r="AB5" s="17"/>
-      <c r="AC5" s="16"/>
+      <c r="AA5" s="17">
+        <v>1.6859999999999999</v>
+      </c>
+      <c r="AB5" s="17">
+        <v>1.736</v>
+      </c>
+      <c r="AC5" s="16">
+        <v>1.766</v>
+      </c>
       <c r="AD5" s="17">
         <v>4.38</v>
       </c>
@@ -4616,9 +4622,15 @@
         <f t="shared" ref="AF5:AF8" si="0">$H5*0.9</f>
         <v>4.2570000000000006</v>
       </c>
-      <c r="AG5" s="19"/>
-      <c r="AH5" s="19"/>
-      <c r="AI5" s="18"/>
+      <c r="AG5" s="19">
+        <v>2.2010000000000001</v>
+      </c>
+      <c r="AH5" s="19">
+        <v>2.2890000000000001</v>
+      </c>
+      <c r="AI5" s="18">
+        <v>2.3479999999999999</v>
+      </c>
       <c r="AJ5" s="19">
         <v>1.9</v>
       </c>

--- a/ClimateStatsforDCEW.xlsx
+++ b/ClimateStatsforDCEW.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="22">
   <si>
     <t>wet</t>
   </si>
@@ -71,6 +71,21 @@
   </si>
   <si>
     <t>decrease precipitation 10% depth and temp with MAVA RCP4.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>wet avg</t>
+  </si>
+  <si>
+    <t>wet inc</t>
+  </si>
+  <si>
+    <t>wet dec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
   </si>
 </sst>
 </file>
@@ -404,113 +419,77 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1300" b="0"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>storm duration</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.29213189868936046"/>
-          <c:y val="3.5091615769017218E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
+          <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.3460933062520878E-2"/>
-          <c:y val="0.11393670183231538"/>
-          <c:w val="0.71232070565315175"/>
-          <c:h val="0.80066629650194332"/>
+          <c:x val="0.21853649204537917"/>
+          <c:y val="9.2836991593353235E-2"/>
+          <c:w val="0.64058707207081633"/>
+          <c:h val="0.76504503544642466"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>data!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>wet</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
-            <a:ln>
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="7"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:strRef>
-              <c:f>data!$A$4:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
+            <c:numRef>
+              <c:f>data!$B$12:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>LW</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>T</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>SCR</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>LDP</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>BRW</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>data!$F$4:$F$8</c:f>
+              <c:f>data!$C$12:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.89</c:v>
+                  <c:v>1.6859999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.38</c:v>
+                  <c:v>1.7769999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.38</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.19</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.53</c:v>
+                  <c:v>1.871</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -518,71 +497,310 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="3"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>data!$I$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>dry</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
-            <a:ln>
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="7"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:strRef>
-              <c:f>data!$A$4:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
+            <c:numRef>
+              <c:f>data!$B$12:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>LW</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>T</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>SCR</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>LDP</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>BRW</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>data!$L$4:$L$8</c:f>
+              <c:f>data!$D$12:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.68</c:v>
+                  <c:v>1.736</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9</c:v>
+                  <c:v>1.8280000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.59</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.56</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.4</c:v>
+                  <c:v>1.9239999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data!$B$12:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$E$12:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.766</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8620000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9590000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data!$B$12:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$F$12:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.2010000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3450000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4980000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data!$B$12:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$G$12:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.2890000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4390000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5979999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data!$B$12:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$H$12:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.3479999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5009999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -597,138 +815,144 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1129957696"/>
-        <c:axId val="-1129958240"/>
+        <c:axId val="378127344"/>
+        <c:axId val="378115920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1129958240"/>
+        <c:axId val="378127344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>hours</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
+        <c:axPos val="b"/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:srgbClr val="B3B3B3"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
             </a:solidFill>
+            <a:round/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0"/>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1129957696"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="378115920"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1129957696"/>
+        <c:axId val="378115920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2.75"/>
+          <c:min val="0"/>
         </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>weather station (low elevation to high elevation)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1129958240"/>
-        <c:crossesAt val="0"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="378127344"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="B3B3B3"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+          <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.80708414685675234"/>
-          <c:y val="7.1960022209883387E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1000" b="0"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
+    <a:effectLst/>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -737,1742 +961,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1300" b="0"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>inter-storm duration</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.24122811470481767"/>
-          <c:y val="3.5313714602998335E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="3.1100484209877325E-2"/>
-          <c:y val="0.11382534394472207"/>
-          <c:w val="0.72468115450579529"/>
-          <c:h val="0.8007773459189339"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>data!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>wet</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="7"/>
-          </c:marker>
-          <c:xVal>
-            <c:strRef>
-              <c:f>data!$A$4:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>LW</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>T</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>SCR</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>LDP</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>BRW</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>data!$G$4:$G$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>104.92</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>71.41</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>66.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>79.209999999999994</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>56.32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>data!$I$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>dry</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="7"/>
-          </c:marker>
-          <c:xVal>
-            <c:strRef>
-              <c:f>data!$A$4:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>LW</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>T</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>SCR</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>LDP</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>BRW</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>data!$M$4:$M$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>505.82</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>365.15</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>191.67</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>377.28</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>192.71</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="-1090225536"/>
-        <c:axId val="-1334257440"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="-1334257440"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>hours</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="B3B3B3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1090225536"/>
-        <c:crossesAt val="0"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="-1090225536"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>weather station (low elevation to high elevation)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1334257440"/>
-        <c:crossesAt val="0"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="B3B3B3"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.78555304240376034"/>
-          <c:y val="6.1743475846751807E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1000" b="0"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1300" b="0"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>precipitation depth</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.24122811470481767"/>
-          <c:y val="3.5313714602998335E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="5.5754927889074941E-2"/>
-          <c:y val="0.11382534394472207"/>
-          <c:w val="0.70002652623208073"/>
-          <c:h val="0.8007773459189339"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>data!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>wet</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="7"/>
-          </c:marker>
-          <c:xVal>
-            <c:strRef>
-              <c:f>data!$A$4:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>LW</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>T</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>SCR</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>LDP</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>BRW</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>data!$H$4:$H$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3.45</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.7300000000000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.3600000000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.24</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.2699999999999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>data!$I$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>dry</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="7"/>
-          </c:marker>
-          <c:xVal>
-            <c:strRef>
-              <c:f>data!$A$4:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>LW</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>T</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>SCR</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>LDP</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>BRW</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>data!$N$4:$N$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>4.0599999999999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.1100000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.08</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.22</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="-1090218464"/>
-        <c:axId val="-1090220640"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="-1090220640"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>depth (mm)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="B3B3B3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1090218464"/>
-        <c:crossesAt val="0"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="-1090218464"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>weather station (low elevation to high elevation)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1090220640"/>
-        <c:crossesAt val="0"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="B3B3B3"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.80223300295222011"/>
-          <c:y val="8.2287617990005557E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1000" b="0"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1300" b="0"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Tree PET</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.29213189868936046"/>
-          <c:y val="3.5091615769017218E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="4.3460933062520878E-2"/>
-          <c:y val="0.11393670183231538"/>
-          <c:w val="0.71232070565315175"/>
-          <c:h val="0.80066629650194332"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>data!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>wet</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="7"/>
-          </c:marker>
-          <c:xVal>
-            <c:strRef>
-              <c:f>data!$A$4:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>LW</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>T</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>SCR</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>LDP</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>BRW</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>data!$E$4:$E$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2.444</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.8620000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.7190000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.274</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.5269999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>data!$I$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>dry</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="7"/>
-          </c:marker>
-          <c:xVal>
-            <c:strRef>
-              <c:f>data!$A$4:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>LW</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>T</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>SCR</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>LDP</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>BRW</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>data!$K$4:$K$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3.3035999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.5009999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.3460000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.3039999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.5409999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="-1090223360"/>
-        <c:axId val="-1090217376"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="-1090217376"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>hours</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="B3B3B3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1090223360"/>
-        <c:crossesAt val="0"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="-1090223360"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>weather station (low elevation to high elevation)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1090217376"/>
-        <c:crossesAt val="0"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="B3B3B3"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.80708414685675234"/>
-          <c:y val="7.1960022209883387E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1000" b="0"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1300" b="0"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Grass PET</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.29213189868936046"/>
-          <c:y val="3.5091615769017218E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="4.3460933062520878E-2"/>
-          <c:y val="0.11393670183231538"/>
-          <c:w val="0.71232070565315175"/>
-          <c:h val="0.80066629650194332"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>data!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>wet</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="7"/>
-          </c:marker>
-          <c:xVal>
-            <c:strRef>
-              <c:f>data!$A$4:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>LW</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>T</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>SCR</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>LDP</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>BRW</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>data!$C$4:$C$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2.37</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7769999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.643</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.238</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.4770000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>data!$I$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>dry</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="7"/>
-          </c:marker>
-          <c:xVal>
-            <c:strRef>
-              <c:f>data!$A$4:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>LW</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>T</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>SCR</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>LDP</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>BRW</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>data!$I$4:$I$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2.915</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.3450000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.2040000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.1509999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.3769999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="-1090217920"/>
-        <c:axId val="-1090212480"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="-1090212480"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>hours</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="B3B3B3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1090217920"/>
-        <c:crossesAt val="0"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="-1090217920"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>weather station (low elevation to high elevation)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1090212480"/>
-        <c:crossesAt val="0"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="B3B3B3"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.80708414685675234"/>
-          <c:y val="7.1960022209883387E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1000" b="0"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1300" b="0"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Grass PET</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.29213189868936046"/>
-          <c:y val="3.5091615769017218E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="4.3460933062520878E-2"/>
-          <c:y val="0.11393670183231538"/>
-          <c:w val="0.71232070565315175"/>
-          <c:h val="0.80066629650194332"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>data!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>wet</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="7"/>
-          </c:marker>
-          <c:xVal>
-            <c:strRef>
-              <c:f>data!$A$4:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>LW</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>T</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>SCR</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>LDP</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>BRW</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>data!$D$4:$D$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2.415</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.8280000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.6890000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.2599999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.5089999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>data!$I$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>dry</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="7"/>
-          </c:marker>
-          <c:xVal>
-            <c:strRef>
-              <c:f>data!$A$4:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>LW</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>T</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>SCR</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>LDP</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>BRW</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>data!$J$4:$J$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2.988</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.4390000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.2890000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.2429999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.476</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="-1090226080"/>
-        <c:axId val="-1090215744"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="-1090215744"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>hours</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="B3B3B3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1090226080"/>
-        <c:crossesAt val="0"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="-1090226080"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>weather station (low elevation to high elevation)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1090215744"/>
-        <c:crossesAt val="0"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="B3B3B3"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.80708414685675234"/>
-          <c:y val="7.1960022209883387E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1000" b="0"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2571,7 +1060,7 @@
                   <c:v>2.37</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7769999999999999</c:v>
+                  <c:v>1.716</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.643</c:v>
@@ -2656,7 +1145,7 @@
                   <c:v>2.415</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8280000000000001</c:v>
+                  <c:v>1.7649999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.6890000000000001</c:v>
@@ -2741,7 +1230,7 @@
                   <c:v>2.444</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8620000000000001</c:v>
+                  <c:v>1.7969999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.7190000000000001</c:v>
@@ -2826,7 +1315,7 @@
                   <c:v>2.915</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3450000000000002</c:v>
+                  <c:v>2.214</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.2040000000000002</c:v>
@@ -2911,7 +1400,7 @@
                   <c:v>2.988</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4390000000000001</c:v>
+                  <c:v>2.3050000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.2890000000000001</c:v>
@@ -2993,10 +1482,10 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.3035999999999999</c:v>
+                  <c:v>3.036</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5009999999999999</c:v>
+                  <c:v>2.3660000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.3460000000000001</c:v>
@@ -3020,11 +1509,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1090211936"/>
-        <c:axId val="-1090211392"/>
+        <c:axId val="545181776"/>
+        <c:axId val="545179056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1090211936"/>
+        <c:axId val="545181776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3034,12 +1523,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1090211392"/>
+        <c:crossAx val="545179056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1090211392"/>
+        <c:axId val="545179056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.4"/>
@@ -3147,7 +1636,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1090211936"/>
+        <c:crossAx val="545181776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3237,7 +1726,3033 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data!$A$18:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$G$18:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.2010000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2890000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3479999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data!$A$18:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$C$18:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.871</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9239999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9590000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data!$A$18:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$B$18:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.7769999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8280000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8620000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data!$A$18:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$D$18:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.6859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.736</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.766</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data!$A$18:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$F$18:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.4980000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5979999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.665</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="378117008"/>
+        <c:axId val="279497584"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="378117008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="279497584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="279497584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="378117008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18441978928273869"/>
+          <c:y val="0.10342402097344339"/>
+          <c:w val="0.66116373949719576"/>
+          <c:h val="0.72629506157712342"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data!$B$12:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$J$12:$J$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.2570000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2030000000000012</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data!$B$12:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$K$12:$K$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.5990000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6210000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="544602736"/>
+        <c:axId val="544610896"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="544602736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="544610896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="544610896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="544602736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1300" b="0"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>storm duration</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.29213189868936046"/>
+          <c:y val="3.5091615769017218E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.3460933062520878E-2"/>
+          <c:y val="0.11393670183231538"/>
+          <c:w val="0.71232070565315175"/>
+          <c:h val="0.80066629650194332"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>wet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>data!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>LW</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SCR</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LDP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BRW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$F$4:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.89</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dry</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>data!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>LW</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SCR</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LDP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BRW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$L$4:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.59</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="544607088"/>
+        <c:axId val="544597840"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="544597840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>hours</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="B3B3B3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="544607088"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="544607088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>weather station (low elevation to high elevation)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="544597840"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="B3B3B3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80708414685675234"/>
+          <c:y val="7.1960022209883387E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1300" b="0"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>inter-storm duration</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.24122811470481767"/>
+          <c:y val="3.5313714602998335E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.1100484209877325E-2"/>
+          <c:y val="0.11382534394472207"/>
+          <c:w val="0.72468115450579529"/>
+          <c:h val="0.8007773459189339"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>wet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>data!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>LW</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SCR</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LDP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BRW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$G$4:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>104.92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71.41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79.209999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56.32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dry</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>data!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>LW</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SCR</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LDP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BRW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$M$4:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>505.82</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>365.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>191.67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>377.28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>192.71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="544598928"/>
+        <c:axId val="544607632"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="544607632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>hours</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="B3B3B3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="544598928"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="544598928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>weather station (low elevation to high elevation)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="544607632"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="B3B3B3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.78555304240376034"/>
+          <c:y val="6.1743475846751807E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1300" b="0"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>precipitation depth</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.24122811470481767"/>
+          <c:y val="3.5313714602998335E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.5754927889074941E-2"/>
+          <c:y val="0.11382534394472207"/>
+          <c:w val="0.70002652623208073"/>
+          <c:h val="0.8007773459189339"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>wet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>data!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>LW</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SCR</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LDP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BRW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$H$4:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2699999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dry</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>data!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>LW</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SCR</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LDP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BRW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$N$4:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.0599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="544604368"/>
+        <c:axId val="544599472"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="544599472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>depth (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="B3B3B3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="544604368"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="544604368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>weather station (low elevation to high elevation)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="544599472"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="B3B3B3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80223300295222011"/>
+          <c:y val="8.2287617990005557E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1300" b="0"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tree PET</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.29213189868936046"/>
+          <c:y val="3.5091615769017218E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.3460933062520878E-2"/>
+          <c:y val="0.11393670183231538"/>
+          <c:w val="0.71232070565315175"/>
+          <c:h val="0.80066629650194332"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>wet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>data!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>LW</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SCR</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LDP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BRW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$E$4:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.444</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7969999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.274</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5269999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dry</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>data!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>LW</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SCR</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LDP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BRW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$K$4:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.036</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3660000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3460000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3039999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5409999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="544603824"/>
+        <c:axId val="544606000"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="544606000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>hours</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="B3B3B3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="544603824"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="544603824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>weather station (low elevation to high elevation)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="544606000"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="B3B3B3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80708414685675234"/>
+          <c:y val="7.1960022209883387E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1300" b="0"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Grass PET</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.29213189868936046"/>
+          <c:y val="3.5091615769017218E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.3460933062520878E-2"/>
+          <c:y val="0.11393670183231538"/>
+          <c:w val="0.71232070565315175"/>
+          <c:h val="0.80066629650194332"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>wet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>data!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>LW</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SCR</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LDP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BRW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$C$4:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.716</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.643</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.238</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4770000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dry</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>data!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>LW</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SCR</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LDP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BRW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$I$4:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.915</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.214</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2040000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1509999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3769999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="544612528"/>
+        <c:axId val="544611984"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="544611984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>hours</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="B3B3B3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="544612528"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="544612528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>weather station (low elevation to high elevation)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="544611984"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="B3B3B3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80708414685675234"/>
+          <c:y val="7.1960022209883387E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1300" b="0"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Grass PET</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.29213189868936046"/>
+          <c:y val="3.5091615769017218E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.3460933062520878E-2"/>
+          <c:y val="0.11393670183231538"/>
+          <c:w val="0.71232070565315175"/>
+          <c:h val="0.80066629650194332"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>wet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>data!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>LW</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SCR</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LDP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BRW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$D$4:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.415</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6890000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5089999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dry</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>data!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>LW</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SCR</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LDP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BRW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$J$4:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.988</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3050000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2890000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2429999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.476</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="544609808"/>
+        <c:axId val="544602192"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="544602192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>hours</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="B3B3B3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="544609808"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="544609808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>weather station (low elevation to high elevation)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="544602192"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="B3B3B3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80708414685675234"/>
+          <c:y val="7.1960022209883387E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3793,7 +5308,1650 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>115341</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>65942</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>158883</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>69390</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>210209</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>91964</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>518950</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>59122</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>336177</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>186018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>358588</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="345313"/>
@@ -4225,30 +7383,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL8"/>
+  <dimension ref="A1:AL20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Z24" sqref="Z24"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" style="2" customWidth="1"/>
-    <col min="5" max="5" width="7.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="5.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="5.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="6.25" style="2" customWidth="1"/>
     <col min="8" max="8" width="7.125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="6.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.25" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.25" style="2" customWidth="1"/>
+    <col min="9" max="9" width="5.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="6" style="2" customWidth="1"/>
+    <col min="11" max="11" width="6.125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9" style="2" customWidth="1"/>
+    <col min="13" max="13" width="7.125" style="2" customWidth="1"/>
     <col min="14" max="14" width="7.5" style="2" customWidth="1"/>
     <col min="15" max="15" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.25" style="2" bestFit="1" customWidth="1"/>
@@ -4458,7 +7616,7 @@
         <v>2.988</v>
       </c>
       <c r="K4" s="12">
-        <v>3.3035999999999999</v>
+        <v>3.036</v>
       </c>
       <c r="L4" s="13">
         <v>1.68</v>
@@ -4530,13 +7688,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="17">
-        <v>1.7769999999999999</v>
+        <v>1.716</v>
       </c>
       <c r="D5" s="17">
-        <v>1.8280000000000001</v>
+        <v>1.7649999999999999</v>
       </c>
       <c r="E5" s="16">
-        <v>1.8620000000000001</v>
+        <v>1.7969999999999999</v>
       </c>
       <c r="F5" s="17">
         <v>4.38</v>
@@ -4548,13 +7706,13 @@
         <v>4.7300000000000004</v>
       </c>
       <c r="I5" s="19">
-        <v>2.3450000000000002</v>
+        <v>2.214</v>
       </c>
       <c r="J5" s="19">
-        <v>2.4390000000000001</v>
+        <v>2.3050000000000002</v>
       </c>
       <c r="K5" s="18">
-        <v>2.5009999999999999</v>
+        <v>2.3660000000000001</v>
       </c>
       <c r="L5" s="19">
         <v>1.9</v>
@@ -4928,6 +8086,189 @@
       <c r="AL8" s="19">
         <f t="shared" si="1"/>
         <v>2.8980000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="17">
+        <v>1.6859999999999999</v>
+      </c>
+      <c r="D12" s="17">
+        <v>1.736</v>
+      </c>
+      <c r="E12" s="16">
+        <v>1.766</v>
+      </c>
+      <c r="F12" s="19">
+        <v>2.2010000000000001</v>
+      </c>
+      <c r="G12" s="19">
+        <v>2.2890000000000001</v>
+      </c>
+      <c r="H12" s="18">
+        <v>2.3479999999999999</v>
+      </c>
+      <c r="J12" s="15">
+        <v>4.2570000000000006</v>
+      </c>
+      <c r="K12" s="19">
+        <v>4.5990000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="17">
+        <v>1.7769999999999999</v>
+      </c>
+      <c r="D13" s="17">
+        <v>1.8280000000000001</v>
+      </c>
+      <c r="E13" s="16">
+        <v>1.8620000000000001</v>
+      </c>
+      <c r="F13" s="19">
+        <v>2.3450000000000002</v>
+      </c>
+      <c r="G13" s="19">
+        <v>2.4390000000000001</v>
+      </c>
+      <c r="H13" s="18">
+        <v>2.5009999999999999</v>
+      </c>
+      <c r="J13" s="15">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="K13" s="19">
+        <v>5.1100000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3</v>
+      </c>
+      <c r="C14" s="17">
+        <v>1.871</v>
+      </c>
+      <c r="D14" s="17">
+        <v>1.9239999999999999</v>
+      </c>
+      <c r="E14" s="16">
+        <v>1.9590000000000001</v>
+      </c>
+      <c r="F14" s="19">
+        <v>2.4980000000000002</v>
+      </c>
+      <c r="G14" s="19">
+        <v>2.5979999999999999</v>
+      </c>
+      <c r="H14" s="18">
+        <v>2.665</v>
+      </c>
+      <c r="J14" s="15">
+        <v>5.2030000000000012</v>
+      </c>
+      <c r="K14" s="19">
+        <v>5.6210000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" ht="14.25">
+      <c r="A15" s="2"/>
+      <c r="P15" s="15"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="17">
+        <v>1.7769999999999999</v>
+      </c>
+      <c r="C18" s="17">
+        <v>1.871</v>
+      </c>
+      <c r="D18" s="17">
+        <v>1.6859999999999999</v>
+      </c>
+      <c r="E18" s="19">
+        <v>2.3450000000000002</v>
+      </c>
+      <c r="F18" s="19">
+        <v>2.4980000000000002</v>
+      </c>
+      <c r="G18" s="19">
+        <v>2.2010000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="1">
+        <v>2</v>
+      </c>
+      <c r="B19" s="17">
+        <v>1.8280000000000001</v>
+      </c>
+      <c r="C19" s="17">
+        <v>1.9239999999999999</v>
+      </c>
+      <c r="D19" s="17">
+        <v>1.736</v>
+      </c>
+      <c r="E19" s="19">
+        <v>2.4390000000000001</v>
+      </c>
+      <c r="F19" s="19">
+        <v>2.5979999999999999</v>
+      </c>
+      <c r="G19" s="19">
+        <v>2.2890000000000001</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="1">
+        <v>3</v>
+      </c>
+      <c r="B20" s="16">
+        <v>1.8620000000000001</v>
+      </c>
+      <c r="C20" s="16">
+        <v>1.9590000000000001</v>
+      </c>
+      <c r="D20" s="16">
+        <v>1.766</v>
+      </c>
+      <c r="E20" s="18">
+        <v>2.5009999999999999</v>
+      </c>
+      <c r="F20" s="18">
+        <v>2.665</v>
+      </c>
+      <c r="G20" s="18">
+        <v>2.3479999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -4937,19 +8278,26 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="O47"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O47" sqref="O47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="47" spans="15:15">
+      <c r="O47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/ClimateStatsforDCEW.xlsx
+++ b/ClimateStatsforDCEW.xlsx
@@ -9,18 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" tabRatio="464"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" tabRatio="464" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="scatterplots" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Pivot Table" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <pivotCaches>
+    <pivotCache cacheId="54" r:id="rId5"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="45">
   <si>
     <t>wet</t>
   </si>
@@ -86,6 +91,75 @@
   </si>
   <si>
     <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>Weather Station</t>
+  </si>
+  <si>
+    <t>climate scenario</t>
+  </si>
+  <si>
+    <t>observed</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>PET</t>
+  </si>
+  <si>
+    <t>season</t>
+  </si>
+  <si>
+    <t>storm</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>interstorm</t>
+  </si>
+  <si>
+    <t>depth</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>Average of value</t>
+  </si>
+  <si>
+    <t>modeled 4.5</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>decreased</t>
+  </si>
+  <si>
+    <t>10% depth</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>decrease</t>
+  </si>
+  <si>
+    <t>modled 8.5</t>
   </si>
 </sst>
 </file>
@@ -358,7 +432,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -384,6 +458,12 @@
       <alignment vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1"/>
@@ -815,11 +895,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="378127344"/>
-        <c:axId val="378115920"/>
+        <c:axId val="-1848585744"/>
+        <c:axId val="-1848585200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="378127344"/>
+        <c:axId val="-1848585744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -862,12 +942,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378115920"/>
+        <c:crossAx val="-1848585200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="378115920"/>
+        <c:axId val="-1848585200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.75"/>
@@ -912,7 +992,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378127344"/>
+        <c:crossAx val="-1848585744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1509,11 +1589,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="545181776"/>
-        <c:axId val="545179056"/>
+        <c:axId val="-1842587488"/>
+        <c:axId val="-1842586944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="545181776"/>
+        <c:axId val="-1842587488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1523,12 +1603,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="545179056"/>
+        <c:crossAx val="-1842586944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="545179056"/>
+        <c:axId val="-1842586944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.4"/>
@@ -1636,7 +1716,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="545181776"/>
+        <c:crossAx val="-1842587488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1741,7 +1821,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2102,11 +2181,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="378117008"/>
-        <c:axId val="279497584"/>
+        <c:axId val="-1848584112"/>
+        <c:axId val="-1888009920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="378117008"/>
+        <c:axId val="-1848584112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2149,12 +2228,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279497584"/>
+        <c:crossAx val="-1888009920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="279497584"/>
+        <c:axId val="-1888009920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2197,7 +2276,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378117008"/>
+        <c:crossAx val="-1848584112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2406,11 +2485,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="544602736"/>
-        <c:axId val="544610896"/>
+        <c:axId val="-1888005568"/>
+        <c:axId val="-2090049344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="544602736"/>
+        <c:axId val="-1888005568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2453,12 +2532,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="544610896"/>
+        <c:crossAx val="-2090049344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="544610896"/>
+        <c:axId val="-2090049344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2501,7 +2580,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="544602736"/>
+        <c:crossAx val="-1888005568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2757,11 +2836,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="544607088"/>
-        <c:axId val="544597840"/>
+        <c:axId val="-1842583136"/>
+        <c:axId val="-1842584768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="544597840"/>
+        <c:axId val="-1842584768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2783,6 +2862,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -2806,12 +2886,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="544607088"/>
+        <c:crossAx val="-1842583136"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="544607088"/>
+        <c:axId val="-1842583136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2833,12 +2913,13 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="544597840"/>
+        <c:crossAx val="-1842584768"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3104,11 +3185,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="544598928"/>
-        <c:axId val="544607632"/>
+        <c:axId val="-1842582592"/>
+        <c:axId val="-1842591296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="544607632"/>
+        <c:axId val="-1842591296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3130,6 +3211,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -3153,12 +3235,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="544598928"/>
+        <c:crossAx val="-1842582592"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="544598928"/>
+        <c:axId val="-1842582592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3180,12 +3262,13 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="544607632"/>
+        <c:crossAx val="-1842591296"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3451,11 +3534,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="544604368"/>
-        <c:axId val="544599472"/>
+        <c:axId val="-1842597280"/>
+        <c:axId val="-1842583680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="544599472"/>
+        <c:axId val="-1842583680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3477,6 +3560,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -3500,12 +3584,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="544604368"/>
+        <c:crossAx val="-1842597280"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="544604368"/>
+        <c:axId val="-1842597280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3527,12 +3611,13 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="544599472"/>
+        <c:crossAx val="-1842583680"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3798,11 +3883,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="544603824"/>
-        <c:axId val="544606000"/>
+        <c:axId val="-1842590752"/>
+        <c:axId val="-1842592384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="544606000"/>
+        <c:axId val="-1842592384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3824,6 +3909,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -3847,12 +3933,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="544603824"/>
+        <c:crossAx val="-1842590752"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="544603824"/>
+        <c:axId val="-1842590752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3874,12 +3960,13 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="544606000"/>
+        <c:crossAx val="-1842592384"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4145,11 +4232,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="544612528"/>
-        <c:axId val="544611984"/>
+        <c:axId val="-1842591840"/>
+        <c:axId val="-1842594016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="544611984"/>
+        <c:axId val="-1842594016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4171,6 +4258,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -4194,12 +4282,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="544612528"/>
+        <c:crossAx val="-1842591840"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="544612528"/>
+        <c:axId val="-1842591840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4221,12 +4309,13 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="544611984"/>
+        <c:crossAx val="-1842594016"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4492,11 +4581,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="544609808"/>
-        <c:axId val="544602192"/>
+        <c:axId val="-1842589120"/>
+        <c:axId val="-1842589664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="544602192"/>
+        <c:axId val="-1842589664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4518,6 +4607,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -4541,12 +4631,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="544609808"/>
+        <c:crossAx val="-1842589120"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="544609808"/>
+        <c:axId val="-1842589120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4568,12 +4658,13 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="544602192"/>
+        <c:crossAx val="-1842589664"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7120,6 +7211,1686 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Lucy Gelb" refreshedDate="42436.564463541668" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="144">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A2:G146" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="Weather Station" numFmtId="0">
+      <sharedItems count="5">
+        <s v="LW"/>
+        <s v="T"/>
+        <s v="SCR"/>
+        <s v="LDP"/>
+        <s v="BRW"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="model" numFmtId="0">
+      <sharedItems count="6">
+        <s v="observed"/>
+        <s v="10% depth"/>
+        <s v="modeled 4.5"/>
+        <s v="increase"/>
+        <s v="decrease"/>
+        <s v="modled 8.5"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="climate scenario" numFmtId="0">
+      <sharedItems count="4">
+        <s v="average"/>
+        <s v="increased"/>
+        <s v="decreased"/>
+        <s v="10% depth"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="season" numFmtId="0">
+      <sharedItems count="2">
+        <s v="wet"/>
+        <s v="dry"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="category" numFmtId="0">
+      <sharedItems count="2">
+        <s v="PET"/>
+        <s v="storm"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="variable" numFmtId="0">
+      <sharedItems count="6">
+        <s v="grass"/>
+        <s v="shrub"/>
+        <s v="tree"/>
+        <s v="storm"/>
+        <s v="interstorm"/>
+        <s v="depth"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="value" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.4" maxValue="505.82"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="144">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2.37"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="2.415"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="2.444"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2.915"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="2.988"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="3.036"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="1.89"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="104.92"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="3.45"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="1.68"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="505.82"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="4.0599999999999996"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1.716"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1.7649999999999999"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="1.7969999999999999"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="4.38"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="71.41"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="4.7300000000000004"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2.214"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="2.3050000000000002"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="2.3660000000000001"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="1.9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="365.15"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="5.1100000000000003"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1.643"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1.6890000000000001"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="1.7190000000000001"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="23.38"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="66.400000000000006"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="4.3600000000000003"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2.2040000000000002"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="2.2890000000000001"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="2.3460000000000001"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="1.59"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="191.67"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="3.08"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2.238"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="2.2599999999999998"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="2.274"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="13.19"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="79.209999999999994"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="4.24"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3.1509999999999998"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="3.2429999999999999"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="3.3039999999999998"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="2.56"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="377.28"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="5.5"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1.4770000000000001"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1.5089999999999999"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="1.5269999999999999"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="4.53"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="56.32"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="4.2699999999999996"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2.3769999999999998"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="2.476"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="2.5409999999999999"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="1.4"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="192.71"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="3.22"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="4.38"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="71.41"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="5.2030000000000012"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="1.9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="365.15"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="5.6210000000000004"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="4.38"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="71.41"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="4.2570000000000006"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="1.9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="365.15"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="4.5990000000000002"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1.871"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1.9239999999999999"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="1.9590000000000001"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2.4980000000000002"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="2.5979999999999999"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="2.665"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1.6859999999999999"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1.736"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="1.766"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2.2010000000000001"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="2.2890000000000001"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="2.3479999999999999"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="1.89"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="23.38"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="13.19"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="4.53"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="104.92"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="66.400000000000006"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="79.209999999999994"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="56.32"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="3.7950000000000004"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="4.7960000000000012"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="4.6640000000000006"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="4.6970000000000001"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="1.68"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="1.59"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="2.56"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="1.4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="505.82"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="191.67"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="377.28"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="192.71"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="4.4660000000000002"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="3.3880000000000003"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="6.0500000000000007"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="3.5420000000000007"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="1.89"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="23.38"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="13.19"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="4.53"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="104.92"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="66.400000000000006"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="79.209999999999994"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="56.32"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="3.1050000000000004"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="3.9240000000000004"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="3.8160000000000003"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="3.8429999999999995"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="1.68"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="1.59"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="2.56"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="1.4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="505.82"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="191.67"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="377.28"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="192.71"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="3.6539999999999999"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="2.7720000000000002"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="4.95"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="2.8980000000000001"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1.64"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1.6879999999999999"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="1.718"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2.1139999999999999"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="2.1989999999999998"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="2.2549999999999999"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1.921"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1.9770000000000001"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="2.012"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2.5990000000000002"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="2.7719999999999998"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="2.7029999999999998"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A18:C22" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisPage" showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="7">
+        <item x="1"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="5"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="0" item="4" hier="-1"/>
+    <pageField fld="4" item="1" hier="-1"/>
+    <pageField fld="1" item="4" hier="-1"/>
+    <pageField fld="2" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Average of value" fld="6" subtotal="average" baseField="5" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A6:C10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisPage" showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="7">
+        <item x="1"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="5"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="0" item="4" hier="-1"/>
+    <pageField fld="4" item="0" hier="-1"/>
+    <pageField fld="1" item="3" hier="-1"/>
+    <pageField fld="2" item="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Average of value" fld="6" subtotal="average" baseField="5" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="E6:G10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisPage" showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="7">
+        <item x="1"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="5"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="0" item="4" hier="-1"/>
+    <pageField fld="4" item="0" hier="-1"/>
+    <pageField fld="1" item="5" hier="-1"/>
+    <pageField fld="2" item="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Average of value" fld="6" subtotal="average" baseField="5" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7385,11 +9156,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="M4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomRight" activeCell="Z5" sqref="Z5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8301,4 +10072,3633 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G146"/>
+  <sheetViews>
+    <sheetView topLeftCell="A118" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C141" sqref="C141:C146"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="8.125" customWidth="1"/>
+    <col min="5" max="5" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.25" customWidth="1"/>
+    <col min="18" max="18" width="12" customWidth="1"/>
+    <col min="19" max="19" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" s="23" customFormat="1" ht="15">
+      <c r="A2" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>2.415</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>2.444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>2.915</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>2.988</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>3.036</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10">
+        <v>104.92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13">
+        <v>505.82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14">
+        <v>4.0599999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>1.716</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>1.7649999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>1.7969999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18">
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19">
+        <v>71.41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20">
+        <v>4.7300000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>2.214</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>2.3050000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>2.3660000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25">
+        <v>365.15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26">
+        <v>5.1100000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <v>1.643</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28">
+        <v>1.6890000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>1.7190000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30">
+        <v>23.38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31">
+        <v>66.400000000000006</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32">
+        <v>4.3600000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>2.2040000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34">
+        <v>2.2890000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>2.3460000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" t="s">
+        <v>30</v>
+      </c>
+      <c r="G37">
+        <v>191.67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" t="s">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>2.238</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40">
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>2.274</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" t="s">
+        <v>28</v>
+      </c>
+      <c r="G42">
+        <v>13.19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>28</v>
+      </c>
+      <c r="F43" t="s">
+        <v>30</v>
+      </c>
+      <c r="G43">
+        <v>79.209999999999994</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" t="s">
+        <v>31</v>
+      </c>
+      <c r="G44">
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45">
+        <v>3.1509999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46">
+        <v>3.2429999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F47" t="s">
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <v>3.3039999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" t="s">
+        <v>38</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48" t="s">
+        <v>28</v>
+      </c>
+      <c r="G48">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" t="s">
+        <v>30</v>
+      </c>
+      <c r="G49">
+        <v>377.28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" t="s">
+        <v>38</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>28</v>
+      </c>
+      <c r="F50" t="s">
+        <v>31</v>
+      </c>
+      <c r="G50">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>26</v>
+      </c>
+      <c r="F51" t="s">
+        <v>3</v>
+      </c>
+      <c r="G51">
+        <v>1.4770000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" t="s">
+        <v>38</v>
+      </c>
+      <c r="D52" t="s">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>26</v>
+      </c>
+      <c r="F52" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52">
+        <v>1.5089999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" t="s">
+        <v>38</v>
+      </c>
+      <c r="D53" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" t="s">
+        <v>26</v>
+      </c>
+      <c r="F53" t="s">
+        <v>2</v>
+      </c>
+      <c r="G53">
+        <v>1.5269999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" t="s">
+        <v>38</v>
+      </c>
+      <c r="D54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>28</v>
+      </c>
+      <c r="F54" t="s">
+        <v>28</v>
+      </c>
+      <c r="G54">
+        <v>4.53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" t="s">
+        <v>38</v>
+      </c>
+      <c r="D55" t="s">
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
+        <v>28</v>
+      </c>
+      <c r="F55" t="s">
+        <v>30</v>
+      </c>
+      <c r="G55">
+        <v>56.32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D56" t="s">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>28</v>
+      </c>
+      <c r="F56" t="s">
+        <v>31</v>
+      </c>
+      <c r="G56">
+        <v>4.2699999999999996</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" t="s">
+        <v>38</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>26</v>
+      </c>
+      <c r="F57" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57">
+        <v>2.3769999999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>26</v>
+      </c>
+      <c r="F58" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58">
+        <v>2.476</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" t="s">
+        <v>38</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>26</v>
+      </c>
+      <c r="F59" t="s">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <v>2.5409999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" t="s">
+        <v>38</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1</v>
+      </c>
+      <c r="E60" t="s">
+        <v>28</v>
+      </c>
+      <c r="F60" t="s">
+        <v>28</v>
+      </c>
+      <c r="G60">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" t="s">
+        <v>38</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>28</v>
+      </c>
+      <c r="F61" t="s">
+        <v>30</v>
+      </c>
+      <c r="G61">
+        <v>192.71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
+        <v>28</v>
+      </c>
+      <c r="F62" t="s">
+        <v>31</v>
+      </c>
+      <c r="G62">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" t="s">
+        <v>41</v>
+      </c>
+      <c r="C63" t="s">
+        <v>39</v>
+      </c>
+      <c r="D63" t="s">
+        <v>0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>28</v>
+      </c>
+      <c r="F63" t="s">
+        <v>28</v>
+      </c>
+      <c r="G63">
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" t="s">
+        <v>41</v>
+      </c>
+      <c r="C64" t="s">
+        <v>39</v>
+      </c>
+      <c r="D64" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>28</v>
+      </c>
+      <c r="F64" t="s">
+        <v>30</v>
+      </c>
+      <c r="G64">
+        <v>71.41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" t="s">
+        <v>41</v>
+      </c>
+      <c r="C65" t="s">
+        <v>39</v>
+      </c>
+      <c r="D65" t="s">
+        <v>0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>28</v>
+      </c>
+      <c r="F65" t="s">
+        <v>31</v>
+      </c>
+      <c r="G65">
+        <v>5.2030000000000012</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" t="s">
+        <v>41</v>
+      </c>
+      <c r="C66" t="s">
+        <v>39</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>28</v>
+      </c>
+      <c r="F66" t="s">
+        <v>28</v>
+      </c>
+      <c r="G66">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" t="s">
+        <v>41</v>
+      </c>
+      <c r="C67" t="s">
+        <v>39</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>28</v>
+      </c>
+      <c r="F67" t="s">
+        <v>30</v>
+      </c>
+      <c r="G67">
+        <v>365.15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" t="s">
+        <v>41</v>
+      </c>
+      <c r="C68" t="s">
+        <v>39</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>28</v>
+      </c>
+      <c r="F68" t="s">
+        <v>31</v>
+      </c>
+      <c r="G68">
+        <v>5.6210000000000004</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" t="s">
+        <v>41</v>
+      </c>
+      <c r="C69" t="s">
+        <v>40</v>
+      </c>
+      <c r="D69" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69" t="s">
+        <v>28</v>
+      </c>
+      <c r="F69" t="s">
+        <v>28</v>
+      </c>
+      <c r="G69">
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" t="s">
+        <v>41</v>
+      </c>
+      <c r="C70" t="s">
+        <v>40</v>
+      </c>
+      <c r="D70" t="s">
+        <v>0</v>
+      </c>
+      <c r="E70" t="s">
+        <v>28</v>
+      </c>
+      <c r="F70" t="s">
+        <v>30</v>
+      </c>
+      <c r="G70">
+        <v>71.41</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" t="s">
+        <v>41</v>
+      </c>
+      <c r="C71" t="s">
+        <v>40</v>
+      </c>
+      <c r="D71" t="s">
+        <v>0</v>
+      </c>
+      <c r="E71" t="s">
+        <v>28</v>
+      </c>
+      <c r="F71" t="s">
+        <v>31</v>
+      </c>
+      <c r="G71">
+        <v>4.2570000000000006</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" t="s">
+        <v>41</v>
+      </c>
+      <c r="C72" t="s">
+        <v>40</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1</v>
+      </c>
+      <c r="E72" t="s">
+        <v>28</v>
+      </c>
+      <c r="F72" t="s">
+        <v>28</v>
+      </c>
+      <c r="G72">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" t="s">
+        <v>41</v>
+      </c>
+      <c r="C73" t="s">
+        <v>40</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1</v>
+      </c>
+      <c r="E73" t="s">
+        <v>28</v>
+      </c>
+      <c r="F73" t="s">
+        <v>30</v>
+      </c>
+      <c r="G73">
+        <v>365.15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74" t="s">
+        <v>41</v>
+      </c>
+      <c r="C74" t="s">
+        <v>40</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1</v>
+      </c>
+      <c r="E74" t="s">
+        <v>28</v>
+      </c>
+      <c r="F74" t="s">
+        <v>31</v>
+      </c>
+      <c r="G74">
+        <v>4.5990000000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" t="s">
+        <v>36</v>
+      </c>
+      <c r="C75" t="s">
+        <v>39</v>
+      </c>
+      <c r="D75" t="s">
+        <v>0</v>
+      </c>
+      <c r="E75" t="s">
+        <v>26</v>
+      </c>
+      <c r="F75" t="s">
+        <v>3</v>
+      </c>
+      <c r="G75">
+        <v>1.871</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76" t="s">
+        <v>36</v>
+      </c>
+      <c r="C76" t="s">
+        <v>39</v>
+      </c>
+      <c r="D76" t="s">
+        <v>0</v>
+      </c>
+      <c r="E76" t="s">
+        <v>26</v>
+      </c>
+      <c r="F76" t="s">
+        <v>4</v>
+      </c>
+      <c r="G76">
+        <v>1.9239999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77" t="s">
+        <v>36</v>
+      </c>
+      <c r="C77" t="s">
+        <v>39</v>
+      </c>
+      <c r="D77" t="s">
+        <v>0</v>
+      </c>
+      <c r="E77" t="s">
+        <v>26</v>
+      </c>
+      <c r="F77" t="s">
+        <v>2</v>
+      </c>
+      <c r="G77">
+        <v>1.9590000000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78" t="s">
+        <v>36</v>
+      </c>
+      <c r="C78" t="s">
+        <v>39</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1</v>
+      </c>
+      <c r="E78" t="s">
+        <v>26</v>
+      </c>
+      <c r="F78" t="s">
+        <v>3</v>
+      </c>
+      <c r="G78">
+        <v>2.4980000000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" t="s">
+        <v>10</v>
+      </c>
+      <c r="B79" t="s">
+        <v>36</v>
+      </c>
+      <c r="C79" t="s">
+        <v>39</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1</v>
+      </c>
+      <c r="E79" t="s">
+        <v>26</v>
+      </c>
+      <c r="F79" t="s">
+        <v>4</v>
+      </c>
+      <c r="G79">
+        <v>2.5979999999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B80" t="s">
+        <v>36</v>
+      </c>
+      <c r="C80" t="s">
+        <v>39</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1</v>
+      </c>
+      <c r="E80" t="s">
+        <v>26</v>
+      </c>
+      <c r="F80" t="s">
+        <v>2</v>
+      </c>
+      <c r="G80">
+        <v>2.665</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B81" t="s">
+        <v>36</v>
+      </c>
+      <c r="C81" t="s">
+        <v>40</v>
+      </c>
+      <c r="D81" t="s">
+        <v>0</v>
+      </c>
+      <c r="E81" t="s">
+        <v>26</v>
+      </c>
+      <c r="F81" t="s">
+        <v>3</v>
+      </c>
+      <c r="G81">
+        <v>1.6859999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="s">
+        <v>10</v>
+      </c>
+      <c r="B82" t="s">
+        <v>36</v>
+      </c>
+      <c r="C82" t="s">
+        <v>40</v>
+      </c>
+      <c r="D82" t="s">
+        <v>0</v>
+      </c>
+      <c r="E82" t="s">
+        <v>26</v>
+      </c>
+      <c r="F82" t="s">
+        <v>4</v>
+      </c>
+      <c r="G82">
+        <v>1.736</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" t="s">
+        <v>10</v>
+      </c>
+      <c r="B83" t="s">
+        <v>36</v>
+      </c>
+      <c r="C83" t="s">
+        <v>40</v>
+      </c>
+      <c r="D83" t="s">
+        <v>0</v>
+      </c>
+      <c r="E83" t="s">
+        <v>26</v>
+      </c>
+      <c r="F83" t="s">
+        <v>2</v>
+      </c>
+      <c r="G83">
+        <v>1.766</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" t="s">
+        <v>10</v>
+      </c>
+      <c r="B84" t="s">
+        <v>36</v>
+      </c>
+      <c r="C84" t="s">
+        <v>40</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1</v>
+      </c>
+      <c r="E84" t="s">
+        <v>26</v>
+      </c>
+      <c r="F84" t="s">
+        <v>3</v>
+      </c>
+      <c r="G84">
+        <v>2.2010000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B85" t="s">
+        <v>36</v>
+      </c>
+      <c r="C85" t="s">
+        <v>40</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1</v>
+      </c>
+      <c r="E85" t="s">
+        <v>26</v>
+      </c>
+      <c r="F85" t="s">
+        <v>4</v>
+      </c>
+      <c r="G85">
+        <v>2.2890000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="s">
+        <v>10</v>
+      </c>
+      <c r="B86" t="s">
+        <v>36</v>
+      </c>
+      <c r="C86" t="s">
+        <v>40</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1</v>
+      </c>
+      <c r="E86" t="s">
+        <v>26</v>
+      </c>
+      <c r="F86" t="s">
+        <v>2</v>
+      </c>
+      <c r="G86">
+        <v>2.3479999999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" t="s">
+        <v>42</v>
+      </c>
+      <c r="C87" t="s">
+        <v>41</v>
+      </c>
+      <c r="D87" t="s">
+        <v>0</v>
+      </c>
+      <c r="E87" t="s">
+        <v>28</v>
+      </c>
+      <c r="F87" t="s">
+        <v>28</v>
+      </c>
+      <c r="G87">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88" t="s">
+        <v>42</v>
+      </c>
+      <c r="C88" t="s">
+        <v>41</v>
+      </c>
+      <c r="D88" t="s">
+        <v>0</v>
+      </c>
+      <c r="E88" t="s">
+        <v>28</v>
+      </c>
+      <c r="F88" t="s">
+        <v>28</v>
+      </c>
+      <c r="G88">
+        <v>23.38</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" t="s">
+        <v>12</v>
+      </c>
+      <c r="B89" t="s">
+        <v>42</v>
+      </c>
+      <c r="C89" t="s">
+        <v>41</v>
+      </c>
+      <c r="D89" t="s">
+        <v>0</v>
+      </c>
+      <c r="E89" t="s">
+        <v>28</v>
+      </c>
+      <c r="F89" t="s">
+        <v>28</v>
+      </c>
+      <c r="G89">
+        <v>13.19</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" t="s">
+        <v>13</v>
+      </c>
+      <c r="B90" t="s">
+        <v>42</v>
+      </c>
+      <c r="C90" t="s">
+        <v>41</v>
+      </c>
+      <c r="D90" t="s">
+        <v>0</v>
+      </c>
+      <c r="E90" t="s">
+        <v>28</v>
+      </c>
+      <c r="F90" t="s">
+        <v>28</v>
+      </c>
+      <c r="G90">
+        <v>4.53</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" t="s">
+        <v>42</v>
+      </c>
+      <c r="C91" t="s">
+        <v>41</v>
+      </c>
+      <c r="D91" t="s">
+        <v>0</v>
+      </c>
+      <c r="E91" t="s">
+        <v>28</v>
+      </c>
+      <c r="F91" t="s">
+        <v>30</v>
+      </c>
+      <c r="G91">
+        <v>104.92</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" t="s">
+        <v>11</v>
+      </c>
+      <c r="B92" t="s">
+        <v>42</v>
+      </c>
+      <c r="C92" t="s">
+        <v>41</v>
+      </c>
+      <c r="D92" t="s">
+        <v>0</v>
+      </c>
+      <c r="E92" t="s">
+        <v>28</v>
+      </c>
+      <c r="F92" t="s">
+        <v>30</v>
+      </c>
+      <c r="G92">
+        <v>66.400000000000006</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" t="s">
+        <v>12</v>
+      </c>
+      <c r="B93" t="s">
+        <v>42</v>
+      </c>
+      <c r="C93" t="s">
+        <v>41</v>
+      </c>
+      <c r="D93" t="s">
+        <v>0</v>
+      </c>
+      <c r="E93" t="s">
+        <v>28</v>
+      </c>
+      <c r="F93" t="s">
+        <v>30</v>
+      </c>
+      <c r="G93">
+        <v>79.209999999999994</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" t="s">
+        <v>13</v>
+      </c>
+      <c r="B94" t="s">
+        <v>42</v>
+      </c>
+      <c r="C94" t="s">
+        <v>41</v>
+      </c>
+      <c r="D94" t="s">
+        <v>0</v>
+      </c>
+      <c r="E94" t="s">
+        <v>28</v>
+      </c>
+      <c r="F94" t="s">
+        <v>30</v>
+      </c>
+      <c r="G94">
+        <v>56.32</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95" t="s">
+        <v>42</v>
+      </c>
+      <c r="C95" t="s">
+        <v>41</v>
+      </c>
+      <c r="D95" t="s">
+        <v>0</v>
+      </c>
+      <c r="E95" t="s">
+        <v>28</v>
+      </c>
+      <c r="F95" t="s">
+        <v>31</v>
+      </c>
+      <c r="G95">
+        <v>3.7950000000000004</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" t="s">
+        <v>11</v>
+      </c>
+      <c r="B96" t="s">
+        <v>42</v>
+      </c>
+      <c r="C96" t="s">
+        <v>41</v>
+      </c>
+      <c r="D96" t="s">
+        <v>0</v>
+      </c>
+      <c r="E96" t="s">
+        <v>28</v>
+      </c>
+      <c r="F96" t="s">
+        <v>31</v>
+      </c>
+      <c r="G96">
+        <v>4.7960000000000012</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" t="s">
+        <v>12</v>
+      </c>
+      <c r="B97" t="s">
+        <v>42</v>
+      </c>
+      <c r="C97" t="s">
+        <v>41</v>
+      </c>
+      <c r="D97" t="s">
+        <v>0</v>
+      </c>
+      <c r="E97" t="s">
+        <v>28</v>
+      </c>
+      <c r="F97" t="s">
+        <v>31</v>
+      </c>
+      <c r="G97">
+        <v>4.6640000000000006</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" t="s">
+        <v>13</v>
+      </c>
+      <c r="B98" t="s">
+        <v>42</v>
+      </c>
+      <c r="C98" t="s">
+        <v>41</v>
+      </c>
+      <c r="D98" t="s">
+        <v>0</v>
+      </c>
+      <c r="E98" t="s">
+        <v>28</v>
+      </c>
+      <c r="F98" t="s">
+        <v>31</v>
+      </c>
+      <c r="G98">
+        <v>4.6970000000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" t="s">
+        <v>42</v>
+      </c>
+      <c r="C99" t="s">
+        <v>41</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1</v>
+      </c>
+      <c r="E99" t="s">
+        <v>28</v>
+      </c>
+      <c r="F99" t="s">
+        <v>28</v>
+      </c>
+      <c r="G99">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" t="s">
+        <v>11</v>
+      </c>
+      <c r="B100" t="s">
+        <v>42</v>
+      </c>
+      <c r="C100" t="s">
+        <v>41</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1</v>
+      </c>
+      <c r="E100" t="s">
+        <v>28</v>
+      </c>
+      <c r="F100" t="s">
+        <v>28</v>
+      </c>
+      <c r="G100">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" t="s">
+        <v>12</v>
+      </c>
+      <c r="B101" t="s">
+        <v>42</v>
+      </c>
+      <c r="C101" t="s">
+        <v>41</v>
+      </c>
+      <c r="D101" t="s">
+        <v>1</v>
+      </c>
+      <c r="E101" t="s">
+        <v>28</v>
+      </c>
+      <c r="F101" t="s">
+        <v>28</v>
+      </c>
+      <c r="G101">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" t="s">
+        <v>13</v>
+      </c>
+      <c r="B102" t="s">
+        <v>42</v>
+      </c>
+      <c r="C102" t="s">
+        <v>41</v>
+      </c>
+      <c r="D102" t="s">
+        <v>1</v>
+      </c>
+      <c r="E102" t="s">
+        <v>28</v>
+      </c>
+      <c r="F102" t="s">
+        <v>28</v>
+      </c>
+      <c r="G102">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" t="s">
+        <v>42</v>
+      </c>
+      <c r="C103" t="s">
+        <v>41</v>
+      </c>
+      <c r="D103" t="s">
+        <v>1</v>
+      </c>
+      <c r="E103" t="s">
+        <v>28</v>
+      </c>
+      <c r="F103" t="s">
+        <v>30</v>
+      </c>
+      <c r="G103">
+        <v>505.82</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" t="s">
+        <v>11</v>
+      </c>
+      <c r="B104" t="s">
+        <v>42</v>
+      </c>
+      <c r="C104" t="s">
+        <v>41</v>
+      </c>
+      <c r="D104" t="s">
+        <v>1</v>
+      </c>
+      <c r="E104" t="s">
+        <v>28</v>
+      </c>
+      <c r="F104" t="s">
+        <v>30</v>
+      </c>
+      <c r="G104">
+        <v>191.67</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" t="s">
+        <v>12</v>
+      </c>
+      <c r="B105" t="s">
+        <v>42</v>
+      </c>
+      <c r="C105" t="s">
+        <v>41</v>
+      </c>
+      <c r="D105" t="s">
+        <v>1</v>
+      </c>
+      <c r="E105" t="s">
+        <v>28</v>
+      </c>
+      <c r="F105" t="s">
+        <v>30</v>
+      </c>
+      <c r="G105">
+        <v>377.28</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" t="s">
+        <v>13</v>
+      </c>
+      <c r="B106" t="s">
+        <v>42</v>
+      </c>
+      <c r="C106" t="s">
+        <v>41</v>
+      </c>
+      <c r="D106" t="s">
+        <v>1</v>
+      </c>
+      <c r="E106" t="s">
+        <v>28</v>
+      </c>
+      <c r="F106" t="s">
+        <v>30</v>
+      </c>
+      <c r="G106">
+        <v>192.71</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" t="s">
+        <v>42</v>
+      </c>
+      <c r="C107" t="s">
+        <v>41</v>
+      </c>
+      <c r="D107" t="s">
+        <v>1</v>
+      </c>
+      <c r="E107" t="s">
+        <v>28</v>
+      </c>
+      <c r="F107" t="s">
+        <v>31</v>
+      </c>
+      <c r="G107">
+        <v>4.4660000000000002</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" t="s">
+        <v>11</v>
+      </c>
+      <c r="B108" t="s">
+        <v>42</v>
+      </c>
+      <c r="C108" t="s">
+        <v>41</v>
+      </c>
+      <c r="D108" t="s">
+        <v>1</v>
+      </c>
+      <c r="E108" t="s">
+        <v>28</v>
+      </c>
+      <c r="F108" t="s">
+        <v>31</v>
+      </c>
+      <c r="G108">
+        <v>3.3880000000000003</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" t="s">
+        <v>12</v>
+      </c>
+      <c r="B109" t="s">
+        <v>42</v>
+      </c>
+      <c r="C109" t="s">
+        <v>41</v>
+      </c>
+      <c r="D109" t="s">
+        <v>1</v>
+      </c>
+      <c r="E109" t="s">
+        <v>28</v>
+      </c>
+      <c r="F109" t="s">
+        <v>31</v>
+      </c>
+      <c r="G109">
+        <v>6.0500000000000007</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" t="s">
+        <v>13</v>
+      </c>
+      <c r="B110" t="s">
+        <v>42</v>
+      </c>
+      <c r="C110" t="s">
+        <v>41</v>
+      </c>
+      <c r="D110" t="s">
+        <v>1</v>
+      </c>
+      <c r="E110" t="s">
+        <v>28</v>
+      </c>
+      <c r="F110" t="s">
+        <v>31</v>
+      </c>
+      <c r="G110">
+        <v>3.5420000000000007</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" t="s">
+        <v>43</v>
+      </c>
+      <c r="C111" t="s">
+        <v>41</v>
+      </c>
+      <c r="D111" t="s">
+        <v>0</v>
+      </c>
+      <c r="E111" t="s">
+        <v>28</v>
+      </c>
+      <c r="F111" t="s">
+        <v>28</v>
+      </c>
+      <c r="G111">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" t="s">
+        <v>11</v>
+      </c>
+      <c r="B112" t="s">
+        <v>43</v>
+      </c>
+      <c r="C112" t="s">
+        <v>41</v>
+      </c>
+      <c r="D112" t="s">
+        <v>0</v>
+      </c>
+      <c r="E112" t="s">
+        <v>28</v>
+      </c>
+      <c r="F112" t="s">
+        <v>28</v>
+      </c>
+      <c r="G112">
+        <v>23.38</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" t="s">
+        <v>12</v>
+      </c>
+      <c r="B113" t="s">
+        <v>43</v>
+      </c>
+      <c r="C113" t="s">
+        <v>41</v>
+      </c>
+      <c r="D113" t="s">
+        <v>0</v>
+      </c>
+      <c r="E113" t="s">
+        <v>28</v>
+      </c>
+      <c r="F113" t="s">
+        <v>28</v>
+      </c>
+      <c r="G113">
+        <v>13.19</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" t="s">
+        <v>13</v>
+      </c>
+      <c r="B114" t="s">
+        <v>43</v>
+      </c>
+      <c r="C114" t="s">
+        <v>41</v>
+      </c>
+      <c r="D114" t="s">
+        <v>0</v>
+      </c>
+      <c r="E114" t="s">
+        <v>28</v>
+      </c>
+      <c r="F114" t="s">
+        <v>28</v>
+      </c>
+      <c r="G114">
+        <v>4.53</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" t="s">
+        <v>9</v>
+      </c>
+      <c r="B115" t="s">
+        <v>43</v>
+      </c>
+      <c r="C115" t="s">
+        <v>41</v>
+      </c>
+      <c r="D115" t="s">
+        <v>0</v>
+      </c>
+      <c r="E115" t="s">
+        <v>28</v>
+      </c>
+      <c r="F115" t="s">
+        <v>30</v>
+      </c>
+      <c r="G115">
+        <v>104.92</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" t="s">
+        <v>11</v>
+      </c>
+      <c r="B116" t="s">
+        <v>43</v>
+      </c>
+      <c r="C116" t="s">
+        <v>41</v>
+      </c>
+      <c r="D116" t="s">
+        <v>0</v>
+      </c>
+      <c r="E116" t="s">
+        <v>28</v>
+      </c>
+      <c r="F116" t="s">
+        <v>30</v>
+      </c>
+      <c r="G116">
+        <v>66.400000000000006</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" t="s">
+        <v>12</v>
+      </c>
+      <c r="B117" t="s">
+        <v>43</v>
+      </c>
+      <c r="C117" t="s">
+        <v>41</v>
+      </c>
+      <c r="D117" t="s">
+        <v>0</v>
+      </c>
+      <c r="E117" t="s">
+        <v>28</v>
+      </c>
+      <c r="F117" t="s">
+        <v>30</v>
+      </c>
+      <c r="G117">
+        <v>79.209999999999994</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" t="s">
+        <v>13</v>
+      </c>
+      <c r="B118" t="s">
+        <v>43</v>
+      </c>
+      <c r="C118" t="s">
+        <v>41</v>
+      </c>
+      <c r="D118" t="s">
+        <v>0</v>
+      </c>
+      <c r="E118" t="s">
+        <v>28</v>
+      </c>
+      <c r="F118" t="s">
+        <v>30</v>
+      </c>
+      <c r="G118">
+        <v>56.32</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119" t="s">
+        <v>43</v>
+      </c>
+      <c r="C119" t="s">
+        <v>41</v>
+      </c>
+      <c r="D119" t="s">
+        <v>0</v>
+      </c>
+      <c r="E119" t="s">
+        <v>28</v>
+      </c>
+      <c r="F119" t="s">
+        <v>31</v>
+      </c>
+      <c r="G119">
+        <v>3.1050000000000004</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" t="s">
+        <v>11</v>
+      </c>
+      <c r="B120" t="s">
+        <v>43</v>
+      </c>
+      <c r="C120" t="s">
+        <v>41</v>
+      </c>
+      <c r="D120" t="s">
+        <v>0</v>
+      </c>
+      <c r="E120" t="s">
+        <v>28</v>
+      </c>
+      <c r="F120" t="s">
+        <v>31</v>
+      </c>
+      <c r="G120">
+        <v>3.9240000000000004</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" t="s">
+        <v>12</v>
+      </c>
+      <c r="B121" t="s">
+        <v>43</v>
+      </c>
+      <c r="C121" t="s">
+        <v>41</v>
+      </c>
+      <c r="D121" t="s">
+        <v>0</v>
+      </c>
+      <c r="E121" t="s">
+        <v>28</v>
+      </c>
+      <c r="F121" t="s">
+        <v>31</v>
+      </c>
+      <c r="G121">
+        <v>3.8160000000000003</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" t="s">
+        <v>13</v>
+      </c>
+      <c r="B122" t="s">
+        <v>43</v>
+      </c>
+      <c r="C122" t="s">
+        <v>41</v>
+      </c>
+      <c r="D122" t="s">
+        <v>0</v>
+      </c>
+      <c r="E122" t="s">
+        <v>28</v>
+      </c>
+      <c r="F122" t="s">
+        <v>31</v>
+      </c>
+      <c r="G122">
+        <v>3.8429999999999995</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" t="s">
+        <v>9</v>
+      </c>
+      <c r="B123" t="s">
+        <v>43</v>
+      </c>
+      <c r="C123" t="s">
+        <v>41</v>
+      </c>
+      <c r="D123" t="s">
+        <v>1</v>
+      </c>
+      <c r="E123" t="s">
+        <v>28</v>
+      </c>
+      <c r="F123" t="s">
+        <v>28</v>
+      </c>
+      <c r="G123">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" t="s">
+        <v>11</v>
+      </c>
+      <c r="B124" t="s">
+        <v>43</v>
+      </c>
+      <c r="C124" t="s">
+        <v>41</v>
+      </c>
+      <c r="D124" t="s">
+        <v>1</v>
+      </c>
+      <c r="E124" t="s">
+        <v>28</v>
+      </c>
+      <c r="F124" t="s">
+        <v>28</v>
+      </c>
+      <c r="G124">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" t="s">
+        <v>12</v>
+      </c>
+      <c r="B125" t="s">
+        <v>43</v>
+      </c>
+      <c r="C125" t="s">
+        <v>41</v>
+      </c>
+      <c r="D125" t="s">
+        <v>1</v>
+      </c>
+      <c r="E125" t="s">
+        <v>28</v>
+      </c>
+      <c r="F125" t="s">
+        <v>28</v>
+      </c>
+      <c r="G125">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" t="s">
+        <v>13</v>
+      </c>
+      <c r="B126" t="s">
+        <v>43</v>
+      </c>
+      <c r="C126" t="s">
+        <v>41</v>
+      </c>
+      <c r="D126" t="s">
+        <v>1</v>
+      </c>
+      <c r="E126" t="s">
+        <v>28</v>
+      </c>
+      <c r="F126" t="s">
+        <v>28</v>
+      </c>
+      <c r="G126">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" t="s">
+        <v>9</v>
+      </c>
+      <c r="B127" t="s">
+        <v>43</v>
+      </c>
+      <c r="C127" t="s">
+        <v>41</v>
+      </c>
+      <c r="D127" t="s">
+        <v>1</v>
+      </c>
+      <c r="E127" t="s">
+        <v>28</v>
+      </c>
+      <c r="F127" t="s">
+        <v>30</v>
+      </c>
+      <c r="G127">
+        <v>505.82</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" t="s">
+        <v>11</v>
+      </c>
+      <c r="B128" t="s">
+        <v>43</v>
+      </c>
+      <c r="C128" t="s">
+        <v>41</v>
+      </c>
+      <c r="D128" t="s">
+        <v>1</v>
+      </c>
+      <c r="E128" t="s">
+        <v>28</v>
+      </c>
+      <c r="F128" t="s">
+        <v>30</v>
+      </c>
+      <c r="G128">
+        <v>191.67</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" t="s">
+        <v>12</v>
+      </c>
+      <c r="B129" t="s">
+        <v>43</v>
+      </c>
+      <c r="C129" t="s">
+        <v>41</v>
+      </c>
+      <c r="D129" t="s">
+        <v>1</v>
+      </c>
+      <c r="E129" t="s">
+        <v>28</v>
+      </c>
+      <c r="F129" t="s">
+        <v>30</v>
+      </c>
+      <c r="G129">
+        <v>377.28</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" t="s">
+        <v>13</v>
+      </c>
+      <c r="B130" t="s">
+        <v>43</v>
+      </c>
+      <c r="C130" t="s">
+        <v>41</v>
+      </c>
+      <c r="D130" t="s">
+        <v>1</v>
+      </c>
+      <c r="E130" t="s">
+        <v>28</v>
+      </c>
+      <c r="F130" t="s">
+        <v>30</v>
+      </c>
+      <c r="G130">
+        <v>192.71</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" t="s">
+        <v>9</v>
+      </c>
+      <c r="B131" t="s">
+        <v>43</v>
+      </c>
+      <c r="C131" t="s">
+        <v>41</v>
+      </c>
+      <c r="D131" t="s">
+        <v>1</v>
+      </c>
+      <c r="E131" t="s">
+        <v>28</v>
+      </c>
+      <c r="F131" t="s">
+        <v>31</v>
+      </c>
+      <c r="G131">
+        <v>3.6539999999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" t="s">
+        <v>11</v>
+      </c>
+      <c r="B132" t="s">
+        <v>43</v>
+      </c>
+      <c r="C132" t="s">
+        <v>41</v>
+      </c>
+      <c r="D132" t="s">
+        <v>1</v>
+      </c>
+      <c r="E132" t="s">
+        <v>28</v>
+      </c>
+      <c r="F132" t="s">
+        <v>31</v>
+      </c>
+      <c r="G132">
+        <v>2.7720000000000002</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" t="s">
+        <v>12</v>
+      </c>
+      <c r="B133" t="s">
+        <v>43</v>
+      </c>
+      <c r="C133" t="s">
+        <v>41</v>
+      </c>
+      <c r="D133" t="s">
+        <v>1</v>
+      </c>
+      <c r="E133" t="s">
+        <v>28</v>
+      </c>
+      <c r="F133" t="s">
+        <v>31</v>
+      </c>
+      <c r="G133">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" t="s">
+        <v>13</v>
+      </c>
+      <c r="B134" t="s">
+        <v>43</v>
+      </c>
+      <c r="C134" t="s">
+        <v>41</v>
+      </c>
+      <c r="D134" t="s">
+        <v>1</v>
+      </c>
+      <c r="E134" t="s">
+        <v>28</v>
+      </c>
+      <c r="F134" t="s">
+        <v>31</v>
+      </c>
+      <c r="G134">
+        <v>2.8980000000000001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" t="s">
+        <v>10</v>
+      </c>
+      <c r="B135" t="s">
+        <v>44</v>
+      </c>
+      <c r="C135" t="s">
+        <v>40</v>
+      </c>
+      <c r="D135" t="s">
+        <v>0</v>
+      </c>
+      <c r="E135" t="s">
+        <v>26</v>
+      </c>
+      <c r="F135" t="s">
+        <v>3</v>
+      </c>
+      <c r="G135">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" t="s">
+        <v>10</v>
+      </c>
+      <c r="B136" t="s">
+        <v>44</v>
+      </c>
+      <c r="C136" t="s">
+        <v>40</v>
+      </c>
+      <c r="D136" t="s">
+        <v>0</v>
+      </c>
+      <c r="E136" t="s">
+        <v>26</v>
+      </c>
+      <c r="F136" t="s">
+        <v>4</v>
+      </c>
+      <c r="G136">
+        <v>1.6879999999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" t="s">
+        <v>10</v>
+      </c>
+      <c r="B137" t="s">
+        <v>44</v>
+      </c>
+      <c r="C137" t="s">
+        <v>40</v>
+      </c>
+      <c r="D137" t="s">
+        <v>0</v>
+      </c>
+      <c r="E137" t="s">
+        <v>26</v>
+      </c>
+      <c r="F137" t="s">
+        <v>2</v>
+      </c>
+      <c r="G137">
+        <v>1.718</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" t="s">
+        <v>10</v>
+      </c>
+      <c r="B138" t="s">
+        <v>44</v>
+      </c>
+      <c r="C138" t="s">
+        <v>40</v>
+      </c>
+      <c r="D138" t="s">
+        <v>1</v>
+      </c>
+      <c r="E138" t="s">
+        <v>26</v>
+      </c>
+      <c r="F138" t="s">
+        <v>3</v>
+      </c>
+      <c r="G138">
+        <v>2.1139999999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" t="s">
+        <v>10</v>
+      </c>
+      <c r="B139" t="s">
+        <v>44</v>
+      </c>
+      <c r="C139" t="s">
+        <v>40</v>
+      </c>
+      <c r="D139" t="s">
+        <v>1</v>
+      </c>
+      <c r="E139" t="s">
+        <v>26</v>
+      </c>
+      <c r="F139" t="s">
+        <v>4</v>
+      </c>
+      <c r="G139">
+        <v>2.1989999999999998</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" t="s">
+        <v>10</v>
+      </c>
+      <c r="B140" t="s">
+        <v>44</v>
+      </c>
+      <c r="C140" t="s">
+        <v>40</v>
+      </c>
+      <c r="D140" t="s">
+        <v>1</v>
+      </c>
+      <c r="E140" t="s">
+        <v>26</v>
+      </c>
+      <c r="F140" t="s">
+        <v>2</v>
+      </c>
+      <c r="G140">
+        <v>2.2549999999999999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" t="s">
+        <v>10</v>
+      </c>
+      <c r="B141" t="s">
+        <v>44</v>
+      </c>
+      <c r="C141" t="s">
+        <v>39</v>
+      </c>
+      <c r="D141" t="s">
+        <v>0</v>
+      </c>
+      <c r="E141" t="s">
+        <v>26</v>
+      </c>
+      <c r="F141" t="s">
+        <v>3</v>
+      </c>
+      <c r="G141">
+        <v>1.921</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" t="s">
+        <v>10</v>
+      </c>
+      <c r="B142" t="s">
+        <v>44</v>
+      </c>
+      <c r="C142" t="s">
+        <v>39</v>
+      </c>
+      <c r="D142" t="s">
+        <v>0</v>
+      </c>
+      <c r="E142" t="s">
+        <v>26</v>
+      </c>
+      <c r="F142" t="s">
+        <v>4</v>
+      </c>
+      <c r="G142">
+        <v>1.9770000000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" t="s">
+        <v>10</v>
+      </c>
+      <c r="B143" t="s">
+        <v>44</v>
+      </c>
+      <c r="C143" t="s">
+        <v>39</v>
+      </c>
+      <c r="D143" t="s">
+        <v>0</v>
+      </c>
+      <c r="E143" t="s">
+        <v>26</v>
+      </c>
+      <c r="F143" t="s">
+        <v>2</v>
+      </c>
+      <c r="G143">
+        <v>2.012</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" t="s">
+        <v>10</v>
+      </c>
+      <c r="B144" t="s">
+        <v>44</v>
+      </c>
+      <c r="C144" t="s">
+        <v>39</v>
+      </c>
+      <c r="D144" t="s">
+        <v>1</v>
+      </c>
+      <c r="E144" t="s">
+        <v>26</v>
+      </c>
+      <c r="F144" t="s">
+        <v>3</v>
+      </c>
+      <c r="G144">
+        <v>2.5990000000000002</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" t="s">
+        <v>10</v>
+      </c>
+      <c r="B145" t="s">
+        <v>44</v>
+      </c>
+      <c r="C145" t="s">
+        <v>39</v>
+      </c>
+      <c r="D145" t="s">
+        <v>1</v>
+      </c>
+      <c r="E145" t="s">
+        <v>26</v>
+      </c>
+      <c r="F145" t="s">
+        <v>4</v>
+      </c>
+      <c r="G145">
+        <v>2.7719999999999998</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" t="s">
+        <v>10</v>
+      </c>
+      <c r="B146" t="s">
+        <v>44</v>
+      </c>
+      <c r="C146" t="s">
+        <v>39</v>
+      </c>
+      <c r="D146" t="s">
+        <v>1</v>
+      </c>
+      <c r="E146" t="s">
+        <v>26</v>
+      </c>
+      <c r="F146" t="s">
+        <v>2</v>
+      </c>
+      <c r="G146">
+        <v>2.7029999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="5.875" customWidth="1"/>
+    <col min="4" max="4" width="3.5" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.125" customWidth="1"/>
+    <col min="7" max="7" width="5.875" customWidth="1"/>
+    <col min="8" max="8" width="11.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="26">
+        <v>2.4980000000000002</v>
+      </c>
+      <c r="C8" s="26">
+        <v>1.871</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="26">
+        <v>2.5990000000000002</v>
+      </c>
+      <c r="G8" s="26">
+        <v>1.921</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="26">
+        <v>2.5979999999999999</v>
+      </c>
+      <c r="C9" s="26">
+        <v>1.9239999999999999</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="26">
+        <v>2.7719999999999998</v>
+      </c>
+      <c r="G9" s="26">
+        <v>1.9770000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="26">
+        <v>2.665</v>
+      </c>
+      <c r="C10" s="26">
+        <v>1.9590000000000001</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="26">
+        <v>2.7029999999999998</v>
+      </c>
+      <c r="G10" s="26">
+        <v>2.012</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="26">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="C20" s="26">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="E20" s="25"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="26">
+        <v>365.15</v>
+      </c>
+      <c r="C21" s="26">
+        <v>71.41</v>
+      </c>
+      <c r="E21" s="25"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="26">
+        <v>1.9</v>
+      </c>
+      <c r="C22" s="26">
+        <v>4.38</v>
+      </c>
+      <c r="E22" s="25"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ClimateStatsforDCEW.xlsx
+++ b/ClimateStatsforDCEW.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" tabRatio="464" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" tabRatio="657" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,13 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="54" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="49">
   <si>
     <t>wet</t>
   </si>
@@ -144,12 +144,6 @@
     <t>average</t>
   </si>
   <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>decreased</t>
-  </si>
-  <si>
     <t>10% depth</t>
   </si>
   <si>
@@ -160,6 +154,24 @@
   </si>
   <si>
     <t>modled 8.5</t>
+  </si>
+  <si>
+    <t>precip</t>
+  </si>
+  <si>
+    <t>Lower Weather</t>
+  </si>
+  <si>
+    <t>Treeline</t>
+  </si>
+  <si>
+    <t>Shingle Creek Ridge</t>
+  </si>
+  <si>
+    <t>Lower Deer Point</t>
+  </si>
+  <si>
+    <t>Bogus Ridge Weather</t>
   </si>
 </sst>
 </file>
@@ -895,11 +907,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1848585744"/>
-        <c:axId val="-1848585200"/>
+        <c:axId val="1839608480"/>
+        <c:axId val="1839609024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1848585744"/>
+        <c:axId val="1839608480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -942,12 +954,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1848585200"/>
+        <c:crossAx val="1839609024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1848585200"/>
+        <c:axId val="1839609024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.75"/>
@@ -992,7 +1004,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1848585744"/>
+        <c:crossAx val="1839608480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1589,11 +1601,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1842587488"/>
-        <c:axId val="-1842586944"/>
+        <c:axId val="1889616112"/>
+        <c:axId val="1889614480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1842587488"/>
+        <c:axId val="1889616112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1603,12 +1615,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1842586944"/>
+        <c:crossAx val="1889614480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1842586944"/>
+        <c:axId val="1889614480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.4"/>
@@ -1716,7 +1728,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1842587488"/>
+        <c:crossAx val="1889616112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2181,11 +2193,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1848584112"/>
-        <c:axId val="-1888009920"/>
+        <c:axId val="1799588928"/>
+        <c:axId val="1597066272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1848584112"/>
+        <c:axId val="1799588928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2228,12 +2240,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1888009920"/>
+        <c:crossAx val="1597066272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1888009920"/>
+        <c:axId val="1597066272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2276,7 +2288,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1848584112"/>
+        <c:crossAx val="1799588928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2485,11 +2497,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1888005568"/>
-        <c:axId val="-2090049344"/>
+        <c:axId val="1888528944"/>
+        <c:axId val="1888520240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1888005568"/>
+        <c:axId val="1888528944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2532,12 +2544,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2090049344"/>
+        <c:crossAx val="1888520240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2090049344"/>
+        <c:axId val="1888520240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2580,7 +2592,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1888005568"/>
+        <c:crossAx val="1888528944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2836,11 +2848,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1842583136"/>
-        <c:axId val="-1842584768"/>
+        <c:axId val="1888527312"/>
+        <c:axId val="1888513712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1842584768"/>
+        <c:axId val="1888513712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2862,7 +2874,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -2886,12 +2897,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1842583136"/>
+        <c:crossAx val="1888527312"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1842583136"/>
+        <c:axId val="1888527312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2913,13 +2924,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1842584768"/>
+        <c:crossAx val="1888513712"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3185,11 +3195,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1842582592"/>
-        <c:axId val="-1842591296"/>
+        <c:axId val="1888527856"/>
+        <c:axId val="1888528400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1842591296"/>
+        <c:axId val="1888528400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3211,7 +3221,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -3235,12 +3244,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1842582592"/>
+        <c:crossAx val="1888527856"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1842582592"/>
+        <c:axId val="1888527856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3262,13 +3271,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1842591296"/>
+        <c:crossAx val="1888528400"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3534,11 +3542,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1842597280"/>
-        <c:axId val="-1842583680"/>
+        <c:axId val="1888526768"/>
+        <c:axId val="1888525680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1842583680"/>
+        <c:axId val="1888525680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3560,7 +3568,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -3584,12 +3591,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1842597280"/>
+        <c:crossAx val="1888526768"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1842597280"/>
+        <c:axId val="1888526768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3611,13 +3618,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1842583680"/>
+        <c:crossAx val="1888525680"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3883,11 +3889,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1842590752"/>
-        <c:axId val="-1842592384"/>
+        <c:axId val="1888522416"/>
+        <c:axId val="1888515888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1842592384"/>
+        <c:axId val="1888515888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3909,7 +3915,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -3933,12 +3938,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1842590752"/>
+        <c:crossAx val="1888522416"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1842590752"/>
+        <c:axId val="1888522416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3960,13 +3965,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1842592384"/>
+        <c:crossAx val="1888515888"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4232,11 +4236,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1842591840"/>
-        <c:axId val="-1842594016"/>
+        <c:axId val="1888523504"/>
+        <c:axId val="1888522960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1842594016"/>
+        <c:axId val="1888522960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4258,7 +4262,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -4282,12 +4285,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1842591840"/>
+        <c:crossAx val="1888523504"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1842591840"/>
+        <c:axId val="1888523504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4309,13 +4312,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1842594016"/>
+        <c:crossAx val="1888522960"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4581,11 +4583,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1842589120"/>
-        <c:axId val="-1842589664"/>
+        <c:axId val="1888524048"/>
+        <c:axId val="1888521328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1842589664"/>
+        <c:axId val="1888521328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4607,7 +4609,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -4631,12 +4632,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1842589120"/>
+        <c:crossAx val="1888524048"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1842589120"/>
+        <c:axId val="1888524048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4658,13 +4659,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1842589664"/>
+        <c:crossAx val="1888521328"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7212,18 +7212,23 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Lucy Gelb" refreshedDate="42436.564463541668" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="144">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Lucy Gelb" refreshedDate="42436.598321874997" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="144">
   <cacheSource type="worksheet">
     <worksheetSource ref="A2:G146" sheet="Sheet1"/>
   </cacheSource>
   <cacheFields count="7">
     <cacheField name="Weather Station" numFmtId="0">
-      <sharedItems count="5">
-        <s v="LW"/>
-        <s v="T"/>
-        <s v="SCR"/>
-        <s v="LDP"/>
-        <s v="BRW"/>
+      <sharedItems count="10">
+        <s v="Lower Weather"/>
+        <s v="Treeline"/>
+        <s v="Shingle Creek Ridge"/>
+        <s v="Lower Deer Point"/>
+        <s v="Bogus Ridge Weather"/>
+        <s v="BRW" u="1"/>
+        <s v="SCR" u="1"/>
+        <s v="LW" u="1"/>
+        <s v="T" u="1"/>
+        <s v="LDP" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="model" numFmtId="0">
@@ -7231,17 +7236,19 @@
         <s v="observed"/>
         <s v="10% depth"/>
         <s v="modeled 4.5"/>
-        <s v="increase"/>
-        <s v="decrease"/>
         <s v="modled 8.5"/>
+        <s v="increase" u="1"/>
+        <s v="decrease" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="climate scenario" numFmtId="0">
-      <sharedItems count="4">
+      <sharedItems count="6">
         <s v="average"/>
-        <s v="increased"/>
-        <s v="decreased"/>
-        <s v="10% depth"/>
+        <s v="increase"/>
+        <s v="decrease"/>
+        <s v="increased" u="1"/>
+        <s v="decreased" u="1"/>
+        <s v="10% depth" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="season" numFmtId="0">
@@ -7251,9 +7258,10 @@
       </sharedItems>
     </cacheField>
     <cacheField name="category" numFmtId="0">
-      <sharedItems count="2">
+      <sharedItems count="3">
         <s v="PET"/>
-        <s v="storm"/>
+        <s v="precip"/>
+        <s v="storm" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="variable" numFmtId="0">
@@ -8038,8 +8046,8 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="3"/>
-    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="1"/>
     <x v="3"/>
@@ -8047,8 +8055,8 @@
   </r>
   <r>
     <x v="2"/>
-    <x v="3"/>
-    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="1"/>
     <x v="3"/>
@@ -8056,8 +8064,8 @@
   </r>
   <r>
     <x v="3"/>
-    <x v="3"/>
-    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="1"/>
     <x v="3"/>
@@ -8065,8 +8073,8 @@
   </r>
   <r>
     <x v="4"/>
-    <x v="3"/>
-    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="1"/>
     <x v="3"/>
@@ -8074,8 +8082,8 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="3"/>
-    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="1"/>
     <x v="4"/>
@@ -8083,8 +8091,8 @@
   </r>
   <r>
     <x v="2"/>
-    <x v="3"/>
-    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="1"/>
     <x v="4"/>
@@ -8092,8 +8100,8 @@
   </r>
   <r>
     <x v="3"/>
-    <x v="3"/>
-    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="1"/>
     <x v="4"/>
@@ -8101,8 +8109,8 @@
   </r>
   <r>
     <x v="4"/>
-    <x v="3"/>
-    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="1"/>
     <x v="4"/>
@@ -8110,8 +8118,8 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="3"/>
-    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="1"/>
     <x v="5"/>
@@ -8119,8 +8127,8 @@
   </r>
   <r>
     <x v="2"/>
-    <x v="3"/>
-    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="1"/>
     <x v="5"/>
@@ -8128,8 +8136,8 @@
   </r>
   <r>
     <x v="3"/>
-    <x v="3"/>
-    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="1"/>
     <x v="5"/>
@@ -8137,8 +8145,8 @@
   </r>
   <r>
     <x v="4"/>
-    <x v="3"/>
-    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="1"/>
     <x v="5"/>
@@ -8146,8 +8154,8 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="3"/>
-    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="1"/>
     <x v="3"/>
@@ -8155,8 +8163,8 @@
   </r>
   <r>
     <x v="2"/>
-    <x v="3"/>
-    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="1"/>
     <x v="3"/>
@@ -8164,8 +8172,8 @@
   </r>
   <r>
     <x v="3"/>
-    <x v="3"/>
-    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="1"/>
     <x v="3"/>
@@ -8173,8 +8181,8 @@
   </r>
   <r>
     <x v="4"/>
-    <x v="3"/>
-    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="1"/>
     <x v="3"/>
@@ -8182,8 +8190,8 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="3"/>
-    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="1"/>
     <x v="4"/>
@@ -8191,8 +8199,8 @@
   </r>
   <r>
     <x v="2"/>
-    <x v="3"/>
-    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="1"/>
     <x v="4"/>
@@ -8200,8 +8208,8 @@
   </r>
   <r>
     <x v="3"/>
-    <x v="3"/>
-    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="1"/>
     <x v="4"/>
@@ -8209,8 +8217,8 @@
   </r>
   <r>
     <x v="4"/>
-    <x v="3"/>
-    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="1"/>
     <x v="4"/>
@@ -8218,8 +8226,8 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="3"/>
-    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="1"/>
     <x v="5"/>
@@ -8227,8 +8235,8 @@
   </r>
   <r>
     <x v="2"/>
-    <x v="3"/>
-    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="1"/>
     <x v="5"/>
@@ -8236,8 +8244,8 @@
   </r>
   <r>
     <x v="3"/>
-    <x v="3"/>
-    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="1"/>
     <x v="5"/>
@@ -8245,8 +8253,8 @@
   </r>
   <r>
     <x v="4"/>
-    <x v="3"/>
-    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="1"/>
     <x v="5"/>
@@ -8254,8 +8262,8 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="4"/>
-    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
     <x v="0"/>
     <x v="1"/>
     <x v="3"/>
@@ -8263,8 +8271,8 @@
   </r>
   <r>
     <x v="2"/>
-    <x v="4"/>
-    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
     <x v="0"/>
     <x v="1"/>
     <x v="3"/>
@@ -8272,8 +8280,8 @@
   </r>
   <r>
     <x v="3"/>
-    <x v="4"/>
-    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
     <x v="0"/>
     <x v="1"/>
     <x v="3"/>
@@ -8281,8 +8289,8 @@
   </r>
   <r>
     <x v="4"/>
-    <x v="4"/>
-    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
     <x v="0"/>
     <x v="1"/>
     <x v="3"/>
@@ -8290,8 +8298,8 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="4"/>
-    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
     <x v="0"/>
     <x v="1"/>
     <x v="4"/>
@@ -8299,8 +8307,8 @@
   </r>
   <r>
     <x v="2"/>
-    <x v="4"/>
-    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
     <x v="0"/>
     <x v="1"/>
     <x v="4"/>
@@ -8308,8 +8316,8 @@
   </r>
   <r>
     <x v="3"/>
-    <x v="4"/>
-    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
     <x v="0"/>
     <x v="1"/>
     <x v="4"/>
@@ -8317,8 +8325,8 @@
   </r>
   <r>
     <x v="4"/>
-    <x v="4"/>
-    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
     <x v="0"/>
     <x v="1"/>
     <x v="4"/>
@@ -8326,8 +8334,8 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="4"/>
-    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
     <x v="0"/>
     <x v="1"/>
     <x v="5"/>
@@ -8335,8 +8343,8 @@
   </r>
   <r>
     <x v="2"/>
-    <x v="4"/>
-    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
     <x v="0"/>
     <x v="1"/>
     <x v="5"/>
@@ -8344,8 +8352,8 @@
   </r>
   <r>
     <x v="3"/>
-    <x v="4"/>
-    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
     <x v="0"/>
     <x v="1"/>
     <x v="5"/>
@@ -8353,8 +8361,8 @@
   </r>
   <r>
     <x v="4"/>
-    <x v="4"/>
-    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
     <x v="0"/>
     <x v="1"/>
     <x v="5"/>
@@ -8362,8 +8370,8 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="4"/>
-    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <x v="1"/>
     <x v="3"/>
@@ -8371,8 +8379,8 @@
   </r>
   <r>
     <x v="2"/>
-    <x v="4"/>
-    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <x v="1"/>
     <x v="3"/>
@@ -8380,8 +8388,8 @@
   </r>
   <r>
     <x v="3"/>
-    <x v="4"/>
-    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <x v="1"/>
     <x v="3"/>
@@ -8389,8 +8397,8 @@
   </r>
   <r>
     <x v="4"/>
-    <x v="4"/>
-    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <x v="1"/>
     <x v="3"/>
@@ -8398,8 +8406,8 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="4"/>
-    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <x v="1"/>
     <x v="4"/>
@@ -8407,8 +8415,8 @@
   </r>
   <r>
     <x v="2"/>
-    <x v="4"/>
-    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <x v="1"/>
     <x v="4"/>
@@ -8416,8 +8424,8 @@
   </r>
   <r>
     <x v="3"/>
-    <x v="4"/>
-    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <x v="1"/>
     <x v="4"/>
@@ -8425,8 +8433,8 @@
   </r>
   <r>
     <x v="4"/>
-    <x v="4"/>
-    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <x v="1"/>
     <x v="4"/>
@@ -8434,8 +8442,8 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="4"/>
-    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <x v="1"/>
     <x v="5"/>
@@ -8443,8 +8451,8 @@
   </r>
   <r>
     <x v="2"/>
-    <x v="4"/>
-    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <x v="1"/>
     <x v="5"/>
@@ -8452,8 +8460,8 @@
   </r>
   <r>
     <x v="3"/>
-    <x v="4"/>
-    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <x v="1"/>
     <x v="5"/>
@@ -8461,8 +8469,8 @@
   </r>
   <r>
     <x v="4"/>
-    <x v="4"/>
-    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
     <x v="1"/>
     <x v="1"/>
     <x v="5"/>
@@ -8470,7 +8478,7 @@
   </r>
   <r>
     <x v="1"/>
-    <x v="5"/>
+    <x v="3"/>
     <x v="2"/>
     <x v="0"/>
     <x v="0"/>
@@ -8479,7 +8487,7 @@
   </r>
   <r>
     <x v="1"/>
-    <x v="5"/>
+    <x v="3"/>
     <x v="2"/>
     <x v="0"/>
     <x v="0"/>
@@ -8488,7 +8496,7 @@
   </r>
   <r>
     <x v="1"/>
-    <x v="5"/>
+    <x v="3"/>
     <x v="2"/>
     <x v="0"/>
     <x v="0"/>
@@ -8497,7 +8505,7 @@
   </r>
   <r>
     <x v="1"/>
-    <x v="5"/>
+    <x v="3"/>
     <x v="2"/>
     <x v="1"/>
     <x v="0"/>
@@ -8506,7 +8514,7 @@
   </r>
   <r>
     <x v="1"/>
-    <x v="5"/>
+    <x v="3"/>
     <x v="2"/>
     <x v="1"/>
     <x v="0"/>
@@ -8515,7 +8523,7 @@
   </r>
   <r>
     <x v="1"/>
-    <x v="5"/>
+    <x v="3"/>
     <x v="2"/>
     <x v="1"/>
     <x v="0"/>
@@ -8524,7 +8532,7 @@
   </r>
   <r>
     <x v="1"/>
-    <x v="5"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
@@ -8533,7 +8541,7 @@
   </r>
   <r>
     <x v="1"/>
-    <x v="5"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
@@ -8542,7 +8550,7 @@
   </r>
   <r>
     <x v="1"/>
-    <x v="5"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
@@ -8551,7 +8559,7 @@
   </r>
   <r>
     <x v="1"/>
-    <x v="5"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
@@ -8560,7 +8568,7 @@
   </r>
   <r>
     <x v="1"/>
-    <x v="5"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
@@ -8569,7 +8577,7 @@
   </r>
   <r>
     <x v="1"/>
-    <x v="5"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
@@ -8580,36 +8588,43 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A18:C22" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A6:C10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisPage" showAll="0">
-      <items count="6">
+      <items count="11">
+        <item m="1" x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="7"/>
+        <item m="1" x="6"/>
+        <item m="1" x="8"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
         <item x="4"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" showAll="0">
       <items count="7">
         <item x="1"/>
-        <item x="4"/>
-        <item x="3"/>
+        <item m="1" x="5"/>
+        <item m="1" x="4"/>
         <item x="2"/>
         <item x="0"/>
-        <item x="5"/>
+        <item x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item x="3"/>
+      <items count="7">
+        <item m="1" x="5"/>
         <item x="0"/>
+        <item m="1" x="4"/>
+        <item m="1" x="3"/>
+        <item x="1"/>
         <item x="2"/>
-        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -8621,8 +8636,345 @@
       </items>
     </pivotField>
     <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item m="1" x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="5"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="0" item="6" hier="-1"/>
+    <pageField fld="4" item="0" hier="-1"/>
+    <pageField fld="1" item="3" hier="-1"/>
+    <pageField fld="2" item="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Average of value" fld="6" subtotal="average" baseField="5" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="E18:G22" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisPage" showAll="0">
+      <items count="11">
+        <item m="1" x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="7"/>
+        <item m="1" x="6"/>
+        <item m="1" x="8"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="7">
+        <item x="1"/>
+        <item m="1" x="5"/>
+        <item m="1" x="4"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="7">
+        <item m="1" x="5"/>
+        <item x="0"/>
+        <item m="1" x="4"/>
+        <item m="1" x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
       <items count="3">
+        <item x="1"/>
         <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item m="1" x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="5"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="0" item="6" hier="-1"/>
+    <pageField fld="4" item="0" hier="-1"/>
+    <pageField fld="1" item="4" hier="-1"/>
+    <pageField fld="2" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Average of value" fld="6" subtotal="average" baseField="5" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="E6:G10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisPage" showAll="0">
+      <items count="11">
+        <item m="1" x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="7"/>
+        <item m="1" x="6"/>
+        <item m="1" x="8"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="7">
+        <item x="1"/>
+        <item m="1" x="5"/>
+        <item m="1" x="4"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="7">
+        <item m="1" x="5"/>
+        <item x="0"/>
+        <item m="1" x="4"/>
+        <item m="1" x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item m="1" x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="5"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="0" item="6" hier="-1"/>
+    <pageField fld="4" item="0" hier="-1"/>
+    <pageField fld="1" item="5" hier="-1"/>
+    <pageField fld="2" item="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Average of value" fld="6" subtotal="average" baseField="5" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A18:C22" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisPage" showAll="0">
+      <items count="11">
+        <item m="1" x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="7"/>
+        <item m="1" x="6"/>
+        <item m="1" x="8"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="7">
+        <item x="1"/>
+        <item m="1" x="5"/>
+        <item m="1" x="4"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="7">
+        <item m="1" x="5"/>
+        <item x="0"/>
+        <item m="1" x="4"/>
+        <item m="1" x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item m="1" x="2"/>
         <item x="1"/>
         <item t="default"/>
       </items>
@@ -8666,218 +9018,10 @@
     </i>
   </colItems>
   <pageFields count="4">
-    <pageField fld="0" item="4" hier="-1"/>
-    <pageField fld="4" item="1" hier="-1"/>
-    <pageField fld="1" item="4" hier="-1"/>
-    <pageField fld="2" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Average of value" fld="6" subtotal="average" baseField="5" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A6:C10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="7">
-    <pivotField axis="axisPage" showAll="0">
-      <items count="6">
-        <item x="4"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="7">
-        <item x="1"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="5"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="5"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="3"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="0" item="4" hier="-1"/>
-    <pageField fld="4" item="0" hier="-1"/>
-    <pageField fld="1" item="3" hier="-1"/>
-    <pageField fld="2" item="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Average of value" fld="6" subtotal="average" baseField="5" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="E6:G10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="7">
-    <pivotField axis="axisPage" showAll="0">
-      <items count="6">
-        <item x="4"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="7">
-        <item x="1"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="5"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="5"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="3"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="0" item="4" hier="-1"/>
-    <pageField fld="4" item="0" hier="-1"/>
-    <pageField fld="1" item="5" hier="-1"/>
-    <pageField fld="2" item="3" hier="-1"/>
+    <pageField fld="0" item="6" hier="-1"/>
+    <pageField fld="4" item="2" hier="-1"/>
+    <pageField fld="1" item="0" hier="-1"/>
+    <pageField fld="2" item="5" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Average of value" fld="6" subtotal="average" baseField="5" baseItem="0"/>
@@ -9157,10 +9301,10 @@
   <dimension ref="A1:AL20"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="M4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Z5" sqref="Z5"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10078,8 +10222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G146"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C141" sqref="C141:C146"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C122" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10119,7 +10263,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -10142,7 +10286,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -10165,7 +10309,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -10188,7 +10332,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -10211,7 +10355,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -10234,7 +10378,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -10257,7 +10401,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -10269,7 +10413,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -10280,7 +10424,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -10292,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
         <v>30</v>
@@ -10303,7 +10447,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -10315,7 +10459,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
         <v>31</v>
@@ -10326,7 +10470,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -10338,7 +10482,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
         <v>28</v>
@@ -10349,7 +10493,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -10361,7 +10505,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
         <v>30</v>
@@ -10372,7 +10516,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
@@ -10384,7 +10528,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
         <v>31</v>
@@ -10395,7 +10539,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
@@ -10418,7 +10562,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
         <v>24</v>
@@ -10441,7 +10585,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
         <v>24</v>
@@ -10464,7 +10608,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
@@ -10476,7 +10620,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
         <v>28</v>
@@ -10487,7 +10631,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
@@ -10499,7 +10643,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
         <v>30</v>
@@ -10510,7 +10654,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
@@ -10522,7 +10666,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
         <v>31</v>
@@ -10533,7 +10677,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
         <v>24</v>
@@ -10556,7 +10700,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
         <v>24</v>
@@ -10579,7 +10723,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
@@ -10602,7 +10746,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
@@ -10614,7 +10758,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
         <v>28</v>
@@ -10625,7 +10769,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
@@ -10637,7 +10781,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
         <v>30</v>
@@ -10648,7 +10792,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
@@ -10660,7 +10804,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
         <v>31</v>
@@ -10671,7 +10815,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
         <v>24</v>
@@ -10694,7 +10838,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
         <v>24</v>
@@ -10717,7 +10861,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s">
         <v>24</v>
@@ -10740,7 +10884,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s">
         <v>24</v>
@@ -10752,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
         <v>28</v>
@@ -10763,7 +10907,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
         <v>24</v>
@@ -10775,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
         <v>30</v>
@@ -10786,7 +10930,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
         <v>24</v>
@@ -10798,7 +10942,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
         <v>31</v>
@@ -10809,7 +10953,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
         <v>24</v>
@@ -10832,7 +10976,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s">
         <v>24</v>
@@ -10855,7 +10999,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B35" t="s">
         <v>24</v>
@@ -10878,7 +11022,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B36" t="s">
         <v>24</v>
@@ -10890,7 +11034,7 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
         <v>28</v>
@@ -10901,7 +11045,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B37" t="s">
         <v>24</v>
@@ -10913,7 +11057,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s">
         <v>30</v>
@@ -10924,7 +11068,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s">
         <v>24</v>
@@ -10936,7 +11080,7 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s">
         <v>31</v>
@@ -10947,7 +11091,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s">
         <v>24</v>
@@ -10970,7 +11114,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
         <v>24</v>
@@ -10993,7 +11137,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B41" t="s">
         <v>24</v>
@@ -11016,7 +11160,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B42" t="s">
         <v>24</v>
@@ -11028,7 +11172,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
         <v>28</v>
@@ -11039,7 +11183,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B43" t="s">
         <v>24</v>
@@ -11051,7 +11195,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s">
         <v>30</v>
@@ -11062,7 +11206,7 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B44" t="s">
         <v>24</v>
@@ -11074,7 +11218,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s">
         <v>31</v>
@@ -11085,7 +11229,7 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B45" t="s">
         <v>24</v>
@@ -11108,7 +11252,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B46" t="s">
         <v>24</v>
@@ -11131,7 +11275,7 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
         <v>24</v>
@@ -11154,7 +11298,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>24</v>
@@ -11166,7 +11310,7 @@
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s">
         <v>28</v>
@@ -11177,7 +11321,7 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
         <v>24</v>
@@ -11189,7 +11333,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F49" t="s">
         <v>30</v>
@@ -11200,7 +11344,7 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B50" t="s">
         <v>24</v>
@@ -11212,7 +11356,7 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F50" t="s">
         <v>31</v>
@@ -11223,7 +11367,7 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B51" t="s">
         <v>24</v>
@@ -11246,7 +11390,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B52" t="s">
         <v>24</v>
@@ -11269,7 +11413,7 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B53" t="s">
         <v>24</v>
@@ -11292,7 +11436,7 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B54" t="s">
         <v>24</v>
@@ -11304,7 +11448,7 @@
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F54" t="s">
         <v>28</v>
@@ -11315,7 +11459,7 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B55" t="s">
         <v>24</v>
@@ -11327,7 +11471,7 @@
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F55" t="s">
         <v>30</v>
@@ -11338,7 +11482,7 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B56" t="s">
         <v>24</v>
@@ -11350,7 +11494,7 @@
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F56" t="s">
         <v>31</v>
@@ -11361,7 +11505,7 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B57" t="s">
         <v>24</v>
@@ -11384,7 +11528,7 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B58" t="s">
         <v>24</v>
@@ -11407,7 +11551,7 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B59" t="s">
         <v>24</v>
@@ -11430,7 +11574,7 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B60" t="s">
         <v>24</v>
@@ -11442,7 +11586,7 @@
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F60" t="s">
         <v>28</v>
@@ -11453,7 +11597,7 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B61" t="s">
         <v>24</v>
@@ -11465,7 +11609,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F61" t="s">
         <v>30</v>
@@ -11476,7 +11620,7 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B62" t="s">
         <v>24</v>
@@ -11488,7 +11632,7 @@
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F62" t="s">
         <v>31</v>
@@ -11499,19 +11643,19 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B63" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C63" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D63" t="s">
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F63" t="s">
         <v>28</v>
@@ -11522,19 +11666,19 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B64" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C64" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D64" t="s">
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F64" t="s">
         <v>30</v>
@@ -11545,19 +11689,19 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B65" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C65" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D65" t="s">
         <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F65" t="s">
         <v>31</v>
@@ -11568,19 +11712,19 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B66" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C66" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D66" t="s">
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F66" t="s">
         <v>28</v>
@@ -11591,19 +11735,19 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B67" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C67" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D67" t="s">
         <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F67" t="s">
         <v>30</v>
@@ -11614,19 +11758,19 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B68" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C68" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D68" t="s">
         <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F68" t="s">
         <v>31</v>
@@ -11637,19 +11781,19 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B69" t="s">
+        <v>39</v>
+      </c>
+      <c r="C69" t="s">
         <v>41</v>
-      </c>
-      <c r="C69" t="s">
-        <v>40</v>
       </c>
       <c r="D69" t="s">
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F69" t="s">
         <v>28</v>
@@ -11660,19 +11804,19 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B70" t="s">
+        <v>39</v>
+      </c>
+      <c r="C70" t="s">
         <v>41</v>
-      </c>
-      <c r="C70" t="s">
-        <v>40</v>
       </c>
       <c r="D70" t="s">
         <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F70" t="s">
         <v>30</v>
@@ -11683,19 +11827,19 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B71" t="s">
+        <v>39</v>
+      </c>
+      <c r="C71" t="s">
         <v>41</v>
-      </c>
-      <c r="C71" t="s">
-        <v>40</v>
       </c>
       <c r="D71" t="s">
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F71" t="s">
         <v>31</v>
@@ -11706,19 +11850,19 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B72" t="s">
+        <v>39</v>
+      </c>
+      <c r="C72" t="s">
         <v>41</v>
-      </c>
-      <c r="C72" t="s">
-        <v>40</v>
       </c>
       <c r="D72" t="s">
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F72" t="s">
         <v>28</v>
@@ -11729,19 +11873,19 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B73" t="s">
+        <v>39</v>
+      </c>
+      <c r="C73" t="s">
         <v>41</v>
-      </c>
-      <c r="C73" t="s">
-        <v>40</v>
       </c>
       <c r="D73" t="s">
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F73" t="s">
         <v>30</v>
@@ -11752,19 +11896,19 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B74" t="s">
+        <v>39</v>
+      </c>
+      <c r="C74" t="s">
         <v>41</v>
-      </c>
-      <c r="C74" t="s">
-        <v>40</v>
       </c>
       <c r="D74" t="s">
         <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F74" t="s">
         <v>31</v>
@@ -11775,13 +11919,13 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B75" t="s">
         <v>36</v>
       </c>
       <c r="C75" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D75" t="s">
         <v>0</v>
@@ -11798,13 +11942,13 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B76" t="s">
         <v>36</v>
       </c>
       <c r="C76" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D76" t="s">
         <v>0</v>
@@ -11821,13 +11965,13 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B77" t="s">
         <v>36</v>
       </c>
       <c r="C77" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D77" t="s">
         <v>0</v>
@@ -11844,13 +11988,13 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B78" t="s">
         <v>36</v>
       </c>
       <c r="C78" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D78" t="s">
         <v>1</v>
@@ -11867,13 +12011,13 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B79" t="s">
         <v>36</v>
       </c>
       <c r="C79" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D79" t="s">
         <v>1</v>
@@ -11890,13 +12034,13 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B80" t="s">
         <v>36</v>
       </c>
       <c r="C80" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D80" t="s">
         <v>1</v>
@@ -11913,13 +12057,13 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B81" t="s">
         <v>36</v>
       </c>
       <c r="C81" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D81" t="s">
         <v>0</v>
@@ -11936,13 +12080,13 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B82" t="s">
         <v>36</v>
       </c>
       <c r="C82" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D82" t="s">
         <v>0</v>
@@ -11959,13 +12103,13 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B83" t="s">
         <v>36</v>
       </c>
       <c r="C83" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D83" t="s">
         <v>0</v>
@@ -11982,13 +12126,13 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B84" t="s">
         <v>36</v>
       </c>
       <c r="C84" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D84" t="s">
         <v>1</v>
@@ -12005,13 +12149,13 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B85" t="s">
         <v>36</v>
       </c>
       <c r="C85" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D85" t="s">
         <v>1</v>
@@ -12028,13 +12172,13 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B86" t="s">
         <v>36</v>
       </c>
       <c r="C86" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D86" t="s">
         <v>1</v>
@@ -12051,19 +12195,19 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B87" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C87" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D87" t="s">
         <v>0</v>
       </c>
       <c r="E87" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F87" t="s">
         <v>28</v>
@@ -12074,19 +12218,19 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B88" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C88" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D88" t="s">
         <v>0</v>
       </c>
       <c r="E88" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F88" t="s">
         <v>28</v>
@@ -12097,19 +12241,19 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B89" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D89" t="s">
         <v>0</v>
       </c>
       <c r="E89" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F89" t="s">
         <v>28</v>
@@ -12120,19 +12264,19 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B90" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C90" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D90" t="s">
         <v>0</v>
       </c>
       <c r="E90" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F90" t="s">
         <v>28</v>
@@ -12143,19 +12287,19 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B91" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C91" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D91" t="s">
         <v>0</v>
       </c>
       <c r="E91" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F91" t="s">
         <v>30</v>
@@ -12166,19 +12310,19 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B92" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C92" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D92" t="s">
         <v>0</v>
       </c>
       <c r="E92" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F92" t="s">
         <v>30</v>
@@ -12189,19 +12333,19 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B93" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C93" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D93" t="s">
         <v>0</v>
       </c>
       <c r="E93" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F93" t="s">
         <v>30</v>
@@ -12212,19 +12356,19 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B94" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C94" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D94" t="s">
         <v>0</v>
       </c>
       <c r="E94" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F94" t="s">
         <v>30</v>
@@ -12235,19 +12379,19 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B95" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C95" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D95" t="s">
         <v>0</v>
       </c>
       <c r="E95" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F95" t="s">
         <v>31</v>
@@ -12258,19 +12402,19 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B96" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C96" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D96" t="s">
         <v>0</v>
       </c>
       <c r="E96" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F96" t="s">
         <v>31</v>
@@ -12281,19 +12425,19 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B97" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C97" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D97" t="s">
         <v>0</v>
       </c>
       <c r="E97" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F97" t="s">
         <v>31</v>
@@ -12304,19 +12448,19 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B98" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C98" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D98" t="s">
         <v>0</v>
       </c>
       <c r="E98" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F98" t="s">
         <v>31</v>
@@ -12327,19 +12471,19 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B99" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C99" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D99" t="s">
         <v>1</v>
       </c>
       <c r="E99" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F99" t="s">
         <v>28</v>
@@ -12350,19 +12494,19 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B100" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C100" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D100" t="s">
         <v>1</v>
       </c>
       <c r="E100" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F100" t="s">
         <v>28</v>
@@ -12373,19 +12517,19 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B101" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C101" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D101" t="s">
         <v>1</v>
       </c>
       <c r="E101" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F101" t="s">
         <v>28</v>
@@ -12396,19 +12540,19 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B102" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C102" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D102" t="s">
         <v>1</v>
       </c>
       <c r="E102" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F102" t="s">
         <v>28</v>
@@ -12419,19 +12563,19 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B103" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C103" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D103" t="s">
         <v>1</v>
       </c>
       <c r="E103" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F103" t="s">
         <v>30</v>
@@ -12442,19 +12586,19 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B104" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C104" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D104" t="s">
         <v>1</v>
       </c>
       <c r="E104" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F104" t="s">
         <v>30</v>
@@ -12465,19 +12609,19 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B105" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C105" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D105" t="s">
         <v>1</v>
       </c>
       <c r="E105" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F105" t="s">
         <v>30</v>
@@ -12488,19 +12632,19 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B106" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C106" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D106" t="s">
         <v>1</v>
       </c>
       <c r="E106" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F106" t="s">
         <v>30</v>
@@ -12511,19 +12655,19 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B107" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C107" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D107" t="s">
         <v>1</v>
       </c>
       <c r="E107" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F107" t="s">
         <v>31</v>
@@ -12534,19 +12678,19 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B108" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C108" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D108" t="s">
         <v>1</v>
       </c>
       <c r="E108" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F108" t="s">
         <v>31</v>
@@ -12557,19 +12701,19 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B109" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C109" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D109" t="s">
         <v>1</v>
       </c>
       <c r="E109" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F109" t="s">
         <v>31</v>
@@ -12580,19 +12724,19 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B110" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C110" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D110" t="s">
         <v>1</v>
       </c>
       <c r="E110" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F110" t="s">
         <v>31</v>
@@ -12603,10 +12747,10 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B111" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C111" t="s">
         <v>41</v>
@@ -12615,7 +12759,7 @@
         <v>0</v>
       </c>
       <c r="E111" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F111" t="s">
         <v>28</v>
@@ -12626,10 +12770,10 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C112" t="s">
         <v>41</v>
@@ -12638,7 +12782,7 @@
         <v>0</v>
       </c>
       <c r="E112" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F112" t="s">
         <v>28</v>
@@ -12649,10 +12793,10 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C113" t="s">
         <v>41</v>
@@ -12661,7 +12805,7 @@
         <v>0</v>
       </c>
       <c r="E113" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F113" t="s">
         <v>28</v>
@@ -12672,10 +12816,10 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C114" t="s">
         <v>41</v>
@@ -12684,7 +12828,7 @@
         <v>0</v>
       </c>
       <c r="E114" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F114" t="s">
         <v>28</v>
@@ -12695,10 +12839,10 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B115" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C115" t="s">
         <v>41</v>
@@ -12707,7 +12851,7 @@
         <v>0</v>
       </c>
       <c r="E115" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F115" t="s">
         <v>30</v>
@@ -12718,10 +12862,10 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B116" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C116" t="s">
         <v>41</v>
@@ -12730,7 +12874,7 @@
         <v>0</v>
       </c>
       <c r="E116" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F116" t="s">
         <v>30</v>
@@ -12741,10 +12885,10 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B117" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C117" t="s">
         <v>41</v>
@@ -12753,7 +12897,7 @@
         <v>0</v>
       </c>
       <c r="E117" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F117" t="s">
         <v>30</v>
@@ -12764,10 +12908,10 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B118" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C118" t="s">
         <v>41</v>
@@ -12776,7 +12920,7 @@
         <v>0</v>
       </c>
       <c r="E118" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F118" t="s">
         <v>30</v>
@@ -12787,10 +12931,10 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B119" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C119" t="s">
         <v>41</v>
@@ -12799,7 +12943,7 @@
         <v>0</v>
       </c>
       <c r="E119" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F119" t="s">
         <v>31</v>
@@ -12810,10 +12954,10 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B120" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C120" t="s">
         <v>41</v>
@@ -12822,7 +12966,7 @@
         <v>0</v>
       </c>
       <c r="E120" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F120" t="s">
         <v>31</v>
@@ -12833,10 +12977,10 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B121" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C121" t="s">
         <v>41</v>
@@ -12845,7 +12989,7 @@
         <v>0</v>
       </c>
       <c r="E121" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F121" t="s">
         <v>31</v>
@@ -12856,10 +13000,10 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B122" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C122" t="s">
         <v>41</v>
@@ -12868,7 +13012,7 @@
         <v>0</v>
       </c>
       <c r="E122" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F122" t="s">
         <v>31</v>
@@ -12879,10 +13023,10 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B123" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C123" t="s">
         <v>41</v>
@@ -12891,7 +13035,7 @@
         <v>1</v>
       </c>
       <c r="E123" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F123" t="s">
         <v>28</v>
@@ -12902,10 +13046,10 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B124" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C124" t="s">
         <v>41</v>
@@ -12914,7 +13058,7 @@
         <v>1</v>
       </c>
       <c r="E124" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F124" t="s">
         <v>28</v>
@@ -12925,10 +13069,10 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B125" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C125" t="s">
         <v>41</v>
@@ -12937,7 +13081,7 @@
         <v>1</v>
       </c>
       <c r="E125" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F125" t="s">
         <v>28</v>
@@ -12948,10 +13092,10 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B126" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C126" t="s">
         <v>41</v>
@@ -12960,7 +13104,7 @@
         <v>1</v>
       </c>
       <c r="E126" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F126" t="s">
         <v>28</v>
@@ -12971,10 +13115,10 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B127" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C127" t="s">
         <v>41</v>
@@ -12983,7 +13127,7 @@
         <v>1</v>
       </c>
       <c r="E127" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F127" t="s">
         <v>30</v>
@@ -12994,10 +13138,10 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B128" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C128" t="s">
         <v>41</v>
@@ -13006,7 +13150,7 @@
         <v>1</v>
       </c>
       <c r="E128" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F128" t="s">
         <v>30</v>
@@ -13017,10 +13161,10 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B129" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C129" t="s">
         <v>41</v>
@@ -13029,7 +13173,7 @@
         <v>1</v>
       </c>
       <c r="E129" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F129" t="s">
         <v>30</v>
@@ -13040,10 +13184,10 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B130" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C130" t="s">
         <v>41</v>
@@ -13052,7 +13196,7 @@
         <v>1</v>
       </c>
       <c r="E130" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F130" t="s">
         <v>30</v>
@@ -13063,10 +13207,10 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B131" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C131" t="s">
         <v>41</v>
@@ -13075,7 +13219,7 @@
         <v>1</v>
       </c>
       <c r="E131" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F131" t="s">
         <v>31</v>
@@ -13086,10 +13230,10 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B132" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C132" t="s">
         <v>41</v>
@@ -13098,7 +13242,7 @@
         <v>1</v>
       </c>
       <c r="E132" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F132" t="s">
         <v>31</v>
@@ -13109,10 +13253,10 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B133" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C133" t="s">
         <v>41</v>
@@ -13121,7 +13265,7 @@
         <v>1</v>
       </c>
       <c r="E133" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F133" t="s">
         <v>31</v>
@@ -13132,10 +13276,10 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B134" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C134" t="s">
         <v>41</v>
@@ -13144,7 +13288,7 @@
         <v>1</v>
       </c>
       <c r="E134" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F134" t="s">
         <v>31</v>
@@ -13155,13 +13299,13 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B135" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C135" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D135" t="s">
         <v>0</v>
@@ -13178,13 +13322,13 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B136" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C136" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D136" t="s">
         <v>0</v>
@@ -13201,13 +13345,13 @@
     </row>
     <row r="137" spans="1:7">
       <c r="A137" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B137" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C137" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D137" t="s">
         <v>0</v>
@@ -13224,13 +13368,13 @@
     </row>
     <row r="138" spans="1:7">
       <c r="A138" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B138" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C138" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D138" t="s">
         <v>1</v>
@@ -13247,13 +13391,13 @@
     </row>
     <row r="139" spans="1:7">
       <c r="A139" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B139" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C139" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D139" t="s">
         <v>1</v>
@@ -13270,13 +13414,13 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B140" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C140" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D140" t="s">
         <v>1</v>
@@ -13293,13 +13437,13 @@
     </row>
     <row r="141" spans="1:7">
       <c r="A141" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B141" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C141" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D141" t="s">
         <v>0</v>
@@ -13316,13 +13460,13 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B142" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C142" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D142" t="s">
         <v>0</v>
@@ -13339,13 +13483,13 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B143" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C143" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D143" t="s">
         <v>0</v>
@@ -13362,13 +13506,13 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B144" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C144" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D144" t="s">
         <v>1</v>
@@ -13385,13 +13529,13 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B145" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C145" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D145" t="s">
         <v>1</v>
@@ -13408,13 +13552,13 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B146" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C146" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D146" t="s">
         <v>1</v>
@@ -13439,8 +13583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -13460,13 +13604,13 @@
         <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="E1" s="24" t="s">
         <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -13494,7 +13638,7 @@
         <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -13502,13 +13646,13 @@
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" s="24" t="s">
         <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -13610,7 +13754,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>45</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -13618,7 +13768,13 @@
         <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>43</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -13626,6 +13782,12 @@
         <v>37</v>
       </c>
       <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" t="s">
         <v>24</v>
       </c>
     </row>
@@ -13634,6 +13796,12 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
         <v>38</v>
       </c>
     </row>
@@ -13644,6 +13812,12 @@
       <c r="B18" s="24" t="s">
         <v>33</v>
       </c>
+      <c r="E18" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="24" t="s">
@@ -13655,20 +13829,35 @@
       <c r="C19" t="s">
         <v>0</v>
       </c>
+      <c r="E19" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="25" t="s">
         <v>31</v>
       </c>
       <c r="B20" s="26">
-        <v>5.1100000000000003</v>
+        <v>4.5990000000000002</v>
       </c>
       <c r="C20" s="26">
-        <v>4.7300000000000004</v>
-      </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
+        <v>4.2570000000000006</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="26">
+        <v>2.214</v>
+      </c>
+      <c r="G20" s="26">
+        <v>1.716</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="25" t="s">
@@ -13680,9 +13869,15 @@
       <c r="C21" s="26">
         <v>71.41</v>
       </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
+      <c r="E21" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="26">
+        <v>2.3050000000000002</v>
+      </c>
+      <c r="G21" s="26">
+        <v>1.7649999999999999</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="25" t="s">
@@ -13694,9 +13889,15 @@
       <c r="C22" s="26">
         <v>4.38</v>
       </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
+      <c r="E22" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="26">
+        <v>2.3660000000000001</v>
+      </c>
+      <c r="G22" s="26">
+        <v>1.7969999999999999</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ClimateStatsforDCEW.xlsx
+++ b/ClimateStatsforDCEW.xlsx
@@ -444,7 +444,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -475,7 +475,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1"/>
@@ -484,7 +483,62 @@
     <cellStyle name="Result" xfId="3"/>
     <cellStyle name="Result2" xfId="4"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="18">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -907,11 +961,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1839608480"/>
-        <c:axId val="1839609024"/>
+        <c:axId val="-1152861328"/>
+        <c:axId val="-888078224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1839608480"/>
+        <c:axId val="-1152861328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -954,12 +1008,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1839609024"/>
+        <c:crossAx val="-888078224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1839609024"/>
+        <c:axId val="-888078224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.75"/>
@@ -1004,7 +1058,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1839608480"/>
+        <c:crossAx val="-1152861328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1601,11 +1655,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1889616112"/>
-        <c:axId val="1889614480"/>
+        <c:axId val="-885191392"/>
+        <c:axId val="-885196832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1889616112"/>
+        <c:axId val="-885191392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1615,12 +1669,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1889614480"/>
+        <c:crossAx val="-885196832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1889614480"/>
+        <c:axId val="-885196832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.4"/>
@@ -1728,7 +1782,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1889616112"/>
+        <c:crossAx val="-885191392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2193,11 +2247,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1799588928"/>
-        <c:axId val="1597066272"/>
+        <c:axId val="-888075504"/>
+        <c:axId val="-888079856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1799588928"/>
+        <c:axId val="-888075504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2240,12 +2294,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1597066272"/>
+        <c:crossAx val="-888079856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1597066272"/>
+        <c:axId val="-888079856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2288,7 +2342,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799588928"/>
+        <c:crossAx val="-888075504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2497,11 +2551,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1888528944"/>
-        <c:axId val="1888520240"/>
+        <c:axId val="-888073872"/>
+        <c:axId val="-888079312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1888528944"/>
+        <c:axId val="-888073872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2544,12 +2598,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1888520240"/>
+        <c:crossAx val="-888079312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1888520240"/>
+        <c:axId val="-888079312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2592,7 +2646,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1888528944"/>
+        <c:crossAx val="-888073872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2848,11 +2902,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1888527312"/>
-        <c:axId val="1888513712"/>
+        <c:axId val="-888068432"/>
+        <c:axId val="-888077680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1888513712"/>
+        <c:axId val="-888077680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2897,12 +2951,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1888527312"/>
+        <c:crossAx val="-888068432"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1888527312"/>
+        <c:axId val="-888068432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2929,7 +2983,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1888513712"/>
+        <c:crossAx val="-888077680"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3195,11 +3249,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1888527856"/>
-        <c:axId val="1888528400"/>
+        <c:axId val="-888076592"/>
+        <c:axId val="-888080944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1888528400"/>
+        <c:axId val="-888080944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3244,12 +3298,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1888527856"/>
+        <c:crossAx val="-888076592"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1888527856"/>
+        <c:axId val="-888076592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3276,7 +3330,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1888528400"/>
+        <c:crossAx val="-888080944"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3542,11 +3596,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1888526768"/>
-        <c:axId val="1888525680"/>
+        <c:axId val="-888074416"/>
+        <c:axId val="-888072784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1888525680"/>
+        <c:axId val="-888072784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3591,12 +3645,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1888526768"/>
+        <c:crossAx val="-888074416"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1888526768"/>
+        <c:axId val="-888074416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3623,7 +3677,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1888525680"/>
+        <c:crossAx val="-888072784"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3889,11 +3943,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1888522416"/>
-        <c:axId val="1888515888"/>
+        <c:axId val="-888074960"/>
+        <c:axId val="-888082576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1888515888"/>
+        <c:axId val="-888082576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3938,12 +3992,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1888522416"/>
+        <c:crossAx val="-888074960"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1888522416"/>
+        <c:axId val="-888074960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3970,7 +4024,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1888515888"/>
+        <c:crossAx val="-888082576"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4236,11 +4290,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1888523504"/>
-        <c:axId val="1888522960"/>
+        <c:axId val="-888070608"/>
+        <c:axId val="-888071152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1888522960"/>
+        <c:axId val="-888071152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4285,12 +4339,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1888523504"/>
+        <c:crossAx val="-888070608"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1888523504"/>
+        <c:axId val="-888070608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4317,7 +4371,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1888522960"/>
+        <c:crossAx val="-888071152"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4583,11 +4637,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1888524048"/>
-        <c:axId val="1888521328"/>
+        <c:axId val="-885198464"/>
+        <c:axId val="-885197376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1888521328"/>
+        <c:axId val="-885197376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4632,12 +4686,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1888524048"/>
+        <c:crossAx val="-885198464"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1888524048"/>
+        <c:axId val="-885198464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4664,7 +4718,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1888521328"/>
+        <c:crossAx val="-885197376"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8588,8 +8642,125 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A19:C23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisPage" showAll="0">
+      <items count="11">
+        <item m="1" x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="7"/>
+        <item m="1" x="6"/>
+        <item m="1" x="8"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="7">
+        <item x="1"/>
+        <item m="1" x="5"/>
+        <item m="1" x="4"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="7">
+        <item m="1" x="5"/>
+        <item x="0"/>
+        <item m="1" x="4"/>
+        <item m="1" x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item m="1" x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="5"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="0" item="6" hier="-1"/>
+    <pageField fld="4" item="2" hier="-1"/>
+    <pageField fld="1" item="0" hier="-1"/>
+    <pageField fld="2" item="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Average of value" fld="6" subtotal="average" baseField="5" baseItem="0" numFmtId="2"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="16">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A6:C10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <location ref="A7:C11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisPage" showAll="0">
       <items count="11">
@@ -8684,12 +8855,17 @@
   <pageFields count="4">
     <pageField fld="0" item="6" hier="-1"/>
     <pageField fld="4" item="0" hier="-1"/>
-    <pageField fld="1" item="3" hier="-1"/>
+    <pageField fld="1" item="5" hier="-1"/>
     <pageField fld="2" item="4" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="Average of value" fld="6" subtotal="average" baseField="5" baseItem="0"/>
+    <dataField name="Average of value" fld="6" subtotal="average" baseField="5" baseItem="0" numFmtId="2"/>
   </dataFields>
+  <formats count="1">
+    <format dxfId="17">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -8699,9 +8875,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="E18:G22" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <location ref="E19:G23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisPage" showAll="0">
       <items count="11">
@@ -8800,8 +8976,13 @@
     <pageField fld="2" item="1" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="Average of value" fld="6" subtotal="average" baseField="5" baseItem="0"/>
+    <dataField name="Average of value" fld="6" subtotal="average" baseField="5" baseItem="0" numFmtId="2"/>
   </dataFields>
+  <formats count="1">
+    <format dxfId="10">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -8811,9 +8992,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="E6:G10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <location ref="E7:G11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisPage" showAll="0">
       <items count="11">
@@ -8908,124 +9089,17 @@
   <pageFields count="4">
     <pageField fld="0" item="6" hier="-1"/>
     <pageField fld="4" item="0" hier="-1"/>
-    <pageField fld="1" item="5" hier="-1"/>
-    <pageField fld="2" item="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Average of value" fld="6" subtotal="average" baseField="5" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A18:C22" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="7">
-    <pivotField axis="axisPage" showAll="0">
-      <items count="11">
-        <item m="1" x="5"/>
-        <item m="1" x="9"/>
-        <item m="1" x="7"/>
-        <item m="1" x="6"/>
-        <item m="1" x="8"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="7">
-        <item x="1"/>
-        <item m="1" x="5"/>
-        <item m="1" x="4"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="7">
-        <item m="1" x="5"/>
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item m="1" x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="5"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="5"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="3"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="0" item="6" hier="-1"/>
-    <pageField fld="4" item="2" hier="-1"/>
-    <pageField fld="1" item="0" hier="-1"/>
+    <pageField fld="1" item="3" hier="-1"/>
     <pageField fld="2" item="5" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="Average of value" fld="6" subtotal="average" baseField="5" baseItem="0"/>
+    <dataField name="Average of value" fld="6" subtotal="average" baseField="5" baseItem="0" numFmtId="2"/>
   </dataFields>
+  <formats count="1">
+    <format dxfId="11">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -13581,321 +13655,321 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A2:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="5.875" customWidth="1"/>
+    <col min="3" max="3" width="5.375" customWidth="1"/>
     <col min="4" max="4" width="3.5" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.125" customWidth="1"/>
-    <col min="7" max="7" width="5.875" customWidth="1"/>
+    <col min="7" max="7" width="4.375" customWidth="1"/>
     <col min="8" max="8" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" t="s">
-        <v>45</v>
-      </c>
-    </row>
     <row r="2" spans="1:7">
       <c r="A2" s="24" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="24" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E5" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="F4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>33</v>
+      <c r="F5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E8" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" t="s">
         <v>1</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G8" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="26">
-        <v>2.4980000000000002</v>
-      </c>
-      <c r="C8" s="26">
-        <v>1.871</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="26">
-        <v>2.5990000000000002</v>
-      </c>
-      <c r="G8" s="26">
-        <v>1.921</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="26">
-        <v>2.5979999999999999</v>
-      </c>
-      <c r="C9" s="26">
-        <v>1.9239999999999999</v>
+        <v>3</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2.5990000000000002</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1.921</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="26">
-        <v>2.7719999999999998</v>
-      </c>
-      <c r="G9" s="26">
-        <v>1.9770000000000001</v>
+        <v>3</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2.2010000000000001</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1.6859999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2.7719999999999998</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1.9770000000000001</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2.2890000000000001</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1.736</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="26">
-        <v>2.665</v>
-      </c>
-      <c r="C10" s="26">
-        <v>1.9590000000000001</v>
-      </c>
-      <c r="E10" s="25" t="s">
+      <c r="B11" s="2">
+        <v>2.7029999999999998</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2.012</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="26">
-        <v>2.7029999999999998</v>
-      </c>
-      <c r="G10" s="26">
-        <v>2.012</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" t="s">
-        <v>45</v>
+      <c r="F11" s="2">
+        <v>2.3479999999999999</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1.766</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="24" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="24" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="24" t="s">
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F17" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>1</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>0</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E20" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F20" t="s">
         <v>1</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G20" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="26">
-        <v>4.5990000000000002</v>
-      </c>
-      <c r="C20" s="26">
-        <v>4.2570000000000006</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="26">
-        <v>2.214</v>
-      </c>
-      <c r="G20" s="26">
-        <v>1.716</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="26">
-        <v>365.15</v>
-      </c>
-      <c r="C21" s="26">
-        <v>71.41</v>
+        <v>31</v>
+      </c>
+      <c r="B21" s="2">
+        <v>5.6210000000000004</v>
+      </c>
+      <c r="C21" s="2">
+        <v>5.2030000000000012</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="26">
-        <v>2.3050000000000002</v>
-      </c>
-      <c r="G21" s="26">
-        <v>1.7649999999999999</v>
+        <v>3</v>
+      </c>
+      <c r="F21" s="2">
+        <v>2.214</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1.716</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="2">
+        <v>365.15</v>
+      </c>
+      <c r="C22" s="2">
+        <v>71.41</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="2">
+        <v>2.3050000000000002</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1.7649999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B23" s="2">
         <v>1.9</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C23" s="2">
         <v>4.38</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E23" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="F22" s="26">
+      <c r="F23" s="2">
         <v>2.3660000000000001</v>
       </c>
-      <c r="G22" s="26">
+      <c r="G23" s="2">
         <v>1.7969999999999999</v>
       </c>
     </row>

--- a/ClimateStatsforDCEW.xlsx
+++ b/ClimateStatsforDCEW.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" tabRatio="657" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" tabRatio="657" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
     <sheet name="Pivot Table" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="52">
   <si>
     <t>wet</t>
   </si>
@@ -173,11 +173,20 @@
   <si>
     <t>Bogus Ridge Weather</t>
   </si>
+  <si>
+    <t>Treeline 4.5</t>
+  </si>
+  <si>
+    <t>Treeline 8.5</t>
+  </si>
+  <si>
+    <t>T average</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -483,49 +492,7 @@
     <cellStyle name="Result" xfId="3"/>
     <cellStyle name="Result2" xfId="4"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -552,7 +519,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -641,6 +608,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5DB2-4F68-AE47-8D6C15FAA3DD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -702,6 +674,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5DB2-4F68-AE47-8D6C15FAA3DD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -766,6 +743,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5DB2-4F68-AE47-8D6C15FAA3DD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -827,6 +809,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5DB2-4F68-AE47-8D6C15FAA3DD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -888,6 +875,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5DB2-4F68-AE47-8D6C15FAA3DD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -952,6 +944,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-5DB2-4F68-AE47-8D6C15FAA3DD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1108,7 +1105,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1221,6 +1218,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AF45-409E-A1BD-C07CAEB4B10A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -1306,6 +1308,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AF45-409E-A1BD-C07CAEB4B10A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -1391,6 +1398,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AF45-409E-A1BD-C07CAEB4B10A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1476,6 +1488,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AF45-409E-A1BD-C07CAEB4B10A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1561,6 +1578,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-AF45-409E-A1BD-C07CAEB4B10A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -1646,6 +1668,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-AF45-409E-A1BD-C07CAEB4B10A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1873,7 +1900,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1985,6 +2012,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AEE4-4365-9C52-751B7A277825}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2048,6 +2080,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AEE4-4365-9C52-751B7A277825}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2111,6 +2148,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AEE4-4365-9C52-751B7A277825}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -2175,6 +2217,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AEE4-4365-9C52-751B7A277825}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -2238,6 +2285,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-AEE4-4365-9C52-751B7A277825}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2392,7 +2444,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2481,6 +2533,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C91C-43BD-9FE0-FBE5DD947158}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -2542,6 +2599,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C91C-43BD-9FE0-FBE5DD947158}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2696,7 +2758,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2821,6 +2883,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-440E-4A0D-9682-FA48D858505D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2893,6 +2960,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-440E-4A0D-9682-FA48D858505D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3043,7 +3115,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3168,6 +3240,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C45F-4BC5-883B-9B3B5430EAA6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3240,6 +3317,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C45F-4BC5-883B-9B3B5430EAA6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3390,7 +3472,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3515,6 +3597,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4423-44EC-A908-0D90627A10BD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3587,6 +3674,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4423-44EC-A908-0D90627A10BD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3737,7 +3829,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3862,6 +3954,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E1CB-4F82-82C0-1E08947801BC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3934,6 +4031,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E1CB-4F82-82C0-1E08947801BC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4084,7 +4186,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4209,6 +4311,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F164-4E9A-AB7B-1B9EBA1A368E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4281,6 +4388,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F164-4E9A-AB7B-1B9EBA1A368E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4431,7 +4543,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4556,6 +4668,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7E57-47EE-890D-C68465C9D51C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4628,6 +4745,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7E57-47EE-890D-C68465C9D51C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -7018,7 +7140,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7048,7 +7176,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7078,7 +7212,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7103,7 +7243,13 @@
     <xdr:ext cx="5416931" cy="3241421"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -7125,7 +7271,13 @@
     <xdr:ext cx="5416931" cy="3241421"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -7147,7 +7299,13 @@
     <xdr:ext cx="5416931" cy="3241421"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -7169,7 +7327,13 @@
     <xdr:ext cx="5416931" cy="3241421"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -7191,7 +7355,13 @@
     <xdr:ext cx="5416931" cy="3241421"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -7213,7 +7383,13 @@
     <xdr:ext cx="5416931" cy="3241421"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -7245,7 +7421,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -7268,7 +7450,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Lucy Gelb" refreshedDate="42436.598321874997" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="144">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A2:G146" sheet="Sheet1"/>
+    <worksheetSource ref="A1:G145" sheet="Sheet1"/>
   </cacheSource>
   <cacheFields count="7">
     <cacheField name="Weather Station" numFmtId="0">
@@ -8642,6 +8824,240 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="E19:G23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisPage" showAll="0">
+      <items count="11">
+        <item m="1" x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="7"/>
+        <item m="1" x="6"/>
+        <item m="1" x="8"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="7">
+        <item x="1"/>
+        <item m="1" x="5"/>
+        <item m="1" x="4"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="7">
+        <item m="1" x="5"/>
+        <item x="0"/>
+        <item m="1" x="4"/>
+        <item m="1" x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item m="1" x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="5"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="0" item="6" hier="-1"/>
+    <pageField fld="4" item="0" hier="-1"/>
+    <pageField fld="1" item="4" hier="-1"/>
+    <pageField fld="2" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Average of value" fld="6" subtotal="average" baseField="5" baseItem="0" numFmtId="2"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="E7:G11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisPage" showAll="0">
+      <items count="11">
+        <item m="1" x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="7"/>
+        <item m="1" x="6"/>
+        <item m="1" x="8"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="7">
+        <item x="1"/>
+        <item m="1" x="5"/>
+        <item m="1" x="4"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="7">
+        <item m="1" x="5"/>
+        <item x="0"/>
+        <item m="1" x="4"/>
+        <item m="1" x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item m="1" x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="5"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="0" item="6" hier="-1"/>
+    <pageField fld="4" item="0" hier="-1"/>
+    <pageField fld="1" item="3" hier="-1"/>
+    <pageField fld="2" item="5" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Average of value" fld="6" subtotal="average" baseField="5" baseItem="0" numFmtId="2"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="1">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A19:C23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="7">
@@ -8745,7 +9161,7 @@
     <dataField name="Average of value" fld="6" subtotal="average" baseField="5" baseItem="0" numFmtId="2"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="16">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -8758,7 +9174,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A7:C11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="7">
@@ -8862,241 +9278,7 @@
     <dataField name="Average of value" fld="6" subtotal="average" baseField="5" baseItem="0" numFmtId="2"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="17">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="E19:G23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="7">
-    <pivotField axis="axisPage" showAll="0">
-      <items count="11">
-        <item m="1" x="5"/>
-        <item m="1" x="9"/>
-        <item m="1" x="7"/>
-        <item m="1" x="6"/>
-        <item m="1" x="8"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="7">
-        <item x="1"/>
-        <item m="1" x="5"/>
-        <item m="1" x="4"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="7">
-        <item m="1" x="5"/>
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item m="1" x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="5"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="5"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="3"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="0" item="6" hier="-1"/>
-    <pageField fld="4" item="0" hier="-1"/>
-    <pageField fld="1" item="4" hier="-1"/>
-    <pageField fld="2" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Average of value" fld="6" subtotal="average" baseField="5" baseItem="0" numFmtId="2"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="10">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="E7:G11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="7">
-    <pivotField axis="axisPage" showAll="0">
-      <items count="11">
-        <item m="1" x="5"/>
-        <item m="1" x="9"/>
-        <item m="1" x="7"/>
-        <item m="1" x="6"/>
-        <item m="1" x="8"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="7">
-        <item x="1"/>
-        <item m="1" x="5"/>
-        <item m="1" x="4"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="7">
-        <item m="1" x="5"/>
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item m="1" x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="5"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="5"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="3"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="0" item="6" hier="-1"/>
-    <pageField fld="4" item="0" hier="-1"/>
-    <pageField fld="1" item="3" hier="-1"/>
-    <pageField fld="2" item="5" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Average of value" fld="6" subtotal="average" baseField="5" baseItem="0" numFmtId="2"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="11">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -9185,6 +9367,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -9220,6 +9419,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -9375,10 +9591,10 @@
   <dimension ref="A1:AL20"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="X29" sqref="S25:X29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10077,6 +10293,26 @@
         <v>2.8980000000000001</v>
       </c>
     </row>
+    <row r="11" spans="1:38">
+      <c r="S11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="W11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="X11" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="12" spans="1:38">
       <c r="A12" s="1" t="s">
         <v>20</v>
@@ -10108,6 +10344,33 @@
       <c r="K12" s="19">
         <v>4.5990000000000002</v>
       </c>
+      <c r="R12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S12" s="2">
+        <f>O5/C5</f>
+        <v>1.0903263403263403</v>
+      </c>
+      <c r="T12" s="2">
+        <f>P5/D5</f>
+        <v>1.090084985835694</v>
+      </c>
+      <c r="U12" s="2">
+        <f t="shared" ref="T12:U12" si="2">Q5/E5</f>
+        <v>1.0901502504173624</v>
+      </c>
+      <c r="V12" s="2">
+        <f>U5/I5</f>
+        <v>1.1282746160794943</v>
+      </c>
+      <c r="W12" s="2">
+        <f t="shared" ref="W12:X12" si="3">V5/J5</f>
+        <v>1.1271149674620389</v>
+      </c>
+      <c r="X12" s="2">
+        <f t="shared" si="3"/>
+        <v>1.1263736263736264</v>
+      </c>
     </row>
     <row r="13" spans="1:38">
       <c r="A13" s="1" t="s">
@@ -10140,6 +10403,33 @@
       <c r="K13" s="19">
         <v>5.1100000000000003</v>
       </c>
+      <c r="R13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S13" s="2">
+        <f>AA5/C5</f>
+        <v>0.9825174825174825</v>
+      </c>
+      <c r="T13" s="2">
+        <f t="shared" ref="T13:U13" si="4">AB5/D5</f>
+        <v>0.98356940509915014</v>
+      </c>
+      <c r="U13" s="2">
+        <f t="shared" si="4"/>
+        <v>0.98274902615470228</v>
+      </c>
+      <c r="V13" s="2">
+        <f>AG5/I5</f>
+        <v>0.99412827461607955</v>
+      </c>
+      <c r="W13" s="2">
+        <f t="shared" ref="W13:X13" si="5">AH5/J5</f>
+        <v>0.99305856832971795</v>
+      </c>
+      <c r="X13" s="2">
+        <f t="shared" si="5"/>
+        <v>0.99239222316145381</v>
+      </c>
     </row>
     <row r="14" spans="1:38">
       <c r="A14" s="1" t="s">
@@ -10177,7 +10467,7 @@
       <c r="A15" s="2"/>
       <c r="P15" s="15"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:24">
       <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
@@ -10187,8 +10477,29 @@
       <c r="D17" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="R17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="S17" s="17">
+        <v>1.716</v>
+      </c>
+      <c r="T17" s="17">
+        <v>1.7649999999999999</v>
+      </c>
+      <c r="U17" s="16">
+        <v>1.7969999999999999</v>
+      </c>
+      <c r="V17" s="19">
+        <v>2.214</v>
+      </c>
+      <c r="W17" s="19">
+        <v>2.3050000000000002</v>
+      </c>
+      <c r="X17" s="18">
+        <v>2.3660000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -10210,8 +10521,29 @@
       <c r="G18" s="19">
         <v>2.2010000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="R18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S18" s="17">
+        <v>1.871</v>
+      </c>
+      <c r="T18" s="17">
+        <v>1.9239999999999999</v>
+      </c>
+      <c r="U18" s="16">
+        <v>1.9590000000000001</v>
+      </c>
+      <c r="V18" s="19">
+        <v>2.4980000000000002</v>
+      </c>
+      <c r="W18" s="19">
+        <v>2.5979999999999999</v>
+      </c>
+      <c r="X18" s="18">
+        <v>2.665</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -10236,8 +10568,29 @@
       <c r="L19" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="R19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S19" s="17">
+        <v>1.6859999999999999</v>
+      </c>
+      <c r="T19" s="17">
+        <v>1.736</v>
+      </c>
+      <c r="U19" s="16">
+        <v>1.766</v>
+      </c>
+      <c r="V19" s="19">
+        <v>2.2010000000000001</v>
+      </c>
+      <c r="W19" s="19">
+        <v>2.2890000000000001</v>
+      </c>
+      <c r="X19" s="18">
+        <v>2.3479999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" s="1">
         <v>3</v>
       </c>
@@ -10275,7 +10628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="O47"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O47" sqref="O47"/>
     </sheetView>
   </sheetViews>
@@ -10294,10 +10647,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G146"/>
+  <dimension ref="A1:G145"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C122" sqref="C1:C1048576"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10312,27 +10666,50 @@
     <col min="19" max="19" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" s="23" customFormat="1" ht="15">
-      <c r="A2" s="23" t="s">
+    <row r="1" spans="1:7" s="23" customFormat="1" ht="15">
+      <c r="A1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B1" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>2.37</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10352,10 +10729,10 @@
         <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>2.37</v>
+        <v>2.415</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10375,10 +10752,10 @@
         <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>2.415</v>
+        <v>2.444</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10392,16 +10769,16 @@
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
         <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>2.444</v>
+        <v>2.915</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -10421,10 +10798,10 @@
         <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>2.915</v>
+        <v>2.988</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -10444,10 +10821,10 @@
         <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>2.988</v>
+        <v>3.036</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10461,16 +10838,16 @@
         <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="G8">
-        <v>3.036</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -10490,10 +10867,10 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9">
-        <v>1.89</v>
+        <v>104.92</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -10513,10 +10890,10 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G10">
-        <v>104.92</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -10530,16 +10907,16 @@
         <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G11">
-        <v>3.45</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -10559,10 +10936,10 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12">
-        <v>1.68</v>
+        <v>505.82</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -10582,15 +10959,15 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G13">
-        <v>505.82</v>
+        <v>4.0599999999999996</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
@@ -10599,16 +10976,16 @@
         <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="G14">
-        <v>4.0599999999999996</v>
+        <v>1.716</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -10628,10 +11005,10 @@
         <v>26</v>
       </c>
       <c r="F15" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G15">
-        <v>1.716</v>
+        <v>1.7649999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -10651,10 +11028,10 @@
         <v>26</v>
       </c>
       <c r="F16" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G16">
-        <v>1.7649999999999999</v>
+        <v>1.7969999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -10671,13 +11048,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="G17">
-        <v>1.7969999999999999</v>
+        <v>4.38</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -10697,10 +11074,10 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18">
-        <v>4.38</v>
+        <v>71.41</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -10720,10 +11097,10 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G19">
-        <v>71.41</v>
+        <v>4.7300000000000004</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -10737,16 +11114,16 @@
         <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="G20">
-        <v>4.7300000000000004</v>
+        <v>2.214</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -10766,10 +11143,10 @@
         <v>26</v>
       </c>
       <c r="F21" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G21">
-        <v>2.214</v>
+        <v>2.3050000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -10789,10 +11166,10 @@
         <v>26</v>
       </c>
       <c r="F22" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G22">
-        <v>2.3050000000000002</v>
+        <v>2.3660000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -10809,13 +11186,13 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="G23">
-        <v>2.3660000000000001</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -10835,10 +11212,10 @@
         <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G24">
-        <v>1.9</v>
+        <v>365.15</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -10858,15 +11235,15 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G25">
-        <v>365.15</v>
+        <v>5.1100000000000003</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
@@ -10875,16 +11252,16 @@
         <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="G26">
-        <v>5.1100000000000003</v>
+        <v>1.643</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -10904,10 +11281,10 @@
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G27">
-        <v>1.643</v>
+        <v>1.6890000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -10927,10 +11304,10 @@
         <v>26</v>
       </c>
       <c r="F28" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G28">
-        <v>1.6890000000000001</v>
+        <v>1.7190000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -10947,13 +11324,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="G29">
-        <v>1.7190000000000001</v>
+        <v>23.38</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -10973,10 +11350,10 @@
         <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G30">
-        <v>23.38</v>
+        <v>66.400000000000006</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -10996,10 +11373,10 @@
         <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G31">
-        <v>66.400000000000006</v>
+        <v>4.3600000000000003</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -11013,16 +11390,16 @@
         <v>38</v>
       </c>
       <c r="D32" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="G32">
-        <v>4.3600000000000003</v>
+        <v>2.2040000000000002</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -11042,10 +11419,10 @@
         <v>26</v>
       </c>
       <c r="F33" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G33">
-        <v>2.2040000000000002</v>
+        <v>2.2890000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -11065,10 +11442,10 @@
         <v>26</v>
       </c>
       <c r="F34" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G34">
-        <v>2.2890000000000001</v>
+        <v>2.3460000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -11085,13 +11462,13 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="G35">
-        <v>2.3460000000000001</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -11111,10 +11488,10 @@
         <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G36">
-        <v>1.59</v>
+        <v>191.67</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -11134,15 +11511,15 @@
         <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G37">
-        <v>191.67</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B38" t="s">
         <v>24</v>
@@ -11151,16 +11528,16 @@
         <v>38</v>
       </c>
       <c r="D38" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="G38">
-        <v>3.08</v>
+        <v>2.238</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -11180,10 +11557,10 @@
         <v>26</v>
       </c>
       <c r="F39" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G39">
-        <v>2.238</v>
+        <v>2.2599999999999998</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -11203,10 +11580,10 @@
         <v>26</v>
       </c>
       <c r="F40" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G40">
-        <v>2.2599999999999998</v>
+        <v>2.274</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -11223,13 +11600,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="G41">
-        <v>2.274</v>
+        <v>13.19</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -11249,10 +11626,10 @@
         <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G42">
-        <v>13.19</v>
+        <v>79.209999999999994</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -11272,10 +11649,10 @@
         <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G43">
-        <v>79.209999999999994</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -11289,16 +11666,16 @@
         <v>38</v>
       </c>
       <c r="D44" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="G44">
-        <v>4.24</v>
+        <v>3.1509999999999998</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -11318,10 +11695,10 @@
         <v>26</v>
       </c>
       <c r="F45" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G45">
-        <v>3.1509999999999998</v>
+        <v>3.2429999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -11341,10 +11718,10 @@
         <v>26</v>
       </c>
       <c r="F46" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G46">
-        <v>3.2429999999999999</v>
+        <v>3.3039999999999998</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -11361,13 +11738,13 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="G47">
-        <v>3.3039999999999998</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -11387,10 +11764,10 @@
         <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G48">
-        <v>2.56</v>
+        <v>377.28</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -11410,15 +11787,15 @@
         <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G49">
-        <v>377.28</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
         <v>24</v>
@@ -11427,16 +11804,16 @@
         <v>38</v>
       </c>
       <c r="D50" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="G50">
-        <v>5.5</v>
+        <v>1.4770000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -11456,10 +11833,10 @@
         <v>26</v>
       </c>
       <c r="F51" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G51">
-        <v>1.4770000000000001</v>
+        <v>1.5089999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -11479,10 +11856,10 @@
         <v>26</v>
       </c>
       <c r="F52" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G52">
-        <v>1.5089999999999999</v>
+        <v>1.5269999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -11499,13 +11876,13 @@
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="F53" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="G53">
-        <v>1.5269999999999999</v>
+        <v>4.53</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -11525,10 +11902,10 @@
         <v>43</v>
       </c>
       <c r="F54" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G54">
-        <v>4.53</v>
+        <v>56.32</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -11548,10 +11925,10 @@
         <v>43</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G55">
-        <v>56.32</v>
+        <v>4.2699999999999996</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -11565,16 +11942,16 @@
         <v>38</v>
       </c>
       <c r="D56" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="G56">
-        <v>4.2699999999999996</v>
+        <v>2.3769999999999998</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -11594,10 +11971,10 @@
         <v>26</v>
       </c>
       <c r="F57" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G57">
-        <v>2.3769999999999998</v>
+        <v>2.476</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -11617,10 +11994,10 @@
         <v>26</v>
       </c>
       <c r="F58" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G58">
-        <v>2.476</v>
+        <v>2.5409999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -11637,13 +12014,13 @@
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="F59" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="G59">
-        <v>2.5409999999999999</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -11663,10 +12040,10 @@
         <v>43</v>
       </c>
       <c r="F60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G60">
-        <v>1.4</v>
+        <v>192.71</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -11686,33 +12063,33 @@
         <v>43</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G61">
-        <v>192.71</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B62" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C62" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D62" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62" t="s">
         <v>43</v>
       </c>
       <c r="F62" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G62">
-        <v>3.22</v>
+        <v>4.38</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -11732,10 +12109,10 @@
         <v>43</v>
       </c>
       <c r="F63" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G63">
-        <v>4.38</v>
+        <v>71.41</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -11755,10 +12132,10 @@
         <v>43</v>
       </c>
       <c r="F64" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G64">
-        <v>71.41</v>
+        <v>5.2030000000000012</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -11772,16 +12149,16 @@
         <v>40</v>
       </c>
       <c r="D65" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65" t="s">
         <v>43</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G65">
-        <v>5.2030000000000012</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -11801,10 +12178,10 @@
         <v>43</v>
       </c>
       <c r="F66" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G66">
-        <v>1.9</v>
+        <v>365.15</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -11824,10 +12201,10 @@
         <v>43</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G67">
-        <v>365.15</v>
+        <v>5.6210000000000004</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -11838,19 +12215,19 @@
         <v>39</v>
       </c>
       <c r="C68" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D68" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68" t="s">
         <v>43</v>
       </c>
       <c r="F68" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G68">
-        <v>5.6210000000000004</v>
+        <v>4.38</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -11870,10 +12247,10 @@
         <v>43</v>
       </c>
       <c r="F69" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G69">
-        <v>4.38</v>
+        <v>71.41</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -11893,10 +12270,10 @@
         <v>43</v>
       </c>
       <c r="F70" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G70">
-        <v>71.41</v>
+        <v>4.2570000000000006</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -11910,16 +12287,16 @@
         <v>41</v>
       </c>
       <c r="D71" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" t="s">
         <v>43</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G71">
-        <v>4.2570000000000006</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -11939,10 +12316,10 @@
         <v>43</v>
       </c>
       <c r="F72" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G72">
-        <v>1.9</v>
+        <v>365.15</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -11962,10 +12339,10 @@
         <v>43</v>
       </c>
       <c r="F73" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G73">
-        <v>365.15</v>
+        <v>4.5990000000000002</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -11973,22 +12350,22 @@
         <v>45</v>
       </c>
       <c r="B74" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C74" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D74" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="G74">
-        <v>4.5990000000000002</v>
+        <v>1.871</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -12008,10 +12385,10 @@
         <v>26</v>
       </c>
       <c r="F75" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G75">
-        <v>1.871</v>
+        <v>1.9239999999999999</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -12031,10 +12408,10 @@
         <v>26</v>
       </c>
       <c r="F76" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G76">
-        <v>1.9239999999999999</v>
+        <v>1.9590000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -12048,16 +12425,16 @@
         <v>40</v>
       </c>
       <c r="D77" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" t="s">
         <v>26</v>
       </c>
       <c r="F77" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G77">
-        <v>1.9590000000000001</v>
+        <v>2.4980000000000002</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -12077,10 +12454,10 @@
         <v>26</v>
       </c>
       <c r="F78" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G78">
-        <v>2.4980000000000002</v>
+        <v>2.5979999999999999</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -12100,10 +12477,10 @@
         <v>26</v>
       </c>
       <c r="F79" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G79">
-        <v>2.5979999999999999</v>
+        <v>2.665</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -12114,19 +12491,19 @@
         <v>36</v>
       </c>
       <c r="C80" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D80" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E80" t="s">
         <v>26</v>
       </c>
       <c r="F80" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G80">
-        <v>2.665</v>
+        <v>1.6859999999999999</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -12146,10 +12523,10 @@
         <v>26</v>
       </c>
       <c r="F81" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G81">
-        <v>1.6859999999999999</v>
+        <v>1.736</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -12169,10 +12546,10 @@
         <v>26</v>
       </c>
       <c r="F82" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G82">
-        <v>1.736</v>
+        <v>1.766</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -12186,16 +12563,16 @@
         <v>41</v>
       </c>
       <c r="D83" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83" t="s">
         <v>26</v>
       </c>
       <c r="F83" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G83">
-        <v>1.766</v>
+        <v>2.2010000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -12215,10 +12592,10 @@
         <v>26</v>
       </c>
       <c r="F84" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G84">
-        <v>2.2010000000000001</v>
+        <v>2.2890000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -12238,38 +12615,38 @@
         <v>26</v>
       </c>
       <c r="F85" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G85">
-        <v>2.2890000000000001</v>
+        <v>2.3479999999999999</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B86" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C86" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D86" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E86" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="F86" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="G86">
-        <v>2.3479999999999999</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B87" t="s">
         <v>39</v>
@@ -12287,12 +12664,12 @@
         <v>28</v>
       </c>
       <c r="G87">
-        <v>1.89</v>
+        <v>23.38</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B88" t="s">
         <v>39</v>
@@ -12310,12 +12687,12 @@
         <v>28</v>
       </c>
       <c r="G88">
-        <v>23.38</v>
+        <v>13.19</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B89" t="s">
         <v>39</v>
@@ -12333,12 +12710,12 @@
         <v>28</v>
       </c>
       <c r="G89">
-        <v>13.19</v>
+        <v>4.53</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B90" t="s">
         <v>39</v>
@@ -12353,15 +12730,15 @@
         <v>43</v>
       </c>
       <c r="F90" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G90">
-        <v>4.53</v>
+        <v>104.92</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B91" t="s">
         <v>39</v>
@@ -12379,12 +12756,12 @@
         <v>30</v>
       </c>
       <c r="G91">
-        <v>104.92</v>
+        <v>66.400000000000006</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B92" t="s">
         <v>39</v>
@@ -12402,12 +12779,12 @@
         <v>30</v>
       </c>
       <c r="G92">
-        <v>66.400000000000006</v>
+        <v>79.209999999999994</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B93" t="s">
         <v>39</v>
@@ -12425,12 +12802,12 @@
         <v>30</v>
       </c>
       <c r="G93">
-        <v>79.209999999999994</v>
+        <v>56.32</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B94" t="s">
         <v>39</v>
@@ -12445,15 +12822,15 @@
         <v>43</v>
       </c>
       <c r="F94" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G94">
-        <v>56.32</v>
+        <v>3.7950000000000004</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B95" t="s">
         <v>39</v>
@@ -12471,12 +12848,12 @@
         <v>31</v>
       </c>
       <c r="G95">
-        <v>3.7950000000000004</v>
+        <v>4.7960000000000012</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B96" t="s">
         <v>39</v>
@@ -12494,12 +12871,12 @@
         <v>31</v>
       </c>
       <c r="G96">
-        <v>4.7960000000000012</v>
+        <v>4.6640000000000006</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B97" t="s">
         <v>39</v>
@@ -12517,12 +12894,12 @@
         <v>31</v>
       </c>
       <c r="G97">
-        <v>4.6640000000000006</v>
+        <v>4.6970000000000001</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B98" t="s">
         <v>39</v>
@@ -12531,21 +12908,21 @@
         <v>40</v>
       </c>
       <c r="D98" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98" t="s">
         <v>43</v>
       </c>
       <c r="F98" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G98">
-        <v>4.6970000000000001</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B99" t="s">
         <v>39</v>
@@ -12563,12 +12940,12 @@
         <v>28</v>
       </c>
       <c r="G99">
-        <v>1.68</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B100" t="s">
         <v>39</v>
@@ -12586,12 +12963,12 @@
         <v>28</v>
       </c>
       <c r="G100">
-        <v>1.59</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B101" t="s">
         <v>39</v>
@@ -12609,12 +12986,12 @@
         <v>28</v>
       </c>
       <c r="G101">
-        <v>2.56</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B102" t="s">
         <v>39</v>
@@ -12629,15 +13006,15 @@
         <v>43</v>
       </c>
       <c r="F102" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G102">
-        <v>1.4</v>
+        <v>505.82</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B103" t="s">
         <v>39</v>
@@ -12655,12 +13032,12 @@
         <v>30</v>
       </c>
       <c r="G103">
-        <v>505.82</v>
+        <v>191.67</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B104" t="s">
         <v>39</v>
@@ -12678,12 +13055,12 @@
         <v>30</v>
       </c>
       <c r="G104">
-        <v>191.67</v>
+        <v>377.28</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B105" t="s">
         <v>39</v>
@@ -12701,12 +13078,12 @@
         <v>30</v>
       </c>
       <c r="G105">
-        <v>377.28</v>
+        <v>192.71</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B106" t="s">
         <v>39</v>
@@ -12721,15 +13098,15 @@
         <v>43</v>
       </c>
       <c r="F106" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G106">
-        <v>192.71</v>
+        <v>4.4660000000000002</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B107" t="s">
         <v>39</v>
@@ -12747,12 +13124,12 @@
         <v>31</v>
       </c>
       <c r="G107">
-        <v>4.4660000000000002</v>
+        <v>3.3880000000000003</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B108" t="s">
         <v>39</v>
@@ -12770,12 +13147,12 @@
         <v>31</v>
       </c>
       <c r="G108">
-        <v>3.3880000000000003</v>
+        <v>6.0500000000000007</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B109" t="s">
         <v>39</v>
@@ -12793,35 +13170,35 @@
         <v>31</v>
       </c>
       <c r="G109">
-        <v>6.0500000000000007</v>
+        <v>3.5420000000000007</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B110" t="s">
         <v>39</v>
       </c>
       <c r="C110" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D110" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E110" t="s">
         <v>43</v>
       </c>
       <c r="F110" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G110">
-        <v>3.5420000000000007</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B111" t="s">
         <v>39</v>
@@ -12839,12 +13216,12 @@
         <v>28</v>
       </c>
       <c r="G111">
-        <v>1.89</v>
+        <v>23.38</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B112" t="s">
         <v>39</v>
@@ -12862,12 +13239,12 @@
         <v>28</v>
       </c>
       <c r="G112">
-        <v>23.38</v>
+        <v>13.19</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B113" t="s">
         <v>39</v>
@@ -12885,12 +13262,12 @@
         <v>28</v>
       </c>
       <c r="G113">
-        <v>13.19</v>
+        <v>4.53</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B114" t="s">
         <v>39</v>
@@ -12905,15 +13282,15 @@
         <v>43</v>
       </c>
       <c r="F114" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G114">
-        <v>4.53</v>
+        <v>104.92</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B115" t="s">
         <v>39</v>
@@ -12931,12 +13308,12 @@
         <v>30</v>
       </c>
       <c r="G115">
-        <v>104.92</v>
+        <v>66.400000000000006</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B116" t="s">
         <v>39</v>
@@ -12954,12 +13331,12 @@
         <v>30</v>
       </c>
       <c r="G116">
-        <v>66.400000000000006</v>
+        <v>79.209999999999994</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B117" t="s">
         <v>39</v>
@@ -12977,12 +13354,12 @@
         <v>30</v>
       </c>
       <c r="G117">
-        <v>79.209999999999994</v>
+        <v>56.32</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B118" t="s">
         <v>39</v>
@@ -12997,15 +13374,15 @@
         <v>43</v>
       </c>
       <c r="F118" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G118">
-        <v>56.32</v>
+        <v>3.1050000000000004</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B119" t="s">
         <v>39</v>
@@ -13023,12 +13400,12 @@
         <v>31</v>
       </c>
       <c r="G119">
-        <v>3.1050000000000004</v>
+        <v>3.9240000000000004</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B120" t="s">
         <v>39</v>
@@ -13046,12 +13423,12 @@
         <v>31</v>
       </c>
       <c r="G120">
-        <v>3.9240000000000004</v>
+        <v>3.8160000000000003</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B121" t="s">
         <v>39</v>
@@ -13069,12 +13446,12 @@
         <v>31</v>
       </c>
       <c r="G121">
-        <v>3.8160000000000003</v>
+        <v>3.8429999999999995</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B122" t="s">
         <v>39</v>
@@ -13083,21 +13460,21 @@
         <v>41</v>
       </c>
       <c r="D122" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E122" t="s">
         <v>43</v>
       </c>
       <c r="F122" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G122">
-        <v>3.8429999999999995</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B123" t="s">
         <v>39</v>
@@ -13115,12 +13492,12 @@
         <v>28</v>
       </c>
       <c r="G123">
-        <v>1.68</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B124" t="s">
         <v>39</v>
@@ -13138,12 +13515,12 @@
         <v>28</v>
       </c>
       <c r="G124">
-        <v>1.59</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B125" t="s">
         <v>39</v>
@@ -13161,12 +13538,12 @@
         <v>28</v>
       </c>
       <c r="G125">
-        <v>2.56</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B126" t="s">
         <v>39</v>
@@ -13181,15 +13558,15 @@
         <v>43</v>
       </c>
       <c r="F126" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G126">
-        <v>1.4</v>
+        <v>505.82</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B127" t="s">
         <v>39</v>
@@ -13207,12 +13584,12 @@
         <v>30</v>
       </c>
       <c r="G127">
-        <v>505.82</v>
+        <v>191.67</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B128" t="s">
         <v>39</v>
@@ -13230,12 +13607,12 @@
         <v>30</v>
       </c>
       <c r="G128">
-        <v>191.67</v>
+        <v>377.28</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B129" t="s">
         <v>39</v>
@@ -13253,12 +13630,12 @@
         <v>30</v>
       </c>
       <c r="G129">
-        <v>377.28</v>
+        <v>192.71</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B130" t="s">
         <v>39</v>
@@ -13273,15 +13650,15 @@
         <v>43</v>
       </c>
       <c r="F130" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G130">
-        <v>192.71</v>
+        <v>3.6539999999999999</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B131" t="s">
         <v>39</v>
@@ -13299,12 +13676,12 @@
         <v>31</v>
       </c>
       <c r="G131">
-        <v>3.6539999999999999</v>
+        <v>2.7720000000000002</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B132" t="s">
         <v>39</v>
@@ -13322,12 +13699,12 @@
         <v>31</v>
       </c>
       <c r="G132">
-        <v>2.7720000000000002</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B133" t="s">
         <v>39</v>
@@ -13345,30 +13722,30 @@
         <v>31</v>
       </c>
       <c r="G133">
-        <v>4.95</v>
+        <v>2.8980000000000001</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B134" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C134" t="s">
         <v>41</v>
       </c>
       <c r="D134" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E134" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F134" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="G134">
-        <v>2.8980000000000001</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -13388,10 +13765,10 @@
         <v>26</v>
       </c>
       <c r="F135" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G135">
-        <v>1.64</v>
+        <v>1.6879999999999999</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -13411,10 +13788,10 @@
         <v>26</v>
       </c>
       <c r="F136" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G136">
-        <v>1.6879999999999999</v>
+        <v>1.718</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -13428,16 +13805,16 @@
         <v>41</v>
       </c>
       <c r="D137" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E137" t="s">
         <v>26</v>
       </c>
       <c r="F137" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G137">
-        <v>1.718</v>
+        <v>2.1139999999999999</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -13457,10 +13834,10 @@
         <v>26</v>
       </c>
       <c r="F138" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G138">
-        <v>2.1139999999999999</v>
+        <v>2.1989999999999998</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -13480,10 +13857,10 @@
         <v>26</v>
       </c>
       <c r="F139" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G139">
-        <v>2.1989999999999998</v>
+        <v>2.2549999999999999</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -13494,19 +13871,19 @@
         <v>42</v>
       </c>
       <c r="C140" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D140" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E140" t="s">
         <v>26</v>
       </c>
       <c r="F140" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G140">
-        <v>2.2549999999999999</v>
+        <v>1.921</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -13526,10 +13903,10 @@
         <v>26</v>
       </c>
       <c r="F141" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G141">
-        <v>1.921</v>
+        <v>1.9770000000000001</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -13549,10 +13926,10 @@
         <v>26</v>
       </c>
       <c r="F142" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G142">
-        <v>1.9770000000000001</v>
+        <v>2.012</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -13566,16 +13943,16 @@
         <v>40</v>
       </c>
       <c r="D143" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E143" t="s">
         <v>26</v>
       </c>
       <c r="F143" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G143">
-        <v>2.012</v>
+        <v>2.5990000000000002</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -13595,10 +13972,10 @@
         <v>26</v>
       </c>
       <c r="F144" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G144">
-        <v>2.5990000000000002</v>
+        <v>2.7719999999999998</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -13618,32 +13995,9 @@
         <v>26</v>
       </c>
       <c r="F145" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G145">
-        <v>2.7719999999999998</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7">
-      <c r="A146" t="s">
-        <v>45</v>
-      </c>
-      <c r="B146" t="s">
-        <v>42</v>
-      </c>
-      <c r="C146" t="s">
-        <v>40</v>
-      </c>
-      <c r="D146" t="s">
-        <v>1</v>
-      </c>
-      <c r="E146" t="s">
-        <v>26</v>
-      </c>
-      <c r="F146" t="s">
-        <v>2</v>
-      </c>
-      <c r="G146">
         <v>2.7029999999999998</v>
       </c>
     </row>
@@ -13657,8 +14011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K16" sqref="I16:K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
